--- a/data/nzd0020/nzd0020.xlsx
+++ b/data/nzd0020/nzd0020.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E237"/>
+  <dimension ref="A1:E240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5246,6 +5246,63 @@
       <c r="E237" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr"/>
+      <c r="C238" t="n">
+        <v>358.4636363636364</v>
+      </c>
+      <c r="D238" t="n">
+        <v>361.9433333333333</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr"/>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="n">
+        <v>344.01</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>363.7188888888889</v>
+      </c>
+      <c r="C240" t="n">
+        <v>360.2472727272728</v>
+      </c>
+      <c r="D240" t="n">
+        <v>372.6266666666667</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -5260,7 +5317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B242"/>
+  <dimension ref="A1:B246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7688,6 +7745,46 @@
       </c>
       <c r="B242" t="n">
         <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1.03</v>
       </c>
     </row>
   </sheetData>
@@ -7856,28 +7953,28 @@
         <v>0.0482</v>
       </c>
       <c r="I2" t="n">
-        <v>1.70745522876368</v>
+        <v>1.677937933829942</v>
       </c>
       <c r="J2" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K2" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0729316453215918</v>
+        <v>0.07146595595219818</v>
       </c>
       <c r="M2" t="n">
-        <v>34.93982406439541</v>
+        <v>34.80291522061039</v>
       </c>
       <c r="N2" t="n">
-        <v>2034.335734861918</v>
+        <v>2026.248833536343</v>
       </c>
       <c r="O2" t="n">
-        <v>45.10361110667214</v>
+        <v>45.01387378949232</v>
       </c>
       <c r="P2" t="n">
-        <v>344.5824073666332</v>
+        <v>344.8465005686971</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -7933,28 +8030,28 @@
         <v>0.0589</v>
       </c>
       <c r="I3" t="n">
-        <v>0.228110040370219</v>
+        <v>0.2290596011492549</v>
       </c>
       <c r="J3" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K3" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01932622845992271</v>
+        <v>0.01992694035657006</v>
       </c>
       <c r="M3" t="n">
-        <v>9.672138396624922</v>
+        <v>9.594634302127687</v>
       </c>
       <c r="N3" t="n">
-        <v>143.9972602362959</v>
+        <v>142.7374393802977</v>
       </c>
       <c r="O3" t="n">
-        <v>11.999885842636</v>
+        <v>11.94727748821034</v>
       </c>
       <c r="P3" t="n">
-        <v>353.0482309146969</v>
+        <v>353.0397069253635</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -8010,28 +8107,28 @@
         <v>0.063</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05906882084446442</v>
+        <v>0.05916882179521202</v>
       </c>
       <c r="J4" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K4" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001438341613189564</v>
+        <v>0.001472027689146893</v>
       </c>
       <c r="M4" t="n">
-        <v>9.229415759381673</v>
+        <v>9.244464073854049</v>
       </c>
       <c r="N4" t="n">
-        <v>131.8719583683643</v>
+        <v>131.9727577755068</v>
       </c>
       <c r="O4" t="n">
-        <v>11.48355164434611</v>
+        <v>11.48793966625464</v>
       </c>
       <c r="P4" t="n">
-        <v>358.0167956423743</v>
+        <v>358.0154939972851</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -8068,7 +8165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E237"/>
+  <dimension ref="A1:E240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14135,6 +14232,75 @@
         </is>
       </c>
     </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr"/>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>-34.80474016764651,173.16519473529357</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>-34.805402799472006,173.16479139781342</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr"/>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>-34.80532488071681,173.16461959414875</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>-34.80421537650013,173.165838102147</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>-34.80474942116934,173.1652106850521</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>-34.805449217499024,173.16489374568894</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0020/nzd0020.xlsx
+++ b/data/nzd0020/nzd0020.xlsx
@@ -7798,7 +7798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7889,35 +7889,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -7976,27 +7981,28 @@
       <c r="P2" t="n">
         <v>344.8465005686971</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.16285612668716 -34.802045631957284, 173.17046486228082 -34.80758152699782)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.1628561266872</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.80204563195728</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.1704648622808</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.80758152699782</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.166660494484</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.80481357947755</v>
       </c>
     </row>
@@ -8053,27 +8059,28 @@
       <c r="P3" t="n">
         <v>353.0397069253635</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.16198932881977 -34.802880411895295, 173.1702894289241 -34.807695727942026)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.1619893288198</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.80288041189529</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.1702894289241</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.80769572794203</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.1661393788719</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.80528806991866</v>
       </c>
     </row>
@@ -8130,27 +8137,28 @@
       <c r="P4" t="n">
         <v>358.0154939972851</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.16132399609003 -34.803830140221955, 173.17021752177067 -34.80786352857964)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.16132399609</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-34.80383014022195</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.1702175217707</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.80786352857964</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.1657707589304</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-34.8058468344008</v>
       </c>
     </row>

--- a/data/nzd0020/nzd0020.xlsx
+++ b/data/nzd0020/nzd0020.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E240"/>
+  <dimension ref="A1:E243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5301,6 +5301,65 @@
         <v>372.6266666666667</v>
       </c>
       <c r="E240" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr"/>
+      <c r="C241" t="n">
+        <v>358.7845454545454</v>
+      </c>
+      <c r="D241" t="n">
+        <v>357.7566666666667</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr"/>
+      <c r="C242" t="n">
+        <v>355.4136363636364</v>
+      </c>
+      <c r="D242" t="n">
+        <v>362.2566666666667</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>329.81</v>
+      </c>
+      <c r="C243" t="n">
+        <v>341.8172727272727</v>
+      </c>
+      <c r="D243" t="n">
+        <v>351.67</v>
+      </c>
+      <c r="E243" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5317,7 +5376,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B246"/>
+  <dimension ref="A1:B249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7785,6 +7844,36 @@
       </c>
       <c r="B246" t="n">
         <v>1.03</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>-0.18</v>
       </c>
     </row>
   </sheetData>
@@ -7958,28 +8047,28 @@
         <v>0.0482</v>
       </c>
       <c r="I2" t="n">
-        <v>1.677937933829942</v>
+        <v>1.608151286344662</v>
       </c>
       <c r="J2" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K2" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07146595595219818</v>
+        <v>0.06637287321072793</v>
       </c>
       <c r="M2" t="n">
-        <v>34.80291522061039</v>
+        <v>34.74328438646896</v>
       </c>
       <c r="N2" t="n">
-        <v>2026.248833536343</v>
+        <v>2033.422074841197</v>
       </c>
       <c r="O2" t="n">
-        <v>45.01387378949232</v>
+        <v>45.09348151164642</v>
       </c>
       <c r="P2" t="n">
-        <v>344.8465005686971</v>
+        <v>345.4755529412128</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8036,28 +8125,28 @@
         <v>0.0589</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2290596011492549</v>
+        <v>0.2099924667561425</v>
       </c>
       <c r="J3" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K3" t="n">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01992694035657006</v>
+        <v>0.01720973887893473</v>
       </c>
       <c r="M3" t="n">
-        <v>9.594634302127687</v>
+        <v>9.557381094508807</v>
       </c>
       <c r="N3" t="n">
-        <v>142.7374393802977</v>
+        <v>142.1732500949307</v>
       </c>
       <c r="O3" t="n">
-        <v>11.94727748821034</v>
+        <v>11.92364248436403</v>
       </c>
       <c r="P3" t="n">
-        <v>353.0397069253635</v>
+        <v>353.2116580866081</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8114,28 +8203,28 @@
         <v>0.063</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05916882179521202</v>
+        <v>0.05280911850505788</v>
       </c>
       <c r="J4" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K4" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001472027689146893</v>
+        <v>0.001209303429597242</v>
       </c>
       <c r="M4" t="n">
-        <v>9.244464073854049</v>
+        <v>9.175951240667777</v>
       </c>
       <c r="N4" t="n">
-        <v>131.9727577755068</v>
+        <v>130.5382913957057</v>
       </c>
       <c r="O4" t="n">
-        <v>11.48793966625464</v>
+        <v>11.4253355047327</v>
       </c>
       <c r="P4" t="n">
-        <v>358.0154939972851</v>
+        <v>358.0735195017634</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8173,7 +8262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E240"/>
+  <dimension ref="A1:E243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14309,6 +14398,79 @@
         </is>
       </c>
     </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr"/>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>-34.804741832526155,173.16519760494913</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>-34.80538460879565,173.1647512889736</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr"/>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>-34.80472434421187,173.1651674613773</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>-34.8054041608756,173.16479439959036</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>-34.804013098073376,173.1655600910807</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>-34.80465380604779,173.16504587918158</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>-34.805358162772635,173.16469297790508</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0020/nzd0020.xlsx
+++ b/data/nzd0020/nzd0020.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E243"/>
+  <dimension ref="A1:E245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5360,6 +5360,48 @@
         <v>351.67</v>
       </c>
       <c r="E243" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>333.0766666666667</v>
+      </c>
+      <c r="C244" t="n">
+        <v>337.3981818181818</v>
+      </c>
+      <c r="D244" t="n">
+        <v>344.8</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>330.3433333333333</v>
+      </c>
+      <c r="C245" t="n">
+        <v>348.5818181818182</v>
+      </c>
+      <c r="D245" t="n">
+        <v>352.78</v>
+      </c>
+      <c r="E245" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5376,7 +5418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B249"/>
+  <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7874,6 +7916,26 @@
       </c>
       <c r="B249" t="n">
         <v>-0.18</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>-0.21</v>
       </c>
     </row>
   </sheetData>
@@ -8047,28 +8109,28 @@
         <v>0.0482</v>
       </c>
       <c r="I2" t="n">
-        <v>1.608151286344662</v>
+        <v>1.480572579634415</v>
       </c>
       <c r="J2" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K2" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06637287321072793</v>
+        <v>0.05750858460901931</v>
       </c>
       <c r="M2" t="n">
-        <v>34.74328438646896</v>
+        <v>34.61846786859815</v>
       </c>
       <c r="N2" t="n">
-        <v>2033.422074841197</v>
+        <v>2043.252404794284</v>
       </c>
       <c r="O2" t="n">
-        <v>45.09348151164642</v>
+        <v>45.20234954949006</v>
       </c>
       <c r="P2" t="n">
-        <v>345.4755529412128</v>
+        <v>346.6271574851125</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8125,28 +8187,28 @@
         <v>0.0589</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2099924667561425</v>
+        <v>0.1819700383278966</v>
       </c>
       <c r="J3" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K3" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01720973887893473</v>
+        <v>0.01304937473161949</v>
       </c>
       <c r="M3" t="n">
-        <v>9.557381094508807</v>
+        <v>9.607427428517612</v>
       </c>
       <c r="N3" t="n">
-        <v>142.1732500949307</v>
+        <v>143.2594268775402</v>
       </c>
       <c r="O3" t="n">
-        <v>11.92364248436403</v>
+        <v>11.969103010566</v>
       </c>
       <c r="P3" t="n">
-        <v>353.2116580866081</v>
+        <v>353.4649001893904</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8203,28 +8265,28 @@
         <v>0.063</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05280911850505788</v>
+        <v>0.03376587001587127</v>
       </c>
       <c r="J4" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K4" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001209303429597242</v>
+        <v>0.0005011572071631498</v>
       </c>
       <c r="M4" t="n">
-        <v>9.175951240667777</v>
+        <v>9.184524526363806</v>
       </c>
       <c r="N4" t="n">
-        <v>130.5382913957057</v>
+        <v>130.4969604903627</v>
       </c>
       <c r="O4" t="n">
-        <v>11.4253355047327</v>
+        <v>11.42352662229851</v>
       </c>
       <c r="P4" t="n">
-        <v>358.0735195017634</v>
+        <v>358.2474604979971</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8262,7 +8324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E243"/>
+  <dimension ref="A1:E245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14471,6 +14533,60 @@
         </is>
       </c>
     </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>-34.804032584914985,173.1655868736592</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>-34.8046308797031,173.16500636257373</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>-34.805328313202445,173.16462716244467</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>-34.804016279598954,173.16556446374568</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>-34.80468890063918,173.16510636946853</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>-34.8053629856256,173.16470361184852</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0020/nzd0020.xlsx
+++ b/data/nzd0020/nzd0020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E245"/>
+  <dimension ref="A1:E246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5402,6 +5402,27 @@
         <v>352.78</v>
       </c>
       <c r="E245" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>292.0011111111111</v>
+      </c>
+      <c r="C246" t="n">
+        <v>316.2281818181818</v>
+      </c>
+      <c r="D246" t="n">
+        <v>337.0033333333333</v>
+      </c>
+      <c r="E246" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5418,7 +5439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B251"/>
+  <dimension ref="A1:B252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7936,6 +7957,16 @@
       </c>
       <c r="B251" t="n">
         <v>-0.21</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>-0.67</v>
       </c>
     </row>
   </sheetData>
@@ -8109,28 +8140,28 @@
         <v>0.0482</v>
       </c>
       <c r="I2" t="n">
-        <v>1.480572579634415</v>
+        <v>1.374812729472068</v>
       </c>
       <c r="J2" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K2" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05750858460901931</v>
+        <v>0.04957146352687902</v>
       </c>
       <c r="M2" t="n">
-        <v>34.61846786859815</v>
+        <v>34.66383870627953</v>
       </c>
       <c r="N2" t="n">
-        <v>2043.252404794284</v>
+        <v>2078.27499815586</v>
       </c>
       <c r="O2" t="n">
-        <v>45.20234954949006</v>
+        <v>45.58810149760418</v>
       </c>
       <c r="P2" t="n">
-        <v>346.6271574851125</v>
+        <v>347.5840889808842</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8187,28 +8218,28 @@
         <v>0.0589</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1819700383278966</v>
+        <v>0.1447528723910886</v>
       </c>
       <c r="J3" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K3" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01304937473161949</v>
+        <v>0.00797336898018941</v>
       </c>
       <c r="M3" t="n">
-        <v>9.607427428517612</v>
+        <v>9.746880368031427</v>
       </c>
       <c r="N3" t="n">
-        <v>143.2594268775402</v>
+        <v>150.0787086269602</v>
       </c>
       <c r="O3" t="n">
-        <v>11.969103010566</v>
+        <v>12.25066155874695</v>
       </c>
       <c r="P3" t="n">
-        <v>353.4649001893904</v>
+        <v>353.8021143249873</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8265,28 +8296,28 @@
         <v>0.063</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03376587001587127</v>
+        <v>0.01417468320680575</v>
       </c>
       <c r="J4" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K4" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0005011572071631498</v>
+        <v>8.786117432446616e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>9.184524526363806</v>
+        <v>9.235136252155174</v>
       </c>
       <c r="N4" t="n">
-        <v>130.4969604903627</v>
+        <v>132.0313725348238</v>
       </c>
       <c r="O4" t="n">
-        <v>11.42352662229851</v>
+        <v>11.49049052629277</v>
       </c>
       <c r="P4" t="n">
-        <v>358.2474604979971</v>
+        <v>358.426886904859</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8324,7 +8355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E245"/>
+  <dimension ref="A1:E246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14587,6 +14618,33 @@
         </is>
       </c>
     </row>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>-34.803787554016104,173.16525010642553</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>-34.80452104907891,173.16481705548188</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>-34.80529443730032,173.16455246945887</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0020/nzd0020.xlsx
+++ b/data/nzd0020/nzd0020.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E246"/>
+  <dimension ref="A1:E247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5423,6 +5423,23 @@
         <v>337.0033333333333</v>
       </c>
       <c r="E246" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr"/>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="n">
+        <v>366.0533333333333</v>
+      </c>
+      <c r="E247" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5439,7 +5456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B252"/>
+  <dimension ref="A1:B253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7967,6 +7984,16 @@
       </c>
       <c r="B252" t="n">
         <v>-0.67</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -8143,7 +8170,7 @@
         <v>1.374812729472068</v>
       </c>
       <c r="J2" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K2" t="n">
         <v>183</v>
@@ -8221,7 +8248,7 @@
         <v>0.1447528723910886</v>
       </c>
       <c r="J3" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K3" t="n">
         <v>233</v>
@@ -8296,28 +8323,28 @@
         <v>0.063</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01417468320680575</v>
+        <v>0.02053591492897414</v>
       </c>
       <c r="J4" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K4" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L4" t="n">
-        <v>8.786117432446616e-05</v>
+        <v>0.0001859976799294394</v>
       </c>
       <c r="M4" t="n">
-        <v>9.235136252155174</v>
+        <v>9.227987472486712</v>
       </c>
       <c r="N4" t="n">
-        <v>132.0313725348238</v>
+        <v>131.6831457539032</v>
       </c>
       <c r="O4" t="n">
-        <v>11.49049052629277</v>
+        <v>11.47532769701603</v>
       </c>
       <c r="P4" t="n">
-        <v>358.426886904859</v>
+        <v>358.3685105632524</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8355,7 +8382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E246"/>
+  <dimension ref="A1:E247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14645,6 +14672,25 @@
         </is>
       </c>
     </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr"/>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>-34.805420657025884,173.16483077219317</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0020/nzd0020.xlsx
+++ b/data/nzd0020/nzd0020.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E247"/>
+  <dimension ref="A1:E248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5434,12 +5434,37 @@
           <t>2025-06-21 22:17:14+00:00</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr"/>
-      <c r="C247" t="inlineStr"/>
+      <c r="B247" t="n">
+        <v>359.5511111111111</v>
+      </c>
+      <c r="C247" t="n">
+        <v>359.1690909090909</v>
+      </c>
       <c r="D247" t="n">
         <v>366.0533333333333</v>
       </c>
       <c r="E247" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>337.5177777777778</v>
+      </c>
+      <c r="C248" t="n">
+        <v>352.9327272727273</v>
+      </c>
+      <c r="D248" t="n">
+        <v>353.9033333333333</v>
+      </c>
+      <c r="E248" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5456,7 +5481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B253"/>
+  <dimension ref="A1:B254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7994,6 +8019,16 @@
       </c>
       <c r="B253" t="n">
         <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>-0.37</v>
       </c>
     </row>
   </sheetData>
@@ -8167,28 +8202,28 @@
         <v>0.0482</v>
       </c>
       <c r="I2" t="n">
-        <v>1.374812729472068</v>
+        <v>1.298160301872266</v>
       </c>
       <c r="J2" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K2" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04957146352687902</v>
+        <v>0.04530586937534631</v>
       </c>
       <c r="M2" t="n">
-        <v>34.66383870627953</v>
+        <v>34.46046955120824</v>
       </c>
       <c r="N2" t="n">
-        <v>2078.27499815586</v>
+        <v>2069.6248855672</v>
       </c>
       <c r="O2" t="n">
-        <v>45.58810149760418</v>
+        <v>45.49313009199521</v>
       </c>
       <c r="P2" t="n">
-        <v>347.5840889808842</v>
+        <v>348.2807663491079</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8245,28 +8280,28 @@
         <v>0.0589</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1447528723910886</v>
+        <v>0.1421310082973986</v>
       </c>
       <c r="J3" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K3" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00797336898018941</v>
+        <v>0.007846247207083046</v>
       </c>
       <c r="M3" t="n">
-        <v>9.746880368031427</v>
+        <v>9.690777577179393</v>
       </c>
       <c r="N3" t="n">
-        <v>150.0787086269602</v>
+        <v>148.9030824463739</v>
       </c>
       <c r="O3" t="n">
-        <v>12.25066155874695</v>
+        <v>12.20258507228587</v>
       </c>
       <c r="P3" t="n">
-        <v>353.8021143249873</v>
+        <v>353.8260608655336</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8323,28 +8358,28 @@
         <v>0.063</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02053591492897414</v>
+        <v>0.01618833816799016</v>
       </c>
       <c r="J4" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K4" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001859976799294394</v>
+        <v>0.0001166916931045758</v>
       </c>
       <c r="M4" t="n">
-        <v>9.227987472486712</v>
+        <v>9.208371525538753</v>
       </c>
       <c r="N4" t="n">
-        <v>131.6831457539032</v>
+        <v>131.2196432432228</v>
       </c>
       <c r="O4" t="n">
-        <v>11.47532769701603</v>
+        <v>11.45511428328948</v>
       </c>
       <c r="P4" t="n">
-        <v>358.3685105632524</v>
+        <v>358.4085680691533</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8382,7 +8417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E247"/>
+  <dimension ref="A1:E248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14678,14 +14713,49 @@
           <t>2025-06-21 22:17:14+00:00</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr"/>
-      <c r="C247" t="inlineStr"/>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>-34.8041905142773,173.1658039314365</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>-34.80474382755182,173.1652010436584</t>
+        </is>
+      </c>
       <c r="D247" t="inlineStr">
         <is>
           <t>-34.805420657025884,173.16483077219317</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>-34.80405907773053,173.16562328523258</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>-34.804711473222795,173.16514527643193</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>-34.80536786640976,173.1647143735283</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0020/nzd0020.xlsx
+++ b/data/nzd0020/nzd0020.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E248"/>
+  <dimension ref="A1:E250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5465,6 +5465,48 @@
         <v>353.9033333333333</v>
       </c>
       <c r="E248" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>331.5855555555555</v>
+      </c>
+      <c r="C249" t="n">
+        <v>338.2027272727273</v>
+      </c>
+      <c r="D249" t="n">
+        <v>348.3166666666667</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>334.6088888888889</v>
+      </c>
+      <c r="C250" t="n">
+        <v>340.8754545454545</v>
+      </c>
+      <c r="D250" t="n">
+        <v>343.8066666666667</v>
+      </c>
+      <c r="E250" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5481,7 +5523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B254"/>
+  <dimension ref="A1:B256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8029,6 +8071,26 @@
       </c>
       <c r="B254" t="n">
         <v>-0.37</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -8202,28 +8264,28 @@
         <v>0.0482</v>
       </c>
       <c r="I2" t="n">
-        <v>1.298160301872266</v>
+        <v>1.193106312802609</v>
       </c>
       <c r="J2" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K2" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04530586937534631</v>
+        <v>0.03906880428403614</v>
       </c>
       <c r="M2" t="n">
-        <v>34.46046955120824</v>
+        <v>34.32545988069361</v>
       </c>
       <c r="N2" t="n">
-        <v>2069.6248855672</v>
+        <v>2072.181084843728</v>
       </c>
       <c r="O2" t="n">
-        <v>45.49313009199521</v>
+        <v>45.52121576631854</v>
       </c>
       <c r="P2" t="n">
-        <v>348.2807663491079</v>
+        <v>349.2391486267761</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8280,28 +8342,28 @@
         <v>0.0589</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1421310082973986</v>
+        <v>0.1115649250022785</v>
       </c>
       <c r="J3" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K3" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007846247207083046</v>
+        <v>0.004862050239197835</v>
       </c>
       <c r="M3" t="n">
-        <v>9.690777577179393</v>
+        <v>9.760932323313519</v>
       </c>
       <c r="N3" t="n">
-        <v>148.9030824463739</v>
+        <v>150.3116270216475</v>
       </c>
       <c r="O3" t="n">
-        <v>12.20258507228587</v>
+        <v>12.26016423306179</v>
       </c>
       <c r="P3" t="n">
-        <v>353.8260608655336</v>
+        <v>354.1052918972816</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8358,28 +8420,28 @@
         <v>0.063</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01618833816799016</v>
+        <v>-0.00550447882753104</v>
       </c>
       <c r="J4" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K4" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001166916931045758</v>
+        <v>1.362206939781174e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>9.208371525538753</v>
+        <v>9.229674897168694</v>
       </c>
       <c r="N4" t="n">
-        <v>131.2196432432228</v>
+        <v>131.4963732784138</v>
       </c>
       <c r="O4" t="n">
-        <v>11.45511428328948</v>
+        <v>11.46718680751359</v>
       </c>
       <c r="P4" t="n">
-        <v>358.4085680691533</v>
+        <v>358.6089957769132</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8417,7 +8479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E248"/>
+  <dimension ref="A1:E250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14761,6 +14823,60 @@
         </is>
       </c>
     </row>
+    <row r="249">
+      <c r="A249" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>-34.80402368990163,173.16557464841264</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>-34.80463505370428,173.1650135570173</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>-34.80534359282679,173.16466085254584</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>-34.80404172516959,173.16559943596823</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>-34.804648919874616,173.16503745720777</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>-34.80532399724997,173.16461764619083</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0020/nzd0020.xlsx
+++ b/data/nzd0020/nzd0020.xlsx
@@ -470,13 +470,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>346.8044444444445</v>
+        <v>346.8</v>
       </c>
       <c r="C2" t="n">
-        <v>350.5263636363636</v>
+        <v>350.53</v>
       </c>
       <c r="D2" t="n">
-        <v>357.9233333333333</v>
+        <v>357.92</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -491,13 +491,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>385.6022222222222</v>
+        <v>385.6</v>
       </c>
       <c r="C3" t="n">
-        <v>356.3445454545454</v>
+        <v>356.34</v>
       </c>
       <c r="D3" t="n">
-        <v>362.5666666666667</v>
+        <v>362.57</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -512,13 +512,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.1344444444445</v>
+        <v>372.13</v>
       </c>
       <c r="C4" t="n">
-        <v>366.1445454545454</v>
+        <v>366.14</v>
       </c>
       <c r="D4" t="n">
-        <v>366.4633333333333</v>
+        <v>366.46</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>361.8511111111111</v>
+        <v>361.85</v>
       </c>
       <c r="C5" t="n">
-        <v>359.7945454545454</v>
+        <v>359.79</v>
       </c>
       <c r="D5" t="n">
-        <v>366.0933333333333</v>
+        <v>366.09</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>347.4188888888889</v>
+        <v>347.42</v>
       </c>
       <c r="C6" t="n">
-        <v>350.1854545454545</v>
+        <v>350.19</v>
       </c>
       <c r="D6" t="n">
-        <v>352.1166666666667</v>
+        <v>352.12</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>327.7733333333333</v>
+        <v>327.77</v>
       </c>
       <c r="C7" t="n">
-        <v>340.3054545454545</v>
+        <v>340.31</v>
       </c>
       <c r="D7" t="n">
         <v>345.58</v>
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>313.2533333333333</v>
+        <v>313.25</v>
       </c>
       <c r="C8" t="n">
-        <v>327.2672727272728</v>
+        <v>327.27</v>
       </c>
       <c r="D8" t="n">
         <v>337.79</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>324.2766666666667</v>
+        <v>324.28</v>
       </c>
       <c r="C9" t="n">
-        <v>334.7854545454546</v>
+        <v>334.79</v>
       </c>
       <c r="D9" t="n">
         <v>344.78</v>
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>351.4022222222222</v>
+        <v>351.4</v>
       </c>
       <c r="C10" t="n">
         <v>347.1</v>
       </c>
       <c r="D10" t="n">
-        <v>353.4466666666667</v>
+        <v>353.45</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>331.9009090909091</v>
+        <v>331.9</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
@@ -676,13 +676,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>348.1677777777778</v>
+        <v>348.17</v>
       </c>
       <c r="C12" t="n">
-        <v>348.7618181818182</v>
+        <v>348.76</v>
       </c>
       <c r="D12" t="n">
-        <v>344.1233333333333</v>
+        <v>344.12</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>353.8066666666667</v>
+        <v>353.81</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>352.94</v>
       </c>
       <c r="C14" t="n">
-        <v>354.1045454545454</v>
+        <v>354.1</v>
       </c>
       <c r="D14" t="n">
         <v>360.36</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>326.7188888888889</v>
+        <v>326.72</v>
       </c>
       <c r="C15" t="n">
-        <v>341.3390909090909</v>
+        <v>341.34</v>
       </c>
       <c r="D15" t="n">
-        <v>351.8866666666667</v>
+        <v>351.89</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -756,13 +756,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>324.0922222222222</v>
+        <v>324.09</v>
       </c>
       <c r="C16" t="n">
-        <v>331.6063636363637</v>
+        <v>331.61</v>
       </c>
       <c r="D16" t="n">
-        <v>338.4466666666667</v>
+        <v>338.45</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -777,13 +777,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>313.2944444444445</v>
+        <v>313.29</v>
       </c>
       <c r="C17" t="n">
-        <v>324.0154545454546</v>
+        <v>324.02</v>
       </c>
       <c r="D17" t="n">
-        <v>336.3333333333333</v>
+        <v>336.33</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>331.6944444444445</v>
+        <v>331.69</v>
       </c>
       <c r="C18" t="n">
-        <v>354.8272727272728</v>
+        <v>354.83</v>
       </c>
       <c r="D18" t="n">
-        <v>362.7533333333333</v>
+        <v>362.75</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
         <v>354.5</v>
       </c>
       <c r="C19" t="n">
-        <v>358.6527272727272</v>
+        <v>358.65</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>356.8644444444445</v>
+        <v>356.86</v>
       </c>
       <c r="C20" t="n">
-        <v>364.5127272727273</v>
+        <v>364.51</v>
       </c>
       <c r="D20" t="n">
-        <v>368.9933333333333</v>
+        <v>368.99</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>317.03</v>
       </c>
       <c r="C21" t="n">
-        <v>338.0518181818182</v>
+        <v>338.05</v>
       </c>
       <c r="D21" t="n">
         <v>352.29</v>
@@ -881,7 +881,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>359.8854545454545</v>
+        <v>359.89</v>
       </c>
       <c r="D22" t="n">
         <v>360.99</v>
@@ -900,10 +900,10 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>365.2809090909091</v>
+        <v>365.28</v>
       </c>
       <c r="D23" t="n">
-        <v>368.2966666666667</v>
+        <v>368.3</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>306.1611111111111</v>
+        <v>306.16</v>
       </c>
       <c r="C24" t="n">
-        <v>337.8445454545454</v>
+        <v>337.84</v>
       </c>
       <c r="D24" t="n">
-        <v>347.5833333333333</v>
+        <v>347.58</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>342.8963636363636</v>
+        <v>342.9</v>
       </c>
       <c r="D25" t="n">
         <v>350.32</v>
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>348.5966666666667</v>
+        <v>348.6</v>
       </c>
       <c r="C26" t="n">
         <v>357.69</v>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>365.7544444444445</v>
+        <v>365.75</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -996,13 +996,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>362.1755555555556</v>
+        <v>362.18</v>
       </c>
       <c r="C28" t="n">
-        <v>359.7172727272728</v>
+        <v>359.72</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3566666666667</v>
+        <v>368.36</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>360.4988888888889</v>
+        <v>360.5</v>
       </c>
       <c r="C29" t="n">
         <v>365.74</v>
       </c>
       <c r="D29" t="n">
-        <v>360.6866666666667</v>
+        <v>360.69</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>348.0388888888889</v>
+        <v>348.04</v>
       </c>
       <c r="C30" t="n">
-        <v>357.3063636363636</v>
+        <v>357.31</v>
       </c>
       <c r="D30" t="n">
-        <v>365.4366666666667</v>
+        <v>365.44</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1059,13 +1059,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>348.8177777777778</v>
+        <v>348.82</v>
       </c>
       <c r="C31" t="n">
-        <v>352.6536363636364</v>
+        <v>352.65</v>
       </c>
       <c r="D31" t="n">
-        <v>354.7933333333333</v>
+        <v>354.79</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1080,13 +1080,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>346.5244444444444</v>
+        <v>346.52</v>
       </c>
       <c r="C32" t="n">
-        <v>349.5527272727272</v>
+        <v>349.55</v>
       </c>
       <c r="D32" t="n">
-        <v>358.1733333333333</v>
+        <v>358.17</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1101,13 +1101,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>376.0644444444445</v>
+        <v>376.06</v>
       </c>
       <c r="C33" t="n">
-        <v>370.9254545454546</v>
+        <v>370.93</v>
       </c>
       <c r="D33" t="n">
-        <v>371.2033333333333</v>
+        <v>371.2</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1122,10 +1122,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>364.4922222222222</v>
+        <v>364.49</v>
       </c>
       <c r="C34" t="n">
-        <v>362.6618181818182</v>
+        <v>362.66</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
@@ -1141,10 +1141,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>369.6311111111111</v>
+        <v>369.63</v>
       </c>
       <c r="C35" t="n">
-        <v>366.610909090909</v>
+        <v>366.61</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
@@ -1161,10 +1161,10 @@
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>357.1372727272728</v>
+        <v>357.14</v>
       </c>
       <c r="D36" t="n">
-        <v>347.2666666666667</v>
+        <v>347.27</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>358.6463636363636</v>
+        <v>358.65</v>
       </c>
       <c r="D37" t="n">
-        <v>361.7466666666666</v>
+        <v>361.75</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1198,13 +1198,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>391.8711111111111</v>
+        <v>391.87</v>
       </c>
       <c r="C38" t="n">
-        <v>382.2154545454546</v>
+        <v>382.22</v>
       </c>
       <c r="D38" t="n">
-        <v>387.4633333333333</v>
+        <v>387.46</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1219,13 +1219,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>366.4977777777778</v>
+        <v>366.5</v>
       </c>
       <c r="C39" t="n">
-        <v>362.509090909091</v>
+        <v>362.51</v>
       </c>
       <c r="D39" t="n">
-        <v>362.2733333333333</v>
+        <v>362.27</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1241,10 +1241,10 @@
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>343.1518181818182</v>
+        <v>343.15</v>
       </c>
       <c r="D40" t="n">
-        <v>351.6866666666667</v>
+        <v>351.69</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>348.2145454545454</v>
+        <v>348.21</v>
       </c>
       <c r="D41" t="n">
         <v>356.1</v>
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>356.6311111111111</v>
+        <v>356.63</v>
       </c>
       <c r="C42" t="n">
-        <v>358.7118181818182</v>
+        <v>358.71</v>
       </c>
       <c r="D42" t="n">
-        <v>359.4833333333333</v>
+        <v>359.48</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1300,10 +1300,10 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>354.4445454545454</v>
+        <v>354.44</v>
       </c>
       <c r="D43" t="n">
-        <v>361.8133333333333</v>
+        <v>361.81</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>370.98</v>
       </c>
       <c r="D44" t="n">
-        <v>372.8733333333333</v>
+        <v>372.87</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1337,13 +1337,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>367.6777777777777</v>
+        <v>367.68</v>
       </c>
       <c r="C45" t="n">
-        <v>367.3763636363637</v>
+        <v>367.38</v>
       </c>
       <c r="D45" t="n">
-        <v>373.1233333333333</v>
+        <v>373.12</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>369.6088888888889</v>
+        <v>369.61</v>
       </c>
       <c r="C46" t="n">
-        <v>374.1636363636364</v>
+        <v>374.16</v>
       </c>
       <c r="D46" t="n">
-        <v>374.5066666666667</v>
+        <v>374.51</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>332.9422222222223</v>
+        <v>332.94</v>
       </c>
       <c r="C47" t="n">
-        <v>338.9690909090909</v>
+        <v>338.97</v>
       </c>
       <c r="D47" t="n">
-        <v>342.7666666666667</v>
+        <v>342.77</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1400,11 +1400,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>325.1655555555556</v>
+        <v>325.17</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>365.5866666666667</v>
+        <v>365.59</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1419,13 +1419,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>343.7644444444445</v>
+        <v>343.76</v>
       </c>
       <c r="C49" t="n">
-        <v>348.0490909090909</v>
+        <v>348.05</v>
       </c>
       <c r="D49" t="n">
-        <v>350.4533333333333</v>
+        <v>350.45</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>360.8133333333333</v>
+        <v>360.81</v>
       </c>
       <c r="C50" t="n">
-        <v>369.199090909091</v>
+        <v>369.2</v>
       </c>
       <c r="D50" t="n">
         <v>364.42</v>
@@ -1461,13 +1461,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>353.3755555555555</v>
+        <v>353.38</v>
       </c>
       <c r="C51" t="n">
-        <v>356.6763636363636</v>
+        <v>356.68</v>
       </c>
       <c r="D51" t="n">
-        <v>360.2666666666667</v>
+        <v>360.27</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>389.5745454545454</v>
+        <v>389.57</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
@@ -1500,10 +1500,10 @@
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>360.1663636363636</v>
+        <v>360.17</v>
       </c>
       <c r="D53" t="n">
-        <v>369.4633333333333</v>
+        <v>369.46</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1519,10 +1519,10 @@
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>357.2936363636364</v>
+        <v>357.29</v>
       </c>
       <c r="D54" t="n">
-        <v>360.2966666666667</v>
+        <v>360.3</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1537,13 +1537,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>422.2588888888889</v>
+        <v>422.26</v>
       </c>
       <c r="C55" t="n">
-        <v>364.3509090909091</v>
+        <v>364.35</v>
       </c>
       <c r="D55" t="n">
-        <v>358.5466666666667</v>
+        <v>358.55</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>433.5644444444445</v>
+        <v>433.56</v>
       </c>
       <c r="C56" t="n">
-        <v>368.5654545454545</v>
+        <v>368.57</v>
       </c>
       <c r="D56" t="n">
-        <v>374.4233333333333</v>
+        <v>374.42</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1579,13 +1579,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>418.5688888888889</v>
+        <v>418.57</v>
       </c>
       <c r="C57" t="n">
-        <v>359.8681818181818</v>
+        <v>359.87</v>
       </c>
       <c r="D57" t="n">
-        <v>360.5266666666667</v>
+        <v>360.53</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1600,13 +1600,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>452.3011111111111</v>
+        <v>452.3</v>
       </c>
       <c r="C58" t="n">
         <v>371.55</v>
       </c>
       <c r="D58" t="n">
-        <v>373.6533333333333</v>
+        <v>373.65</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1621,10 +1621,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>350.9533333333333</v>
+        <v>350.95</v>
       </c>
       <c r="C59" t="n">
-        <v>358.2836363636364</v>
+        <v>358.28</v>
       </c>
       <c r="D59" t="n">
         <v>361.29</v>
@@ -1659,7 +1659,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>335.1555555555556</v>
+        <v>335.16</v>
       </c>
       <c r="C61" t="n">
         <v>353.3</v>
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>350.6066666666667</v>
+        <v>350.61</v>
       </c>
       <c r="C62" t="n">
-        <v>367.5218181818182</v>
+        <v>367.52</v>
       </c>
       <c r="D62" t="n">
         <v>364.64</v>
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>345.7533333333333</v>
+        <v>345.75</v>
       </c>
       <c r="C63" t="n">
-        <v>358.4272727272727</v>
+        <v>358.43</v>
       </c>
       <c r="D63" t="n">
         <v>364.49</v>
@@ -1720,13 +1720,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>332.0444444444445</v>
+        <v>332.04</v>
       </c>
       <c r="C64" t="n">
-        <v>341.8245454545454</v>
+        <v>341.82</v>
       </c>
       <c r="D64" t="n">
-        <v>348.2533333333333</v>
+        <v>348.25</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>331.9133333333333</v>
+        <v>331.91</v>
       </c>
       <c r="C65" t="n">
-        <v>344.8936363636363</v>
+        <v>344.89</v>
       </c>
       <c r="D65" t="n">
         <v>351.44</v>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>369.5681818181818</v>
+        <v>369.57</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
@@ -1800,7 +1800,7 @@
         <v>376.31</v>
       </c>
       <c r="D68" t="n">
-        <v>378.5933333333333</v>
+        <v>378.59</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1834,13 +1834,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>359.2122222222222</v>
+        <v>359.21</v>
       </c>
       <c r="C70" t="n">
-        <v>356.8227272727273</v>
+        <v>356.82</v>
       </c>
       <c r="D70" t="n">
-        <v>362.8566666666667</v>
+        <v>362.86</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1855,13 +1855,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>382.4377777777778</v>
+        <v>382.44</v>
       </c>
       <c r="C71" t="n">
-        <v>374.6063636363637</v>
+        <v>374.61</v>
       </c>
       <c r="D71" t="n">
-        <v>375.7633333333333</v>
+        <v>375.76</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1876,13 +1876,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>349.2788888888889</v>
+        <v>349.28</v>
       </c>
       <c r="C72" t="n">
-        <v>357.2018181818182</v>
+        <v>357.2</v>
       </c>
       <c r="D72" t="n">
-        <v>363.8466666666667</v>
+        <v>363.85</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1897,13 +1897,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>358.5177777777778</v>
+        <v>358.52</v>
       </c>
       <c r="C73" t="n">
-        <v>357.0672727272727</v>
+        <v>357.07</v>
       </c>
       <c r="D73" t="n">
-        <v>368.4833333333333</v>
+        <v>368.48</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>352.7081818181818</v>
+        <v>352.71</v>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
@@ -1936,10 +1936,10 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>354.0472727272727</v>
+        <v>354.05</v>
       </c>
       <c r="D75" t="n">
-        <v>358.9333333333333</v>
+        <v>358.93</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -1955,10 +1955,10 @@
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>336.240909090909</v>
+        <v>336.24</v>
       </c>
       <c r="D76" t="n">
-        <v>364.3933333333333</v>
+        <v>364.39</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -1973,10 +1973,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>341.3566666666667</v>
+        <v>341.36</v>
       </c>
       <c r="C77" t="n">
-        <v>347.3418181818182</v>
+        <v>347.34</v>
       </c>
       <c r="D77" t="n">
         <v>351.4</v>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>364.0418181818182</v>
+        <v>364.04</v>
       </c>
       <c r="D78" t="n">
         <v>368.82</v>
@@ -2016,7 +2016,7 @@
         <v>327.55</v>
       </c>
       <c r="C79" t="n">
-        <v>341.3045454545455</v>
+        <v>341.3</v>
       </c>
       <c r="D79" t="n">
         <v>349.07</v>
@@ -2034,13 +2034,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>309.6055555555556</v>
+        <v>309.61</v>
       </c>
       <c r="C80" t="n">
-        <v>338.4109090909091</v>
+        <v>338.41</v>
       </c>
       <c r="D80" t="n">
-        <v>349.6566666666667</v>
+        <v>349.66</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2055,13 +2055,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>330.8044444444445</v>
+        <v>330.8</v>
       </c>
       <c r="C81" t="n">
-        <v>366.6690909090909</v>
+        <v>366.67</v>
       </c>
       <c r="D81" t="n">
-        <v>369.5933333333333</v>
+        <v>369.59</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2076,13 +2076,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>331.5744444444445</v>
+        <v>331.57</v>
       </c>
       <c r="C82" t="n">
-        <v>357.7490909090909</v>
+        <v>357.75</v>
       </c>
       <c r="D82" t="n">
-        <v>365.9533333333333</v>
+        <v>365.95</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>351.8681818181818</v>
+        <v>351.87</v>
       </c>
       <c r="D83" t="n">
         <v>354.92</v>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>345.5527272727272</v>
+        <v>345.55</v>
       </c>
       <c r="D84" t="n">
         <v>352.54</v>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>351.5309090909091</v>
+        <v>351.53</v>
       </c>
       <c r="D85" t="n">
         <v>362.68</v>
@@ -2154,10 +2154,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>336.0255555555556</v>
+        <v>336.03</v>
       </c>
       <c r="C86" t="n">
-        <v>360.2836363636364</v>
+        <v>360.28</v>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>327.3422222222222</v>
+        <v>327.34</v>
       </c>
       <c r="C87" t="n">
-        <v>335.5045454545455</v>
+        <v>335.5</v>
       </c>
       <c r="D87" t="n">
-        <v>339.6366666666667</v>
+        <v>339.64</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
-        <v>381.6866666666667</v>
+        <v>381.69</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2212,10 +2212,10 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>364.360909090909</v>
+        <v>364.36</v>
       </c>
       <c r="D89" t="n">
-        <v>363.5133333333333</v>
+        <v>363.51</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2230,13 +2230,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>361.3088888888889</v>
+        <v>361.31</v>
       </c>
       <c r="C90" t="n">
-        <v>358.9654545454546</v>
+        <v>358.97</v>
       </c>
       <c r="D90" t="n">
-        <v>365.8966666666667</v>
+        <v>365.9</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2251,13 +2251,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>362.5144444444445</v>
+        <v>362.51</v>
       </c>
       <c r="C91" t="n">
-        <v>371.7318181818182</v>
+        <v>371.73</v>
       </c>
       <c r="D91" t="n">
-        <v>371.6933333333333</v>
+        <v>371.69</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>327.3454545454546</v>
+        <v>327.35</v>
       </c>
       <c r="D92" t="n">
         <v>338.55</v>
@@ -2291,13 +2291,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>323.2555555555556</v>
+        <v>323.26</v>
       </c>
       <c r="C93" t="n">
-        <v>350.5218181818182</v>
+        <v>350.52</v>
       </c>
       <c r="D93" t="n">
-        <v>350.3666666666667</v>
+        <v>350.37</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2313,10 +2313,10 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>361.0918181818182</v>
+        <v>361.09</v>
       </c>
       <c r="D94" t="n">
-        <v>362.3833333333333</v>
+        <v>362.38</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2331,13 +2331,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>344.8411111111111</v>
+        <v>344.84</v>
       </c>
       <c r="C95" t="n">
-        <v>341.0309090909091</v>
+        <v>341.03</v>
       </c>
       <c r="D95" t="n">
-        <v>341.1433333333333</v>
+        <v>341.14</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2353,10 +2353,10 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>360.6963636363636</v>
+        <v>360.7</v>
       </c>
       <c r="D96" t="n">
-        <v>360.1633333333333</v>
+        <v>360.16</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2371,13 +2371,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>362.6511111111111</v>
+        <v>362.65</v>
       </c>
       <c r="C97" t="n">
-        <v>364.6445454545454</v>
+        <v>364.64</v>
       </c>
       <c r="D97" t="n">
-        <v>367.4033333333333</v>
+        <v>367.4</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>354.6322222222223</v>
+        <v>354.63</v>
       </c>
       <c r="C98" t="n">
-        <v>352.4327272727273</v>
+        <v>352.43</v>
       </c>
       <c r="D98" t="n">
-        <v>358.3566666666667</v>
+        <v>358.36</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>355.7988888888889</v>
+        <v>355.8</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
@@ -2430,13 +2430,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>351.8622222222222</v>
+        <v>351.86</v>
       </c>
       <c r="C100" t="n">
-        <v>358.9963636363636</v>
+        <v>359</v>
       </c>
       <c r="D100" t="n">
-        <v>363.1266666666667</v>
+        <v>363.13</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>336.6766666666667</v>
+        <v>336.68</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
@@ -2489,13 +2489,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>370.2811111111111</v>
+        <v>370.28</v>
       </c>
       <c r="C103" t="n">
-        <v>373.6345454545455</v>
+        <v>373.63</v>
       </c>
       <c r="D103" t="n">
-        <v>382.8233333333333</v>
+        <v>382.82</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>372.1345454545455</v>
+        <v>372.13</v>
       </c>
       <c r="D104" t="n">
         <v>368.08</v>
@@ -2529,10 +2529,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>340.5233333333333</v>
+        <v>340.52</v>
       </c>
       <c r="C105" t="n">
-        <v>348.6027272727272</v>
+        <v>348.6</v>
       </c>
       <c r="D105" t="n">
         <v>358.15</v>
@@ -2550,13 +2550,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>359.8577777777778</v>
+        <v>359.86</v>
       </c>
       <c r="C106" t="n">
-        <v>359.5663636363636</v>
+        <v>359.57</v>
       </c>
       <c r="D106" t="n">
-        <v>364.3233333333333</v>
+        <v>364.32</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>341.68</v>
       </c>
       <c r="C107" t="n">
-        <v>351.7645454545454</v>
+        <v>351.76</v>
       </c>
       <c r="D107" t="n">
         <v>356.73</v>
@@ -2592,13 +2592,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>345.2388888888889</v>
+        <v>345.24</v>
       </c>
       <c r="C108" t="n">
-        <v>352.6481818181818</v>
+        <v>352.65</v>
       </c>
       <c r="D108" t="n">
-        <v>364.7866666666667</v>
+        <v>364.79</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2634,13 +2634,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>336.8177777777778</v>
+        <v>336.82</v>
       </c>
       <c r="C110" t="n">
-        <v>339.3327272727273</v>
+        <v>339.33</v>
       </c>
       <c r="D110" t="n">
-        <v>339.4633333333333</v>
+        <v>339.46</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2655,13 +2655,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>329.1988888888889</v>
+        <v>329.2</v>
       </c>
       <c r="C111" t="n">
-        <v>346.0636363636364</v>
+        <v>346.06</v>
       </c>
       <c r="D111" t="n">
-        <v>345.3266666666667</v>
+        <v>345.33</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2677,10 +2677,10 @@
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
-        <v>349.3636363636364</v>
+        <v>349.36</v>
       </c>
       <c r="D112" t="n">
-        <v>355.2666666666667</v>
+        <v>355.27</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2695,13 +2695,13 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>341.7911111111111</v>
+        <v>341.79</v>
       </c>
       <c r="C113" t="n">
-        <v>362.569090909091</v>
+        <v>362.57</v>
       </c>
       <c r="D113" t="n">
-        <v>368.2133333333333</v>
+        <v>368.21</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2716,10 +2716,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>342.6433333333333</v>
+        <v>342.64</v>
       </c>
       <c r="C114" t="n">
-        <v>366.3572727272728</v>
+        <v>366.36</v>
       </c>
       <c r="D114" t="n">
         <v>365.04</v>
@@ -2737,13 +2737,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>351.2555555555556</v>
+        <v>351.26</v>
       </c>
       <c r="C115" t="n">
-        <v>359.6545454545454</v>
+        <v>359.65</v>
       </c>
       <c r="D115" t="n">
-        <v>359.4066666666667</v>
+        <v>359.41</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>313.9366666666667</v>
+        <v>313.94</v>
       </c>
       <c r="C116" t="n">
-        <v>339.1072727272727</v>
+        <v>339.11</v>
       </c>
       <c r="D116" t="n">
         <v>344.38</v>
@@ -2779,7 +2779,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>320.0933333333333</v>
+        <v>320.09</v>
       </c>
       <c r="C117" t="n">
         <v>358.63</v>
@@ -2800,13 +2800,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>313.6422222222222</v>
+        <v>313.64</v>
       </c>
       <c r="C118" t="n">
-        <v>337.3381818181818</v>
+        <v>337.34</v>
       </c>
       <c r="D118" t="n">
-        <v>339.1666666666667</v>
+        <v>339.17</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2822,10 +2822,10 @@
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>344.6745454545455</v>
+        <v>344.67</v>
       </c>
       <c r="D119" t="n">
-        <v>354.9233333333333</v>
+        <v>354.92</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="n">
-        <v>351.9636363636364</v>
+        <v>351.96</v>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
@@ -2857,13 +2857,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>353.4177777777778</v>
+        <v>353.42</v>
       </c>
       <c r="C121" t="n">
         <v>364.48</v>
       </c>
       <c r="D121" t="n">
-        <v>366.0033333333333</v>
+        <v>366</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2878,13 +2878,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>337.4444444444445</v>
+        <v>337.44</v>
       </c>
       <c r="C122" t="n">
-        <v>338.4581818181818</v>
+        <v>338.46</v>
       </c>
       <c r="D122" t="n">
-        <v>333.0833333333333</v>
+        <v>333.08</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>366.3233333333333</v>
+        <v>366.32</v>
       </c>
       <c r="C123" t="n">
-        <v>374.6854545454545</v>
+        <v>374.69</v>
       </c>
       <c r="D123" t="n">
         <v>372.81</v>
@@ -2921,10 +2921,10 @@
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
-        <v>337.0645454545455</v>
+        <v>337.06</v>
       </c>
       <c r="D124" t="n">
-        <v>345.2133333333333</v>
+        <v>345.21</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -2939,13 +2939,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>350.6511111111111</v>
+        <v>350.65</v>
       </c>
       <c r="C125" t="n">
-        <v>361.9372727272727</v>
+        <v>361.94</v>
       </c>
       <c r="D125" t="n">
-        <v>363.3533333333333</v>
+        <v>363.35</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -2960,13 +2960,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>334.1755555555555</v>
+        <v>334.18</v>
       </c>
       <c r="C126" t="n">
-        <v>346.0081818181818</v>
+        <v>346.01</v>
       </c>
       <c r="D126" t="n">
-        <v>350.5966666666667</v>
+        <v>350.6</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>335.17</v>
       </c>
       <c r="C127" t="n">
-        <v>346.4590909090909</v>
+        <v>346.46</v>
       </c>
       <c r="D127" t="n">
         <v>350.15</v>
@@ -3002,13 +3002,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>313.6544444444444</v>
+        <v>313.65</v>
       </c>
       <c r="C128" t="n">
         <v>336.39</v>
       </c>
       <c r="D128" t="n">
-        <v>344.7533333333333</v>
+        <v>344.75</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3023,13 +3023,13 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>348.6122222222222</v>
+        <v>348.61</v>
       </c>
       <c r="C129" t="n">
-        <v>360.4236363636364</v>
+        <v>360.42</v>
       </c>
       <c r="D129" t="n">
-        <v>368.2866666666667</v>
+        <v>368.29</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3044,13 +3044,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>338.7811111111111</v>
+        <v>338.78</v>
       </c>
       <c r="C130" t="n">
         <v>357.73</v>
       </c>
       <c r="D130" t="n">
-        <v>358.3933333333333</v>
+        <v>358.39</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>347.9233333333333</v>
+        <v>347.92</v>
       </c>
       <c r="C131" t="n">
         <v>367.83</v>
@@ -3086,11 +3086,11 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>351.8544444444445</v>
+        <v>351.85</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
-        <v>366.0933333333333</v>
+        <v>366.09</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>428.0133333333333</v>
+        <v>428.01</v>
       </c>
       <c r="C133" t="n">
         <v>361.91</v>
@@ -3126,13 +3126,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>460.1422222222222</v>
+        <v>460.14</v>
       </c>
       <c r="C134" t="n">
-        <v>378.2663636363636</v>
+        <v>378.27</v>
       </c>
       <c r="D134" t="n">
-        <v>371.7066666666667</v>
+        <v>371.71</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3147,13 +3147,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>482.3011111111111</v>
+        <v>482.3</v>
       </c>
       <c r="C135" t="n">
         <v>359.69</v>
       </c>
       <c r="D135" t="n">
-        <v>361.9233333333333</v>
+        <v>361.92</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3168,13 +3168,13 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>481.9355555555555</v>
+        <v>481.94</v>
       </c>
       <c r="C136" t="n">
-        <v>359.7372727272727</v>
+        <v>359.74</v>
       </c>
       <c r="D136" t="n">
-        <v>360.8266666666667</v>
+        <v>360.83</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3189,13 +3189,13 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>428.9822222222222</v>
+        <v>428.98</v>
       </c>
       <c r="C137" t="n">
-        <v>362.460909090909</v>
+        <v>362.46</v>
       </c>
       <c r="D137" t="n">
-        <v>354.5066666666667</v>
+        <v>354.51</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3210,13 +3210,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>327.6277777777778</v>
+        <v>327.63</v>
       </c>
       <c r="C138" t="n">
-        <v>348.1627272727272</v>
+        <v>348.16</v>
       </c>
       <c r="D138" t="n">
-        <v>348.0833333333333</v>
+        <v>348.08</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3231,10 +3231,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>337.9733333333333</v>
+        <v>337.97</v>
       </c>
       <c r="C139" t="n">
-        <v>352.6072727272727</v>
+        <v>352.61</v>
       </c>
       <c r="D139" t="n">
         <v>352.51</v>
@@ -3252,13 +3252,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>343.9344444444445</v>
+        <v>343.93</v>
       </c>
       <c r="C140" t="n">
-        <v>353.3681818181818</v>
+        <v>353.37</v>
       </c>
       <c r="D140" t="n">
-        <v>355.1333333333333</v>
+        <v>355.13</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3273,13 +3273,13 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>343.3622222222222</v>
+        <v>343.36</v>
       </c>
       <c r="C141" t="n">
-        <v>358.6163636363636</v>
+        <v>358.62</v>
       </c>
       <c r="D141" t="n">
-        <v>358.3066666666667</v>
+        <v>358.31</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3294,13 +3294,13 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>324.7211111111111</v>
+        <v>324.72</v>
       </c>
       <c r="C142" t="n">
-        <v>333.7309090909091</v>
+        <v>333.73</v>
       </c>
       <c r="D142" t="n">
-        <v>351.9333333333333</v>
+        <v>351.93</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3334,13 +3334,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>335.6211111111111</v>
+        <v>335.62</v>
       </c>
       <c r="C144" t="n">
-        <v>341.1036363636364</v>
+        <v>341.1</v>
       </c>
       <c r="D144" t="n">
-        <v>335.3433333333333</v>
+        <v>335.34</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>334.07</v>
       </c>
       <c r="C145" t="n">
-        <v>343.2527272727273</v>
+        <v>343.25</v>
       </c>
       <c r="D145" t="n">
         <v>346.86</v>
@@ -3379,7 +3379,7 @@
         <v>341.34</v>
       </c>
       <c r="C146" t="n">
-        <v>351.0836363636364</v>
+        <v>351.08</v>
       </c>
       <c r="D146" t="n">
         <v>356.77</v>
@@ -3397,13 +3397,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>345.4444444444445</v>
+        <v>345.44</v>
       </c>
       <c r="C147" t="n">
-        <v>359.7981818181818</v>
+        <v>359.8</v>
       </c>
       <c r="D147" t="n">
-        <v>360.9333333333333</v>
+        <v>360.93</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>341.98</v>
       </c>
       <c r="C148" t="n">
-        <v>348.4081818181818</v>
+        <v>348.41</v>
       </c>
       <c r="D148" t="n">
         <v>350.54</v>
@@ -3439,7 +3439,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>476.2133333333333</v>
+        <v>476.21</v>
       </c>
       <c r="C149" t="n">
         <v>349.19</v>
@@ -3460,10 +3460,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>468.5433333333333</v>
+        <v>468.54</v>
       </c>
       <c r="C150" t="n">
-        <v>343.6272727272727</v>
+        <v>343.63</v>
       </c>
       <c r="D150" t="n">
         <v>347.46</v>
@@ -3484,7 +3484,7 @@
         <v>456.3</v>
       </c>
       <c r="C151" t="n">
-        <v>363.8418181818182</v>
+        <v>363.84</v>
       </c>
       <c r="D151" t="n">
         <v>366.52</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>467.8066666666667</v>
+        <v>467.81</v>
       </c>
       <c r="C152" t="n">
-        <v>364.0854545454546</v>
+        <v>364.09</v>
       </c>
       <c r="D152" t="n">
         <v>368.69</v>
@@ -3523,13 +3523,13 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>469.2144444444445</v>
+        <v>469.21</v>
       </c>
       <c r="C153" t="n">
         <v>352.95</v>
       </c>
       <c r="D153" t="n">
-        <v>349.2033333333333</v>
+        <v>349.2</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3545,10 +3545,10 @@
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="n">
-        <v>355.7127272727272</v>
+        <v>355.71</v>
       </c>
       <c r="D154" t="n">
-        <v>359.4966666666667</v>
+        <v>359.5</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3563,10 +3563,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>475.6366666666667</v>
+        <v>475.64</v>
       </c>
       <c r="C155" t="n">
-        <v>352.7372727272727</v>
+        <v>352.74</v>
       </c>
       <c r="D155" t="n">
         <v>357.17</v>
@@ -3587,7 +3587,7 @@
         <v>478.13</v>
       </c>
       <c r="C156" t="n">
-        <v>361.2881818181818</v>
+        <v>361.29</v>
       </c>
       <c r="D156" t="n">
         <v>357.64</v>
@@ -3605,7 +3605,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>473.0033333333333</v>
+        <v>473</v>
       </c>
       <c r="C157" t="n">
         <v>353.19</v>
@@ -3626,13 +3626,13 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>468.9088888888889</v>
+        <v>468.91</v>
       </c>
       <c r="C158" t="n">
-        <v>376.3672727272727</v>
+        <v>376.37</v>
       </c>
       <c r="D158" t="n">
-        <v>376.1966666666667</v>
+        <v>376.2</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -3647,13 +3647,13 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>373.1877777777778</v>
+        <v>373.19</v>
       </c>
       <c r="C159" t="n">
-        <v>377.3390909090909</v>
+        <v>377.34</v>
       </c>
       <c r="D159" t="n">
-        <v>372.4033333333333</v>
+        <v>372.4</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3668,13 +3668,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>353.3077777777777</v>
+        <v>353.31</v>
       </c>
       <c r="C160" t="n">
-        <v>365.8690909090909</v>
+        <v>365.87</v>
       </c>
       <c r="D160" t="n">
-        <v>371.6933333333333</v>
+        <v>371.69</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -3689,10 +3689,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>353.0688888888889</v>
+        <v>353.07</v>
       </c>
       <c r="C161" t="n">
-        <v>365.3763636363637</v>
+        <v>365.38</v>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
@@ -3708,13 +3708,13 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>348.7977777777777</v>
+        <v>348.8</v>
       </c>
       <c r="C162" t="n">
-        <v>368.0054545454545</v>
+        <v>368.01</v>
       </c>
       <c r="D162" t="n">
-        <v>373.0733333333333</v>
+        <v>373.07</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -3730,10 +3730,10 @@
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>355.1545454545454</v>
+        <v>355.15</v>
       </c>
       <c r="D163" t="n">
-        <v>352.3866666666667</v>
+        <v>352.39</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="n">
-        <v>346.9645454545454</v>
+        <v>346.96</v>
       </c>
       <c r="D164" t="n">
         <v>350.52</v>
@@ -3768,10 +3768,10 @@
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="n">
-        <v>360.6163636363637</v>
+        <v>360.62</v>
       </c>
       <c r="D165" t="n">
-        <v>364.0933333333333</v>
+        <v>364.09</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -3786,13 +3786,13 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>349.2788888888889</v>
+        <v>349.28</v>
       </c>
       <c r="C166" t="n">
-        <v>361.9254545454546</v>
+        <v>361.93</v>
       </c>
       <c r="D166" t="n">
-        <v>366.0166666666667</v>
+        <v>366.02</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -3807,10 +3807,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>349.7733333333333</v>
+        <v>349.77</v>
       </c>
       <c r="C167" t="n">
-        <v>362.0227272727273</v>
+        <v>362.02</v>
       </c>
       <c r="D167" t="n">
         <v>369.44</v>
@@ -3828,13 +3828,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>343.3622222222222</v>
+        <v>343.36</v>
       </c>
       <c r="C168" t="n">
-        <v>363.3227272727273</v>
+        <v>363.32</v>
       </c>
       <c r="D168" t="n">
-        <v>368.2066666666667</v>
+        <v>368.21</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -3849,13 +3849,13 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>348.8355555555555</v>
+        <v>348.84</v>
       </c>
       <c r="C169" t="n">
         <v>361.67</v>
       </c>
       <c r="D169" t="n">
-        <v>362.8866666666667</v>
+        <v>362.89</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -3870,13 +3870,13 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>474.0311111111111</v>
+        <v>474.03</v>
       </c>
       <c r="C170" t="n">
-        <v>359.7109090909091</v>
+        <v>359.71</v>
       </c>
       <c r="D170" t="n">
-        <v>368.5633333333333</v>
+        <v>368.56</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -3891,13 +3891,13 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>472.3977777777778</v>
+        <v>472.4</v>
       </c>
       <c r="C171" t="n">
         <v>359.65</v>
       </c>
       <c r="D171" t="n">
-        <v>367.7733333333333</v>
+        <v>367.77</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -3912,10 +3912,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>467.1133333333333</v>
+        <v>467.11</v>
       </c>
       <c r="C172" t="n">
-        <v>362.490909090909</v>
+        <v>362.49</v>
       </c>
       <c r="D172" t="n">
         <v>370.9</v>
@@ -3933,13 +3933,13 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>461.2455555555555</v>
+        <v>461.25</v>
       </c>
       <c r="C173" t="n">
-        <v>376.3672727272727</v>
+        <v>376.37</v>
       </c>
       <c r="D173" t="n">
-        <v>372.2166666666667</v>
+        <v>372.22</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -3955,10 +3955,10 @@
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="n">
-        <v>378.7645454545454</v>
+        <v>378.76</v>
       </c>
       <c r="D174" t="n">
-        <v>373.8133333333333</v>
+        <v>373.81</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="n">
-        <v>370.9936363636364</v>
+        <v>370.99</v>
       </c>
       <c r="D175" t="n">
         <v>374.65</v>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="n">
-        <v>362.2463636363637</v>
+        <v>362.25</v>
       </c>
       <c r="D176" t="n">
         <v>370.16</v>
@@ -4011,13 +4011,13 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>485.2922222222222</v>
+        <v>485.29</v>
       </c>
       <c r="C177" t="n">
-        <v>365.639090909091</v>
+        <v>365.64</v>
       </c>
       <c r="D177" t="n">
-        <v>367.4066666666667</v>
+        <v>367.41</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -4032,13 +4032,13 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>412.4188888888889</v>
+        <v>412.42</v>
       </c>
       <c r="C178" t="n">
-        <v>360.759090909091</v>
+        <v>360.76</v>
       </c>
       <c r="D178" t="n">
-        <v>370.2666666666667</v>
+        <v>370.27</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>450.8988888888889</v>
+        <v>450.9</v>
       </c>
       <c r="C179" t="n">
-        <v>356.8263636363636</v>
+        <v>356.83</v>
       </c>
       <c r="D179" t="n">
-        <v>356.4166666666667</v>
+        <v>356.42</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -4074,13 +4074,13 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>452.0755555555555</v>
+        <v>452.08</v>
       </c>
       <c r="C180" t="n">
-        <v>370.2054545454546</v>
+        <v>370.21</v>
       </c>
       <c r="D180" t="n">
-        <v>376.1466666666667</v>
+        <v>376.15</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -4095,10 +4095,10 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>388.1766666666667</v>
+        <v>388.18</v>
       </c>
       <c r="C181" t="n">
-        <v>381.7963636363637</v>
+        <v>381.8</v>
       </c>
       <c r="D181" t="n">
         <v>382.17</v>
@@ -4119,7 +4119,7 @@
         <v>374.11</v>
       </c>
       <c r="C182" t="n">
-        <v>368.6027272727272</v>
+        <v>368.6</v>
       </c>
       <c r="D182" t="n">
         <v>375.58</v>
@@ -4137,13 +4137,13 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>387.9322222222222</v>
+        <v>387.93</v>
       </c>
       <c r="C183" t="n">
-        <v>378.5190909090909</v>
+        <v>378.52</v>
       </c>
       <c r="D183" t="n">
-        <v>383.4466666666667</v>
+        <v>383.45</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -4158,13 +4158,13 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>353.4555555555555</v>
+        <v>353.46</v>
       </c>
       <c r="C184" t="n">
-        <v>360.3127272727273</v>
+        <v>360.31</v>
       </c>
       <c r="D184" t="n">
-        <v>370.6966666666667</v>
+        <v>370.7</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -4179,13 +4179,13 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>361.6511111111111</v>
+        <v>361.65</v>
       </c>
       <c r="C185" t="n">
-        <v>367.0972727272728</v>
+        <v>367.1</v>
       </c>
       <c r="D185" t="n">
-        <v>372.4933333333333</v>
+        <v>372.49</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -4200,13 +4200,13 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>350.1311111111111</v>
+        <v>350.13</v>
       </c>
       <c r="C186" t="n">
-        <v>370.6890909090909</v>
+        <v>370.69</v>
       </c>
       <c r="D186" t="n">
-        <v>374.4533333333333</v>
+        <v>374.45</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="n">
-        <v>366.6909090909091</v>
+        <v>366.69</v>
       </c>
       <c r="D187" t="n">
         <v>369.93</v>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>385.2766666666667</v>
+        <v>385.28</v>
       </c>
       <c r="C188" t="n">
         <v>382.17</v>
@@ -4262,10 +4262,10 @@
       </c>
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="n">
-        <v>343.7127272727272</v>
+        <v>343.71</v>
       </c>
       <c r="D189" t="n">
-        <v>348.7333333333333</v>
+        <v>348.73</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -4281,10 +4281,10 @@
       </c>
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="n">
-        <v>342.3090909090909</v>
+        <v>342.31</v>
       </c>
       <c r="D190" t="n">
-        <v>346.5466666666667</v>
+        <v>346.55</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -4300,10 +4300,10 @@
       </c>
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="n">
-        <v>355.2645454545454</v>
+        <v>355.26</v>
       </c>
       <c r="D191" t="n">
-        <v>359.7133333333333</v>
+        <v>359.71</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -4319,10 +4319,10 @@
       </c>
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="n">
-        <v>361.5327272727272</v>
+        <v>361.53</v>
       </c>
       <c r="D192" t="n">
-        <v>362.6066666666667</v>
+        <v>362.61</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>366.96</v>
       </c>
       <c r="D193" t="n">
-        <v>367.6566666666667</v>
+        <v>367.66</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -4356,10 +4356,10 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>350.9866666666667</v>
+        <v>350.99</v>
       </c>
       <c r="C194" t="n">
-        <v>359.7318181818182</v>
+        <v>359.73</v>
       </c>
       <c r="D194" t="n">
         <v>352.99</v>
@@ -4377,13 +4377,13 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>347.4022222222222</v>
+        <v>347.4</v>
       </c>
       <c r="C195" t="n">
-        <v>349.7854545454546</v>
+        <v>349.79</v>
       </c>
       <c r="D195" t="n">
-        <v>346.8566666666667</v>
+        <v>346.86</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>357.06</v>
       </c>
       <c r="C196" t="n">
-        <v>394.3236363636364</v>
+        <v>394.32</v>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
@@ -4417,10 +4417,10 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>356.7833333333333</v>
+        <v>356.78</v>
       </c>
       <c r="C197" t="n">
-        <v>354.8054545454545</v>
+        <v>354.81</v>
       </c>
       <c r="D197" t="n">
         <v>354.73</v>
@@ -4438,13 +4438,13 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>358.5388888888889</v>
+        <v>358.54</v>
       </c>
       <c r="C198" t="n">
-        <v>359.6963636363636</v>
+        <v>359.7</v>
       </c>
       <c r="D198" t="n">
-        <v>359.6066666666667</v>
+        <v>359.61</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -4459,13 +4459,13 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>354.2555555555556</v>
+        <v>354.26</v>
       </c>
       <c r="C199" t="n">
-        <v>361.6454545454546</v>
+        <v>361.65</v>
       </c>
       <c r="D199" t="n">
-        <v>358.4966666666667</v>
+        <v>358.5</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4480,10 +4480,10 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>343.2433333333333</v>
+        <v>343.24</v>
       </c>
       <c r="C200" t="n">
-        <v>351.6190909090909</v>
+        <v>351.62</v>
       </c>
       <c r="D200" t="n">
         <v>355.9</v>
@@ -4501,13 +4501,13 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>336.0422222222222</v>
+        <v>336.04</v>
       </c>
       <c r="C201" t="n">
-        <v>353.5190909090909</v>
+        <v>353.52</v>
       </c>
       <c r="D201" t="n">
-        <v>344.1866666666667</v>
+        <v>344.19</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>348.2466666666667</v>
+        <v>348.25</v>
       </c>
       <c r="C202" t="n">
         <v>357.61</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>355.1555555555556</v>
+        <v>355.16</v>
       </c>
       <c r="C203" t="n">
-        <v>354.9227272727272</v>
+        <v>354.92</v>
       </c>
       <c r="D203" t="n">
-        <v>360.9166666666667</v>
+        <v>360.92</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -4564,13 +4564,13 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>479.5211111111111</v>
+        <v>479.52</v>
       </c>
       <c r="C204" t="n">
-        <v>349.5909090909091</v>
+        <v>349.59</v>
       </c>
       <c r="D204" t="n">
-        <v>351.2433333333333</v>
+        <v>351.24</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>473.1633333333333</v>
+        <v>473.16</v>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr"/>
@@ -4602,10 +4602,10 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>463.3566666666667</v>
+        <v>463.36</v>
       </c>
       <c r="C206" t="n">
-        <v>339.2063636363636</v>
+        <v>339.21</v>
       </c>
       <c r="D206" t="n">
         <v>345.13</v>
@@ -4623,13 +4623,13 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>460.9422222222223</v>
+        <v>460.94</v>
       </c>
       <c r="C207" t="n">
-        <v>353.8363636363636</v>
+        <v>353.84</v>
       </c>
       <c r="D207" t="n">
-        <v>356.4066666666667</v>
+        <v>356.41</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -4644,13 +4644,13 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>465.3277777777778</v>
+        <v>465.33</v>
       </c>
       <c r="C208" t="n">
-        <v>349.0718181818182</v>
+        <v>349.07</v>
       </c>
       <c r="D208" t="n">
-        <v>329.6033333333333</v>
+        <v>329.6</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -4665,13 +4665,13 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>475.0655555555555</v>
+        <v>475.07</v>
       </c>
       <c r="C209" t="n">
-        <v>351.9881818181818</v>
+        <v>351.99</v>
       </c>
       <c r="D209" t="n">
-        <v>348.1566666666667</v>
+        <v>348.16</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4687,10 +4687,10 @@
       </c>
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="n">
-        <v>338.2681818181818</v>
+        <v>338.27</v>
       </c>
       <c r="D210" t="n">
-        <v>337.8566666666667</v>
+        <v>337.86</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -4706,10 +4706,10 @@
       </c>
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="n">
-        <v>342.0872727272728</v>
+        <v>342.09</v>
       </c>
       <c r="D211" t="n">
-        <v>339.1766666666667</v>
+        <v>339.18</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="n">
-        <v>340.4866666666667</v>
+        <v>340.49</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -4741,13 +4741,13 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>367.9044444444445</v>
+        <v>367.9</v>
       </c>
       <c r="C213" t="n">
-        <v>360.5563636363637</v>
+        <v>360.56</v>
       </c>
       <c r="D213" t="n">
-        <v>358.1133333333333</v>
+        <v>358.11</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -4762,13 +4762,13 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>340.5822222222222</v>
+        <v>340.58</v>
       </c>
       <c r="C214" t="n">
-        <v>341.9263636363636</v>
+        <v>341.93</v>
       </c>
       <c r="D214" t="n">
-        <v>347.2466666666667</v>
+        <v>347.25</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -4783,13 +4783,13 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>331.2444444444445</v>
+        <v>331.24</v>
       </c>
       <c r="C215" t="n">
-        <v>338.4081818181818</v>
+        <v>338.41</v>
       </c>
       <c r="D215" t="n">
-        <v>338.6533333333333</v>
+        <v>338.65</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -4804,13 +4804,13 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>331.2255555555556</v>
+        <v>331.23</v>
       </c>
       <c r="C216" t="n">
-        <v>337.9890909090909</v>
+        <v>337.99</v>
       </c>
       <c r="D216" t="n">
-        <v>345.0466666666667</v>
+        <v>345.05</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -4825,13 +4825,13 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>343.6222222222222</v>
+        <v>343.62</v>
       </c>
       <c r="C217" t="n">
-        <v>356.3027272727272</v>
+        <v>356.3</v>
       </c>
       <c r="D217" t="n">
-        <v>353.4166666666667</v>
+        <v>353.42</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -4846,10 +4846,10 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>336.7333333333333</v>
+        <v>336.73</v>
       </c>
       <c r="C218" t="n">
-        <v>356.2890909090909</v>
+        <v>356.29</v>
       </c>
       <c r="D218" t="n">
         <v>366.88</v>
@@ -4867,13 +4867,13 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>336.7822222222222</v>
+        <v>336.78</v>
       </c>
       <c r="C219" t="n">
-        <v>365.9863636363637</v>
+        <v>365.99</v>
       </c>
       <c r="D219" t="n">
-        <v>365.3066666666667</v>
+        <v>365.31</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -4888,13 +4888,13 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>332.4177777777778</v>
+        <v>332.42</v>
       </c>
       <c r="C220" t="n">
-        <v>350.8427272727272</v>
+        <v>350.84</v>
       </c>
       <c r="D220" t="n">
-        <v>355.5233333333333</v>
+        <v>355.52</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -4909,10 +4909,10 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>357.4266666666667</v>
+        <v>357.43</v>
       </c>
       <c r="C221" t="n">
-        <v>366.4236363636364</v>
+        <v>366.42</v>
       </c>
       <c r="D221" t="n">
         <v>371.12</v>
@@ -4931,10 +4931,10 @@
       </c>
       <c r="B222" t="inlineStr"/>
       <c r="C222" t="n">
-        <v>362.9754545454546</v>
+        <v>362.98</v>
       </c>
       <c r="D222" t="n">
-        <v>364.9166666666667</v>
+        <v>364.92</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -4950,10 +4950,10 @@
       </c>
       <c r="B223" t="inlineStr"/>
       <c r="C223" t="n">
-        <v>356.4245454545455</v>
+        <v>356.42</v>
       </c>
       <c r="D223" t="n">
-        <v>358.1533333333333</v>
+        <v>358.15</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -4968,10 +4968,10 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>330.5433333333333</v>
+        <v>330.54</v>
       </c>
       <c r="C224" t="n">
-        <v>340.6581818181818</v>
+        <v>340.66</v>
       </c>
       <c r="D224" t="n">
         <v>345.83</v>
@@ -4990,10 +4990,10 @@
       </c>
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="n">
-        <v>344.4854545454546</v>
+        <v>344.49</v>
       </c>
       <c r="D225" t="n">
-        <v>347.0533333333333</v>
+        <v>347.05</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -5009,10 +5009,10 @@
       </c>
       <c r="B226" t="inlineStr"/>
       <c r="C226" t="n">
-        <v>350.3736363636364</v>
+        <v>350.37</v>
       </c>
       <c r="D226" t="n">
-        <v>347.9366666666667</v>
+        <v>347.94</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B227" t="inlineStr"/>
       <c r="C227" t="n">
-        <v>351.0636363636364</v>
+        <v>351.06</v>
       </c>
       <c r="D227" t="n">
         <v>355.54</v>
@@ -5046,13 +5046,13 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>368.4611111111111</v>
+        <v>368.46</v>
       </c>
       <c r="C228" t="n">
-        <v>369.3072727272727</v>
+        <v>369.31</v>
       </c>
       <c r="D228" t="n">
-        <v>371.0533333333333</v>
+        <v>371.05</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>360.9611111111111</v>
+        <v>360.96</v>
       </c>
       <c r="C229" t="n">
-        <v>362.7918181818182</v>
+        <v>362.79</v>
       </c>
       <c r="D229" t="n">
-        <v>364.7733333333333</v>
+        <v>364.77</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -5088,13 +5088,13 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>364.7977777777778</v>
+        <v>364.8</v>
       </c>
       <c r="C230" t="n">
-        <v>364.4190909090909</v>
+        <v>364.42</v>
       </c>
       <c r="D230" t="n">
-        <v>362.4233333333333</v>
+        <v>362.42</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -5109,10 +5109,10 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>344.5133333333333</v>
+        <v>344.51</v>
       </c>
       <c r="C231" t="n">
-        <v>350.5963636363636</v>
+        <v>350.6</v>
       </c>
       <c r="D231" t="n">
         <v>353.73</v>
@@ -5130,13 +5130,13 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>350.6822222222222</v>
+        <v>350.68</v>
       </c>
       <c r="C232" t="n">
-        <v>352.7981818181818</v>
+        <v>352.8</v>
       </c>
       <c r="D232" t="n">
-        <v>357.8666666666667</v>
+        <v>357.87</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -5151,13 +5151,13 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>362.2777777777778</v>
+        <v>362.28</v>
       </c>
       <c r="C233" t="n">
-        <v>366.4827272727272</v>
+        <v>366.48</v>
       </c>
       <c r="D233" t="n">
-        <v>369.6433333333333</v>
+        <v>369.64</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -5172,13 +5172,13 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>354.7844444444444</v>
+        <v>354.78</v>
       </c>
       <c r="C234" t="n">
         <v>364.09</v>
       </c>
       <c r="D234" t="n">
-        <v>367.0833333333333</v>
+        <v>367.08</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -5193,13 +5193,13 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>362.7877777777778</v>
+        <v>362.79</v>
       </c>
       <c r="C235" t="n">
-        <v>362.1527272727273</v>
+        <v>362.15</v>
       </c>
       <c r="D235" t="n">
-        <v>364.0933333333333</v>
+        <v>364.09</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -5214,13 +5214,13 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>370.9255555555556</v>
+        <v>370.93</v>
       </c>
       <c r="C236" t="n">
         <v>373.38</v>
       </c>
       <c r="D236" t="n">
-        <v>374.7966666666667</v>
+        <v>374.8</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -5235,13 +5235,13 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>333.1788888888889</v>
+        <v>333.18</v>
       </c>
       <c r="C237" t="n">
-        <v>346.4809090909091</v>
+        <v>346.48</v>
       </c>
       <c r="D237" t="n">
-        <v>352.0366666666667</v>
+        <v>352.04</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -5257,10 +5257,10 @@
       </c>
       <c r="B238" t="inlineStr"/>
       <c r="C238" t="n">
-        <v>358.4636363636364</v>
+        <v>358.46</v>
       </c>
       <c r="D238" t="n">
-        <v>361.9433333333333</v>
+        <v>361.94</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -5292,13 +5292,13 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>363.7188888888889</v>
+        <v>363.72</v>
       </c>
       <c r="C240" t="n">
-        <v>360.2472727272728</v>
+        <v>360.25</v>
       </c>
       <c r="D240" t="n">
-        <v>372.6266666666667</v>
+        <v>372.63</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -5314,10 +5314,10 @@
       </c>
       <c r="B241" t="inlineStr"/>
       <c r="C241" t="n">
-        <v>358.7845454545454</v>
+        <v>358.78</v>
       </c>
       <c r="D241" t="n">
-        <v>357.7566666666667</v>
+        <v>357.76</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -5333,10 +5333,10 @@
       </c>
       <c r="B242" t="inlineStr"/>
       <c r="C242" t="n">
-        <v>355.4136363636364</v>
+        <v>355.41</v>
       </c>
       <c r="D242" t="n">
-        <v>362.2566666666667</v>
+        <v>362.26</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>329.81</v>
       </c>
       <c r="C243" t="n">
-        <v>341.8172727272727</v>
+        <v>341.82</v>
       </c>
       <c r="D243" t="n">
         <v>351.67</v>
@@ -5372,10 +5372,10 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>333.0766666666667</v>
+        <v>333.08</v>
       </c>
       <c r="C244" t="n">
-        <v>337.3981818181818</v>
+        <v>337.4</v>
       </c>
       <c r="D244" t="n">
         <v>344.8</v>
@@ -5393,10 +5393,10 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>330.3433333333333</v>
+        <v>330.34</v>
       </c>
       <c r="C245" t="n">
-        <v>348.5818181818182</v>
+        <v>348.58</v>
       </c>
       <c r="D245" t="n">
         <v>352.78</v>
@@ -5414,13 +5414,13 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>292.0011111111111</v>
+        <v>292</v>
       </c>
       <c r="C246" t="n">
-        <v>316.2281818181818</v>
+        <v>316.23</v>
       </c>
       <c r="D246" t="n">
-        <v>337.0033333333333</v>
+        <v>337</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -5435,13 +5435,13 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>359.5511111111111</v>
+        <v>359.55</v>
       </c>
       <c r="C247" t="n">
-        <v>359.1690909090909</v>
+        <v>359.17</v>
       </c>
       <c r="D247" t="n">
-        <v>366.0533333333333</v>
+        <v>366.05</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -5456,13 +5456,13 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>337.5177777777778</v>
+        <v>337.52</v>
       </c>
       <c r="C248" t="n">
-        <v>352.9327272727273</v>
+        <v>352.93</v>
       </c>
       <c r="D248" t="n">
-        <v>353.9033333333333</v>
+        <v>353.9</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -5477,13 +5477,13 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>331.5855555555555</v>
+        <v>331.59</v>
       </c>
       <c r="C249" t="n">
-        <v>338.2027272727273</v>
+        <v>338.2</v>
       </c>
       <c r="D249" t="n">
-        <v>348.3166666666667</v>
+        <v>348.32</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -5498,13 +5498,13 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>334.6088888888889</v>
+        <v>334.61</v>
       </c>
       <c r="C250" t="n">
-        <v>340.8754545454545</v>
+        <v>340.88</v>
       </c>
       <c r="D250" t="n">
-        <v>343.8066666666667</v>
+        <v>343.81</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>0.0482</v>
       </c>
       <c r="I2" t="n">
-        <v>1.193106312802609</v>
+        <v>1.193158915886141</v>
       </c>
       <c r="J2" t="n">
         <v>249</v>
@@ -8273,19 +8273,19 @@
         <v>187</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03906880428403614</v>
+        <v>0.03907202147530531</v>
       </c>
       <c r="M2" t="n">
-        <v>34.32545988069361</v>
+        <v>34.32542589662671</v>
       </c>
       <c r="N2" t="n">
-        <v>2072.181084843728</v>
+        <v>2072.186234237927</v>
       </c>
       <c r="O2" t="n">
-        <v>45.52121576631854</v>
+        <v>45.52127232665984</v>
       </c>
       <c r="P2" t="n">
-        <v>349.2391486267761</v>
+        <v>349.238097787701</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8342,7 +8342,7 @@
         <v>0.0589</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1115649250022785</v>
+        <v>0.1115813184500287</v>
       </c>
       <c r="J3" t="n">
         <v>249</v>
@@ -8351,19 +8351,19 @@
         <v>237</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004862050239197835</v>
+        <v>0.004863474778568855</v>
       </c>
       <c r="M3" t="n">
-        <v>9.760932323313519</v>
+        <v>9.761279001824208</v>
       </c>
       <c r="N3" t="n">
-        <v>150.3116270216475</v>
+        <v>150.3115488715106</v>
       </c>
       <c r="O3" t="n">
-        <v>12.26016423306179</v>
+        <v>12.26016104590436</v>
       </c>
       <c r="P3" t="n">
-        <v>354.1052918972816</v>
+        <v>354.1051144595594</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8420,7 +8420,7 @@
         <v>0.063</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.00550447882753104</v>
+        <v>-0.005472845997057444</v>
       </c>
       <c r="J4" t="n">
         <v>249</v>
@@ -8429,19 +8429,19 @@
         <v>233</v>
       </c>
       <c r="L4" t="n">
-        <v>1.362206939781174e-05</v>
+        <v>1.346649560662883e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>9.229674897168694</v>
+        <v>9.229435808011532</v>
       </c>
       <c r="N4" t="n">
-        <v>131.4963732784138</v>
+        <v>131.4911068438873</v>
       </c>
       <c r="O4" t="n">
-        <v>11.46718680751359</v>
+        <v>11.46695717459027</v>
       </c>
       <c r="P4" t="n">
-        <v>358.6089957769132</v>
+        <v>358.608515087023</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8522,17 +8522,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-34.804114475981514,173.16569942439477</t>
+          <t>-34.80411444946884,173.1656993879558</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-34.8046989889726,173.16512375809833</t>
+          <t>-34.80469900783812,173.16512379061564</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-34.805385332947026,173.16475288566275</t>
+          <t>-34.805385318464,173.16475285372897</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -8549,17 +8549,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-34.804345917923335,173.16601751921073</t>
+          <t>-34.804345904667045,173.16601750099113</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-34.804729173779464,173.16517578581443</t>
+          <t>-34.804729150197595,173.16517574516774</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-34.8054055077961,173.16479736943356</t>
+          <t>-34.80540552227911,173.16479740136737</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -8576,17 +8576,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-34.8042655781435,173.16590709953329</t>
+          <t>-34.8042655516309,173.16590706309418</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-34.804780016262654,173.1652634200844</t>
+          <t>-34.80477999268081,173.1652633794377</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-34.80542243843568,173.16483470005193</t>
+          <t>-34.80542242395268,173.1648346681181</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -8603,17 +8603,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-34.80420423456676,173.16582278863757</t>
+          <t>-34.80420422793862,173.16582277952782</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-34.80474707241603,173.1652066366421</t>
+          <t>-34.80474704883417,173.16520659599544</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-34.80542083082199,173.16483115539887</t>
+          <t>-34.80542081633897,173.16483112346506</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -8630,17 +8630,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-34.80411814135822,173.16570446208164</t>
+          <t>-34.80411814798639,173.1657044711914</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-34.80469722033087,173.1651207096005</t>
+          <t>-34.80469724391278,173.16512075024713</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-34.80536010350036,173.1646972570293</t>
+          <t>-34.80536011798341,173.16469728896308</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -8657,12 +8657,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-34.80400094862113,173.16554339296923</t>
+          <t>-34.8040009287366,173.16554336564008</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-34.80464596270194,173.16503236012568</t>
+          <t>-34.804645986283866,173.16503240077225</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -8684,12 +8684,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-34.803914331509496,173.16542434732804</t>
+          <t>-34.80391431162492,173.16542431999892</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-34.80457832026605,173.16491576955235</t>
+          <t>-34.80457833441522,173.16491579394025</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -8711,12 +8711,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-34.80398008973616,173.16551472470093</t>
+          <t>-34.803980109620696,173.16551475203005</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-34.80461732480814,173.16498299892817</t>
+          <t>-34.804617348390074,173.16498303957476</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-34.80414190333408,173.16573712051445</t>
+          <t>-34.80414189007775,173.16573710229497</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -8748,7 +8748,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-34.80536588223353,173.16470999860195</t>
+          <t>-34.80536589671656,173.16471003053573</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -8766,7 +8766,7 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-34.80460235970834,173.16495720462692</t>
+          <t>-34.80460235499196,173.16495719649762</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -8784,17 +8784,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-34.804122608742915,173.16571060204777</t>
+          <t>-34.80412262199926,173.16571062026728</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-34.804689834482204,173.16510797907503</t>
+          <t>-34.80468982504945,173.16510796281636</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-34.805325373140946,173.1646206798958</t>
+          <t>-34.80532535865789,173.16462064796207</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -8813,7 +8813,7 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-34.80536744640167,173.16471344744897</t>
+          <t>-34.805367460884696,173.16471347938278</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -8835,7 +8835,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-34.804717552631494,173.16515575513924</t>
+          <t>-34.80471752904961,173.16515571449258</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -8857,17 +8857,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-34.80399465847828,173.16553474784962</t>
+          <t>-34.80399466510645,173.16553475695935</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-34.80465132523021,173.16504160316</t>
+          <t>-34.804651329946594,173.16504161128933</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-34.80535910417043,173.16469505359964</t>
+          <t>-34.80535911865348,173.16469508553342</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -8884,17 +8884,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-34.80397898945795,173.16551321248886</t>
+          <t>-34.80397897620159,173.16551319426947</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-34.80460083159824,173.16495457073094</t>
+          <t>-34.8046008504638,173.1649546032482</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-34.80530070847337,173.16456629675776</t>
+          <t>-34.805300722956446,173.16456632869148</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -8911,17 +8911,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-34.80391457675247,173.1654246843868</t>
+          <t>-34.80391455023973,173.16542464794802</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-34.80456144972877,173.1648866910378</t>
+          <t>-34.804561473310734,173.1648867316843</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-34.80529152620097,173.16454605078275</t>
+          <t>-34.80529151171789,173.16454601884905</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -8938,17 +8938,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-34.804024339463005,173.16557554116528</t>
+          <t>-34.804024312950304,173.16557550472638</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-34.804721302149964,173.16516221795794</t>
+          <t>-34.804721316299094,173.16516224234593</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-34.805406318844966,173.16479915772632</t>
+          <t>-34.80540630436195,173.1647991257925</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -8970,7 +8970,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-34.80474114865208,173.16519642619542</t>
+          <t>-34.80474113450296,173.1651964018074</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -8988,17 +8988,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-34.80417448738467,173.1657819040472</t>
+          <t>-34.80417446087203,173.1657818676082</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-34.80477155038051,173.16524882791416</t>
+          <t>-34.8047715362314,173.16524880352617</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-34.805433431034665,173.16485893781828</t>
+          <t>-34.80543341655167,173.16485890588444</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -9020,7 +9020,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-34.80463427078432,173.16501220755097</t>
+          <t>-34.80463426135153,173.16501219129233</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -9043,7 +9043,7 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-34.80474754405325,173.16520744957583</t>
+          <t>-34.804747567635104,173.1652074902225</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -9066,12 +9066,12 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-34.80477553571242,173.16525569720844</t>
+          <t>-34.804775530996075,173.1652556890791</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-34.8054304040876,173.1648522636501</t>
+          <t>-34.80543041857061,173.1648522955839</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -9088,17 +9088,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-34.803872023766466,173.16536620016356</t>
+          <t>-34.80387201713827,173.16536619105386</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-34.80463319544843,173.16501035406716</t>
+          <t>-34.80463317186651,173.1650103134206</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-34.80534040655518,173.16465382712087</t>
+          <t>-34.80534039207213,173.16465379518715</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -9116,7 +9116,7 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-34.80465940439413,173.16505552868367</t>
+          <t>-34.80465942325966,173.16505556120097</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -9138,7 +9138,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-34.804125167215325,173.16571411840852</t>
+          <t>-34.804125187099814,173.16571414573775</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -9165,7 +9165,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-34.80422751928312,173.16585479123515</t>
+          <t>-34.804227492770494,173.1658547547961</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -9184,17 +9184,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-34.80420616998901,173.16582544868768</t>
+          <t>-34.80420619650164,173.16582548512673</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-34.80474667152439,173.16520594564847</t>
+          <t>-34.80474668567351,173.16520597003648</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-34.80543066478163,173.1648528384588</t>
+          <t>-34.805430679264624,173.16485287039262</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -9211,7 +9211,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-34.80419616809741,173.16581170206013</t>
+          <t>-34.80419617472558,173.1658117111699</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -9221,7 +9221,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-34.80539733937388,173.16477935877285</t>
+          <t>-34.805397353856925,173.16477939070666</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -9238,17 +9238,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-34.804121839875556,173.16570954531764</t>
+          <t>-34.804121846503705,173.1657095544274</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-34.80473416370317,173.16518438664988</t>
+          <t>-34.80473418256867,173.16518441916725</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-34.80541797766948,173.1648248644384</t>
+          <t>-34.8054179921525,173.1648248963722</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -9265,17 +9265,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-34.80412648622049,173.1657159312474</t>
+          <t>-34.80412649947683,173.1657159494669</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-34.804710025295215,173.16514278072762</t>
+          <t>-34.80471000642971,173.16514274821031</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-34.805371733380525,173.16472289984523</t>
+          <t>-34.80537171889748,173.16472286791145</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -9292,17 +9292,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-34.8041128056832,173.16569712874016</t>
+          <t>-34.804112779170524,173.1656970923012</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-34.804693937731635,173.1651150515889</t>
+          <t>-34.8046939235825,173.16511502720093</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-34.80538641917407,173.16475528069654</t>
+          <t>-34.805386404691035,173.16475524876276</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -9319,17 +9319,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-34.8042890219129,173.16593932081295</t>
+          <t>-34.8042889954003,173.16593928437385</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-34.80480481963644,173.16530617231504</t>
+          <t>-34.804804843218264,173.16530621296178</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-34.80544303326143,173.16488010994354</t>
+          <t>-34.80544301877844,173.1648800780097</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -9346,12 +9346,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-34.80421998969743,173.16584444254235</t>
+          <t>-34.80421997644112,173.16584442432284</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-34.80476194785132,173.16523227657598</t>
+          <t>-34.80476193841857,173.16523226031728</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -9369,12 +9369,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-34.804250644915214,173.16588657521623</t>
+          <t>-34.804250638287066,173.16588656610645</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-34.80478243575957,173.16526759043776</t>
+          <t>-34.8047824310432,173.16526758230842</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -9393,12 +9393,12 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-34.80473328645767,173.16518287459368</t>
+          <t>-34.804733300606784,173.1651828989817</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-34.80533903066506,173.1646507934148</t>
+          <t>-34.80533904514811,173.16465082534856</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -9416,12 +9416,12 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-34.80474111563746,173.16519636929007</t>
+          <t>-34.80474113450296,173.1651964018074</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-34.80540194497397,173.16478951371943</t>
+          <t>-34.805401959456994,173.1647895456532</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -9438,17 +9438,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-34.80438331389865,173.1660689166784</t>
+          <t>-34.804383307270506,173.1660689075686</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-34.80486339213727,173.1654071307646</t>
+          <t>-34.80486341571907,173.1654071714114</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-34.8055136812048,173.1650358832873</t>
+          <t>-34.80551366672184,173.16503585135342</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -9465,17 +9465,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-34.804231953519334,173.16586088566865</t>
+          <t>-34.80423196677564,173.16586090388822</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-34.80476115550107,173.16523091084684</t>
+          <t>-34.804761160217424,173.1652309189762</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-34.80540423329069,173.16479455925935</t>
+          <t>-34.805404218807666,173.1647945273255</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -9493,12 +9493,12 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-34.804660729697574,173.1650578130226</t>
+          <t>-34.80466072026481,173.16505779676396</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-34.80535823518786,173.16469313757386</t>
+          <t>-34.805358249670896,173.16469316950764</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -9516,7 +9516,7 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-34.80468699522201,173.16510308522103</t>
+          <t>-34.8046869716401,173.1651030445744</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -9538,17 +9538,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-34.80417309547073,173.1657799909989</t>
+          <t>-34.804173088842575,173.16577998188916</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-34.80474145521633,173.16519695460227</t>
+          <t>-34.80474144578357,173.16519693834357</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-34.80539211100295,173.16476783067452</t>
+          <t>-34.80539209651994,173.1647677987407</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -9566,12 +9566,12 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-34.80471931655595,173.16515879550923</t>
+          <t>-34.80471929297408,173.16515875486257</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-34.80540223463433,173.16479015239534</t>
+          <t>-34.80540222015131,173.16479012046156</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -9594,7 +9594,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-34.805450289240284,173.16489610879256</t>
+          <t>-34.805450274757284,173.16489607685872</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -9611,17 +9611,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-34.80423899262013,173.1658705602416</t>
+          <t>-34.80423900587643,173.16587057846112</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-34.804786406941325,173.1652744353458</t>
+          <t>-34.8047864258068,173.16527446786316</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-34.80545137546447,173.16489850383007</t>
+          <t>-34.80545136098148,173.16489847189624</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -9638,17 +9638,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-34.80425051235215,173.1658863930208</t>
+          <t>-34.8042505189803,173.16588640213055</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-34.80482161932687,173.16533512906003</t>
+          <t>-34.80482160046142,173.16533509654263</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-34.80545738590416,173.1649117563722</t>
+          <t>-34.805457400387155,173.16491178830603</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -9665,17 +9665,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-34.80403178290564,173.16558577138278</t>
+          <t>-34.80403176964929,173.16558575316333</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-34.80463902961687,173.16502041003025</t>
+          <t>-34.80463903433325,173.16502041815957</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-34.80531947853383,173.16460768286575</t>
+          <t>-34.805319493016896,173.16460771479947</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -9692,13 +9692,13 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-34.803985392281454,173.16552201247035</t>
+          <t>-34.80398541879418,173.1655220489092</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-34.805418629404855,173.1648263014598</t>
+          <t>-34.805418643887855,173.16482633339362</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -9715,17 +9715,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-34.80409634131173,173.16567450014958</t>
+          <t>-34.80409631479904,173.16567446371064</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-34.80468613684098,173.16510160568382</t>
+          <t>-34.804686141557355,173.16510161381314</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-34.80535287646127,173.1646813220826</t>
+          <t>-34.80535286197822,173.16468129014882</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -9742,12 +9742,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-34.80419804386647,173.1658142801219</t>
+          <t>-34.80419802398199,173.16581425279264</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-34.804795863257354,173.16529073468402</t>
+          <t>-34.804795867973716,173.16529074281337</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -9769,17 +9769,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-34.80415367495397,173.16575329942702</t>
+          <t>-34.80415370146662,173.16575333586604</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-34.80473089525604,173.16517875302125</t>
+          <t>-34.80473091412155,173.1651787855386</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-34.80539551451324,173.16477533511508</t>
+          <t>-34.805395528996264,173.1647753670489</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -9797,7 +9797,7 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-34.80490157104279,173.16547293796353</t>
+          <t>-34.804901547461036,173.16547289731668</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -9816,12 +9816,12 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-34.80474900141223,173.16520996154108</t>
+          <t>-34.80474902027772,173.16520999405842</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-34.80543547313751,173.16486344048704</t>
+          <t>-34.80543545865451,173.1648634085532</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -9839,12 +9839,12 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-34.80473409767395,173.1651842728392</t>
+          <t>-34.80473407880845,173.16518424032188</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-34.80539564486045,173.16477562251922</t>
+          <t>-34.80539565934347,173.16477565445302</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -9861,17 +9861,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-34.804564586632466,173.16631806114032</t>
+          <t>-34.80456459326059,173.16631807025016</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-34.80477071086675,173.16524738089132</t>
+          <t>-34.80477070615037,173.16524737276197</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-34.80538804127301,173.1647588572804</t>
+          <t>-34.80538805575605,173.1647588892142</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -9888,17 +9888,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-34.80463202772526,173.16641075383518</t>
+          <t>-34.80463200121281,173.16641071739576</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-34.80479257594975,173.1652850685296</t>
+          <t>-34.80479259953157,173.16528510917635</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-34.805457023829526,173.1649109580262</t>
+          <t>-34.80545700934653,173.16491092609238</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -9915,17 +9915,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-34.80454257463962,173.16628780737057</t>
+          <t>-34.80454258126773,173.1662878164804</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-34.80474745444218,173.16520729511842</t>
+          <t>-34.804747463874925,173.1652073113771</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-34.80539664418891,173.16477782595084</t>
+          <t>-34.805396658671924,173.16477785788462</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -9942,7 +9942,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-34.804743797508024,173.16656437352017</t>
+          <t>-34.80474379087992,173.1665643644103</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -9952,7 +9952,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-34.80545367825962,173.16490358130983</t>
+          <t>-34.805453663776625,173.164903549376</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -9969,12 +9969,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-34.80413922555537,173.16573344017687</t>
+          <t>-34.80413920567088,173.16573341284763</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-34.804739233804625,173.1651931256851</t>
+          <t>-34.80473921493914,173.16519309316774</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -10015,7 +10015,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-34.80404498623183,173.16560391795298</t>
+          <t>-34.80404501274453,173.16560395439188</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -10038,12 +10038,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-34.80413715756779,173.16573059793615</t>
+          <t>-34.80413717745228,173.16573062526538</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-34.804787161560135,173.16527573604097</t>
+          <t>-34.80478715212741,173.16527571978227</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -10065,12 +10065,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-34.80410820573442,173.1656908065807</t>
+          <t>-34.80410818584991,173.1656907792515</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-34.80473997899158,173.16519441012014</t>
+          <t>-34.80473999314069,173.16519443450815</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -10092,17 +10092,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-34.804026427338805,173.16557841072742</t>
+          <t>-34.8040264008261,173.16557837428851</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-34.80465384377885,173.16504594421613</t>
+          <t>-34.80465382019695,173.16504590356953</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-34.805343317648806,173.16466024580458</t>
+          <t>-34.80534330316575,173.16466021387083</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -10119,12 +10119,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-34.80402564521392,173.1655773357803</t>
+          <t>-34.80402562532939,173.16557730845113</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-34.80466976628503,173.16507338880177</t>
+          <t>-34.8046697474195,173.1650733562845</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -10147,7 +10147,7 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-34.80479777810212,173.16529403519885</t>
+          <t>-34.80479778753485,173.16529405145755</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -10190,7 +10190,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-34.80547514203797,173.16495090726676</t>
+          <t>-34.805475127555,173.16495087533292</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -10230,17 +10230,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-34.804188492688496,173.16580115296054</t>
+          <t>-34.804188479432185,173.16580113474103</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-34.804731654592274,173.16518006184404</t>
+          <t>-34.80473164044315,173.16518003745603</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-34.80540676781843,173.1648001476741</t>
+          <t>-34.805406782301446,173.1648001796079</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -10257,17 +10257,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-34.80432704096747,173.16599157453004</t>
+          <t>-34.80432705422377,173.1659915927496</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-34.80482391619586,173.16533908805445</t>
+          <t>-34.804823935061314,173.16533912057187</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-34.80546284598907,173.16492379543016</t>
+          <t>-34.80546283150609,173.1649237634963</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -10284,17 +10284,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-34.80412923690955,173.165719711791</t>
+          <t>-34.80412924353772,173.16571972090077</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-34.804733621320196,173.16518345177641</t>
+          <t>-34.80473361188746,173.16518343551775</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-34.805411069273504,173.16480963201312</t>
+          <t>-34.80541108375651,173.16480966394693</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -10311,17 +10311,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-34.804184350088306,173.16579545936267</t>
+          <t>-34.80418436334463,173.1657954775822</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-34.80473292329686,173.16518224863492</t>
+          <t>-34.804732937446,173.16518227302294</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-34.805431215135656,173.1648540519439</t>
+          <t>-34.80543120065266,173.1648540200101</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -10339,7 +10339,7 @@
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-34.80471030827781,173.16514326848744</t>
+          <t>-34.80471031771057,173.16514328474608</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -10358,12 +10358,12 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-34.804717255499824,173.16515524299137</t>
+          <t>-34.80471726964895,173.1651552673794</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-34.805389721303975,173.16476256159956</t>
+          <t>-34.80538970682093,173.16476252966578</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -10381,12 +10381,12 @@
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-34.80462487574358,173.16499601395734</t>
+          <t>-34.80462487102717,173.16499600582802</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-34.80541344448744,173.16481486915697</t>
+          <t>-34.805413430004414,173.16481483722316</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -10403,12 +10403,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-34.80408197806628,173.16565475935346</t>
+          <t>-34.80408199795079,173.16565478668267</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-34.8046824674977,173.16509528106914</t>
+          <t>-34.80468245806494,173.16509526481047</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -10431,7 +10431,7 @@
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-34.8047691073011,173.16524461691517</t>
+          <t>-34.80476909786835,173.1652446006565</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -10458,7 +10458,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-34.80465114600764,173.16504129424592</t>
+          <t>-34.804651122425724,173.16504125359933</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -10480,17 +10480,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-34.80389257116204,173.16539444020154</t>
+          <t>-34.8038925976748,173.1653944766403</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-34.80463613375649,173.16501541863045</t>
+          <t>-34.8046361290401,173.16501541050113</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-34.80534941501294,173.16467368991468</t>
+          <t>-34.80534942949599,173.16467372184843</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -10507,17 +10507,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-34.8040190302928,173.16556824427926</t>
+          <t>-34.8040190037801,173.16556820784038</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-34.804782737607134,173.1652681107158</t>
+          <t>-34.804782742323496,173.16526811884515</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-34.80543603797443,173.16486468590608</t>
+          <t>-34.805436023491424,173.16486465397224</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -10534,17 +10534,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-34.80402362361986,173.1655745573154</t>
+          <t>-34.80402359710716,173.16557452087653</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-34.804736460577125,173.16518834563593</t>
+          <t>-34.804736465293495,173.16518835376527</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-34.80542022253568,173.16482981417886</t>
+          <t>-34.80542020805268,173.16482978224502</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -10562,7 +10562,7 @@
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-34.80470595034569,173.16513575698698</t>
+          <t>-34.80470595977843,173.16513577324565</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -10585,7 +10585,7 @@
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-34.80467318566127,173.1650792825604</t>
+          <t>-34.804673171512135,173.16507925817245</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -10608,7 +10608,7 @@
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-34.80470420056977,173.165132741006</t>
+          <t>-34.8047041958534,173.16513273287666</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -10630,12 +10630,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-34.804050176092716,173.16561105086845</t>
+          <t>-34.80405020260541,173.16561108730735</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-34.804749609824206,173.16521101022562</t>
+          <t>-34.80474959095873,173.16521097770826</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -10653,17 +10653,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-34.80399837688735,173.1655398583996</t>
+          <t>-34.80399836363099,173.1655398401802</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-34.80462105547036,173.164989429214</t>
+          <t>-34.80462103188842,173.16498938856745</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-34.80530587893124,173.16457769709584</t>
+          <t>-34.805305893414335,173.16457772902953</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -10682,7 +10682,7 @@
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-34.80548858223523,173.16498054188654</t>
+          <t>-34.8054885967182,173.1649805738204</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -10700,12 +10700,12 @@
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-34.80477076274682,173.16524747031409</t>
+          <t>-34.80477075803044,173.16524746218474</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-34.80540962097222,173.16480643863287</t>
+          <t>-34.80540960648919,173.16480640669906</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -10722,17 +10722,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-34.80420100002536,173.16581834307462</t>
+          <t>-34.80420100665351,173.1658183521844</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-34.804742771084335,173.16519922268702</t>
+          <t>-34.804742794666204,173.16519926333373</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-34.80541997632457,173.1648292713041</t>
+          <t>-34.80541999080758,173.1648293032379</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -10749,17 +10749,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-34.80420819157723,173.16582822716484</t>
+          <t>-34.80420816506461,173.1658281907258</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-34.80480900305242,173.16531338304748</t>
+          <t>-34.804808993619694,173.16531336678878</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-34.80544516226143,173.16488480421629</t>
+          <t>-34.80544514777844,173.16488477228248</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -10777,7 +10777,7 @@
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-34.80457872587574,173.1649164686725</t>
+          <t>-34.80457874945771,173.164916509319</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -10799,17 +10799,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-34.803973998436696,173.16550635287695</t>
+          <t>-34.80397402494944,173.1655063893158</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-34.80469896539071,173.16512371745168</t>
+          <t>-34.80469895595796,173.165123701193</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>-34.80535249990206,173.16468049180486</t>
+          <t>-34.805352514385106,173.16468052373864</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -10827,12 +10827,12 @@
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-34.80475380267863,173.1652182372071</t>
+          <t>-34.8047537932459,173.16521822094845</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-34.80540471123022,173.16479561307466</t>
+          <t>-34.80540469674721,173.16479558114088</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -10849,17 +10849,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-34.80410276400786,173.16568332748517</t>
+          <t>-34.804102757379695,173.16568331837541</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-34.804649726376205,173.16503884732114</t>
+          <t>-34.80464972165983,173.16503883919182</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>-34.80531242527975,173.16459213113933</t>
+          <t>-34.80531241079669,173.1645920992056</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -10877,12 +10877,12 @@
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-34.80475175105701,173.165214700945</t>
+          <t>-34.804751769922504,173.1652147334623</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>-34.80539506553958,173.1647743451676</t>
+          <t>-34.805395051056564,173.16477431323378</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -10899,17 +10899,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-34.804209006840665,173.1658293476655</t>
+          <t>-34.80420900021251,173.16582933855574</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-34.80477223425405,173.16525000666877</t>
+          <t>-34.804772210672205,173.16524996602206</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>-34.80542652264299,173.16484370538728</t>
+          <t>-34.80542650815999,173.16484367345345</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -10926,17 +10926,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-34.804161171406705,173.16576360255448</t>
+          <t>-34.80416115815037,173.16576358433497</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-34.80470887921571,173.1651408053005</t>
+          <t>-34.80470886506658,173.1651407809125</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-34.80538721574053,173.16475703705464</t>
+          <t>-34.80538723022355,173.16475706898845</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -10953,7 +10953,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-34.804168130977416,173.16577316779384</t>
+          <t>-34.80416813760557,173.1657731769036</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -10972,17 +10972,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-34.80414464739432,173.16574089194972</t>
+          <t>-34.80414463413799,173.16574087373024</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-34.804742931441,173.16519949908448</t>
+          <t>-34.80474295030649,173.16519953160181</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-34.80540794094261,173.16480273431193</t>
+          <t>-34.805407955425636,173.1648027662457</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -11026,7 +11026,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-34.80405406020289,173.16561638916852</t>
+          <t>-34.80405408008741,173.1656164164977</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -11045,17 +11045,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-34.80425452238495,173.1658919044323</t>
+          <t>-34.804254515756796,173.16589189532255</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-34.804818874403196,173.1653303977775</t>
+          <t>-34.804818850821384,173.16533035713076</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>-34.805493520926575,173.16499143133433</t>
+          <t>-34.80549350644361,173.16499139940046</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -11073,7 +11073,7 @@
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-34.804811092402076,173.1653169843493</t>
+          <t>-34.804811068820236,173.16531694370252</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -11095,12 +11095,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-34.80407700693765,173.16564792705367</t>
+          <t>-34.80407698705315,173.16564789972446</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-34.80468900911588,173.16510655644302</t>
+          <t>-34.804688994966746,173.16510653205503</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -11122,17 +11122,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-34.8041923436494,173.16580644572963</t>
+          <t>-34.804192356905716,173.16580646394914</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-34.8047458886066,173.1652045961785</t>
+          <t>-34.804745907472075,173.16520462869588</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>-34.8054131403442,173.16481419854705</t>
+          <t>-34.805413125861186,173.16481416661324</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -11154,7 +11154,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-34.80470541267869,173.1651348302435</t>
+          <t>-34.80470538909682,173.16513478959683</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -11176,17 +11176,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-34.80410513689234,173.16568658877154</t>
+          <t>-34.80410514352051,173.16568659788126</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-34.80470999699696,173.16514273195165</t>
+          <t>-34.80471000642971,173.16514274821031</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>-34.80541515348268,173.16481863734603</t>
+          <t>-34.80541516796569,173.1648186692798</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -11230,17 +11230,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-34.804054901981,173.1656175461039</t>
+          <t>-34.80405491523735,173.16561756432336</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-34.804640916170754,173.1650236617567</t>
+          <t>-34.80464090202158,173.16502363736876</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>-34.80530512581141,173.16457603654231</t>
+          <t>-34.80530511132833,173.16457600460856</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -11257,17 +11257,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-34.80400945257514,173.16555508073577</t>
+          <t>-34.80400945920331,173.16555508984547</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-34.804675836267215,173.16508385123987</t>
+          <t>-34.80467581740171,173.1650838187226</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>-34.80533060152593,173.16463220797561</t>
+          <t>-34.80533061600899,173.16463223990937</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -11285,12 +11285,12 @@
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-34.80469295672492,173.165113360689</t>
+          <t>-34.80469293785941,173.16511332817169</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>-34.80537378997145,173.1647274344411</t>
+          <t>-34.80537380445449,173.16472746637484</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -11307,17 +11307,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-34.80408456968117,173.1656583212594</t>
+          <t>-34.804084563053,173.16565831214967</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-34.80476146678153,173.16523144738326</t>
+          <t>-34.80476147149789,173.1652314555126</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>-34.805430042012574,173.16485146530462</t>
+          <t>-34.805430027529574,173.1648514333708</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -11334,12 +11334,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-34.804089653488106,173.16566530842596</t>
+          <t>-34.80408963360359,173.16566528109675</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-34.804781119892844,173.16526532235082</t>
+          <t>-34.804781134041946,173.16526534673886</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -11361,17 +11361,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-34.804141028416296,173.1657359180279</t>
+          <t>-34.80414105492896,173.16573595446687</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-34.8047463460947,173.1652053847242</t>
+          <t>-34.80474632251284,173.16520534407752</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>-34.80539177789342,173.16476709619738</t>
+          <t>-34.80539179237643,173.1647671281312</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -11388,12 +11388,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-34.80391840784546,173.1654299497918</t>
+          <t>-34.80391842773001,173.16542997712088</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-34.80463974650736,173.1650216456863</t>
+          <t>-34.80463976065651,173.16502167007425</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -11415,7 +11415,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-34.80395513462642,173.16548042664866</t>
+          <t>-34.80395511474187,173.16548039931953</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -11442,17 +11442,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-34.80391665137553,173.16542753572196</t>
+          <t>-34.80391663811914,173.16542751750256</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-34.80463056842162,173.165005826039</t>
+          <t>-34.804630577854404,173.1650058422976</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>-34.80530383681777,173.16457319444112</t>
+          <t>-34.805303851300835,173.16457322637484</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -11470,12 +11470,12 @@
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-34.80466862963714,173.1650714296352</t>
+          <t>-34.80466860605524,173.1650713889886</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>-34.80537229821889,173.1647241452624</t>
+          <t>-34.80537228373585,173.1647241133286</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -11493,7 +11493,7 @@
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-34.80470644556527,173.16513661056655</t>
+          <t>-34.80470642669976,173.16513657804921</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -11511,7 +11511,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-34.804153926824185,173.1657536455975</t>
+          <t>-34.80415394008051,173.165753663817</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-34.8054204397808,173.16483029318601</t>
+          <t>-34.80542042529778,173.1648302612522</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -11538,17 +11538,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-34.804058640271066,173.1656226839905</t>
+          <t>-34.804058613758365,173.1656226475516</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-34.80463637900852,173.16501584135486</t>
+          <t>-34.80463638844129,173.1650158576135</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>-34.80527740519186,173.16451491541983</t>
+          <t>-34.80527739070876,173.1645148834861</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -11565,12 +11565,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-34.8042309128989,173.16585945543534</t>
+          <t>-34.804230893014434,173.16585942810602</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-34.80482432651946,173.16533979530809</t>
+          <t>-34.80482435010128,173.16533983595485</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -11593,12 +11593,12 @@
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-34.80462914878948,173.16500337911543</t>
+          <t>-34.804629125207555,173.16500333846886</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>-34.8053301091019,173.16463112222843</t>
+          <t>-34.80533009461884,173.16463109029468</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -11615,17 +11615,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-34.804137422694396,173.16573096232597</t>
+          <t>-34.80413741606624,173.16573095321624</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-34.804758188903854,173.16522579749224</t>
+          <t>-34.80475820305297,173.16522582188028</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>-34.805408925787575,173.1648049058104</t>
+          <t>-34.805408911304546,173.1648048738766</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -11642,17 +11642,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-34.804039140181125,173.16559588317568</t>
+          <t>-34.804039166693826,173.1655959196146</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-34.804675548568,173.1650833553512</t>
+          <t>-34.804675558000774,173.16508337160982</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>-34.805353499232254,173.1646826952342</t>
+          <t>-34.8053535137153,173.16468272716796</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -11674,7 +11674,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-34.8046778878927,173.16508738749553</t>
+          <t>-34.80467789260907,173.16508739562485</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -11696,7 +11696,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-34.8039167242856,173.16542763592864</t>
+          <t>-34.80391669777285,173.16542759948985</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -11706,7 +11706,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-34.80532811043959,173.1646267153723</t>
+          <t>-34.805328095956526,173.16462668343857</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -11723,17 +11723,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-34.804125260009656,173.1657142459449</t>
+          <t>-34.80412524675332,173.1657142277254</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-34.80475033614549,173.16521226214363</t>
+          <t>-34.80475031727999,173.16521222962626</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>-34.8054303606386,173.16485216784864</t>
+          <t>-34.80543037512161,173.16485219978244</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -11750,7 +11750,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-34.8040666139635,173.1656336429949</t>
+          <t>-34.80406660733533,173.1656336338852</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -11760,7 +11760,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-34.80538737505382,173.16475738832628</t>
+          <t>-34.80538736057078,173.1647573563925</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -11777,7 +11777,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-34.804121150546166,173.16570859790446</t>
+          <t>-34.80412113066166,173.16570857057522</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -11804,13 +11804,13 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-34.804144600997155,173.16574082818153</t>
+          <t>-34.804144574484496,173.1657407917425</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-34.80542083082199,173.16483115539887</t>
+          <t>-34.80542081633897,173.16483112346506</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -11827,7 +11827,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-34.80459891366056,173.16636524101992</t>
+          <t>-34.80459889377621,173.16636521369037</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -11854,17 +11854,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-34.804790572006645,173.16662866197376</t>
+          <t>-34.80479055875045,173.16662864375397</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-34.80484290426997,173.16537181683384</t>
+          <t>-34.80484292313542,173.16537184935126</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-34.805445220193405,173.16488493195163</t>
+          <t>-34.80544523467639,173.16488496388547</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -11881,7 +11881,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-34.80492275600958,173.16681034078897</t>
+          <t>-34.80492274938148,173.16681033167905</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -11891,7 +11891,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>-34.8054027125739,173.16479120621062</t>
+          <t>-34.80540269809089,173.16479117427681</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -11908,17 +11908,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-34.80492057537013,173.16680734362583</t>
+          <t>-34.804920601882465,173.16680738006553</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-34.80474677528458,173.16520612449386</t>
+          <t>-34.80474678943369,173.16520614888188</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>-34.805397947660744,173.16478069999215</t>
+          <t>-34.80539796214377,173.16478073192596</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -11935,17 +11935,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-34.80460469337846,173.1663731848073</t>
+          <t>-34.80460468012223,173.16637316658762</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-34.80476090553342,173.16523047999183</t>
+          <t>-34.80476090081705,173.1652304718625</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>-34.805370487839426,173.16472015354083</t>
+          <t>-34.805370502322475,173.16472018547458</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -11962,17 +11962,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-34.804000080329594,173.16554219959647</t>
+          <t>-34.80400009358595,173.1655422178159</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-34.80468672638839,173.16510262184946</t>
+          <t>-34.80468671223925,173.1651025974615</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>-34.80534257901315,173.16465861718328</t>
+          <t>-34.8053425645301,173.16465858524955</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -11989,12 +11989,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-34.804061795281655,173.16562702022142</t>
+          <t>-34.80406177539713,173.16562699289224</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-34.804709784760014,173.16514236613182</t>
+          <t>-34.80470979890915,173.1651423905198</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -12016,17 +12016,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-34.804097355421675,173.1656758939393</t>
+          <t>-34.804097328908995,173.1656758575004</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-34.80471373236703,173.1651491703812</t>
+          <t>-34.804713741799766,173.16514918663984</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>-34.805373210650075,173.16472615709012</t>
+          <t>-34.80537319616704,173.16472612515634</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -12043,17 +12043,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-34.80409394191422,173.165671202425</t>
+          <t>-34.804093928657885,173.16567118420548</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-34.80474095999717,173.165196101022</t>
+          <t>-34.804740978862654,173.16519613353933</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>-34.80538699849513,173.1647565580479</t>
+          <t>-34.805387012978166,173.1647565899817</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -12070,17 +12070,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-34.80398274100885,173.1655183685855</t>
+          <t>-34.803982734380675,173.16551835947578</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-34.80461185379846,173.16497356892728</t>
+          <t>-34.80461184908207,173.16497356079796</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>-34.80535930693303,173.1646955006723</t>
+          <t>-34.80535929244999,173.16469546873856</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -12120,17 +12120,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-34.804047763437126,173.16560773492807</t>
+          <t>-34.804047756808956,173.16560772581835</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-34.804650103686896,173.1650394976666</t>
+          <t>-34.80465008482137,173.16503946514933</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>-34.80528722472519,173.16453656647107</t>
+          <t>-34.80528721024211,173.16453653453738</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -12152,7 +12152,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-34.80466125321601,173.16505871537714</t>
+          <t>-34.804661239066846,173.16505869098918</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -12179,7 +12179,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-34.80470188011212,173.16512874137638</t>
+          <t>-34.8047018612466,173.16512870885907</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -12201,17 +12201,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-34.80410636310356,173.16568827407323</t>
+          <t>-34.80410633659089,173.16568823763427</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-34.80474709128151,173.16520666915946</t>
+          <t>-34.80474710071427,173.16520668541813</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>-34.80539841111739,173.16478172187354</t>
+          <t>-34.80539839663437,173.16478168993976</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-34.80468799981078,173.16510481676733</t>
+          <t>-34.80468800924353,173.165104833026</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -12255,7 +12255,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-34.80488644073082,173.16676042756725</t>
+          <t>-34.80488642084656,173.1667604002375</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -12282,12 +12282,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-34.804840687029134,173.16669754188956</t>
+          <t>-34.80484066714486,173.16669751455984</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-34.80466319636545,173.1650620646572</t>
+          <t>-34.80466321051458,173.16506208904516</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -12314,7 +12314,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-34.804768069699755,173.1652428284601</t>
+          <t>-34.804768060267016,173.1652428122014</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -12336,12 +12336,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-34.80483629260407,173.16669150202586</t>
+          <t>-34.80483631248834,173.16669152935555</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-34.80476933368684,173.16524500712356</t>
+          <t>-34.80476935726869,173.1652450477703</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -12363,7 +12363,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-34.80484469039649,173.1667030442697</t>
+          <t>-34.80484466388413,173.1667030078301</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -12373,7 +12373,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>-34.805347445318276,173.16466934692403</t>
+          <t>-34.805347430835226,173.16466931499025</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -12391,12 +12391,12 @@
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-34.80472589589918,173.1651701359278</t>
+          <t>-34.804725881750066,173.1651701115398</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>-34.80539216893505,173.16476795840967</t>
+          <t>-34.80539218341807,173.16476799034348</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -12413,12 +12413,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-34.80488300075353,173.1667556995239</t>
+          <t>-34.80488302063779,173.1667557268536</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-34.804710459201864,173.16514352862598</t>
+          <t>-34.804710473350994,173.165143553014</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -12445,7 +12445,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-34.80475482141487,173.16521999314423</t>
+          <t>-34.80475483084761,173.1652200094029</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -12467,7 +12467,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-34.804867292184326,173.16673410904178</t>
+          <t>-34.80486727230006,173.16673408171206</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -12494,17 +12494,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-34.80484286767132,173.1667005390469</t>
+          <t>-34.80484287429941,173.1667005481568</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-34.80483305179049,173.16535483461135</t>
+          <t>-34.80483306593959,173.16535485899942</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>-34.8054647287767,173.1649279468298</t>
+          <t>-34.80546474325968,173.16492797876364</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -12521,17 +12521,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-34.80427186163132,173.16591573559964</t>
+          <t>-34.80427187488762,173.1659157538192</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-34.804838093581395,173.1653635248913</t>
+          <t>-34.80483809829776,173.16536353302064</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>-34.80544824713866,173.16489160612218</t>
+          <t>-34.80544823265568,173.16489157418835</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -12548,17 +12548,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-34.80415327063597,173.16575274373233</t>
+          <t>-34.804153283892305,173.1657527619518</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-34.80477858720302,173.16526095689335</t>
+          <t>-34.80477859191938,173.1652609650227</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>-34.80544516226143,173.16488480421629</t>
+          <t>-34.80544514777844,173.16488477228248</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -12575,12 +12575,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-34.80415184558074,173.16575078513625</t>
+          <t>-34.8041518522089,173.165750794246</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-34.804776030931166,173.16525655078942</t>
+          <t>-34.80477604979664,173.16525658330679</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
@@ -12598,17 +12598,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-34.804126366913486,173.16571576727202</t>
+          <t>-34.80412638016982,173.1657157854915</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-34.80478967066761,173.16528006085264</t>
+          <t>-34.80478969424945,173.16528010149938</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>-34.80545115821963,173.16489802482258</t>
+          <t>-34.805451143736654,173.16489799288874</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -12626,12 +12626,12 @@
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-34.80472300004503,173.16516514451754</t>
+          <t>-34.80472297646314,173.16516510387086</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>-34.805361276626755,173.1646998436642</t>
+          <t>-34.8053612911098,173.16469987559796</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -12649,7 +12649,7 @@
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-34.80468051020005,173.16509190739959</t>
+          <t>-34.804680486618146,173.16509186675296</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -12672,12 +12672,12 @@
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-34.8047513360163,173.16521398556324</t>
+          <t>-34.804751354881795,173.16521401808058</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>-34.805412141016404,173.16481199511458</t>
+          <t>-34.80541212653339,173.16481196318077</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -12694,17 +12694,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-34.80412923690955,173.165719711791</t>
+          <t>-34.80412924353772,173.16571972090077</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-34.80475812759103,173.16522569181083</t>
+          <t>-34.804758151172884,173.16522573245754</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>-34.805420497712824,173.16483042092125</t>
+          <t>-34.80542051219582,173.16483045285503</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -12721,12 +12721,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-34.80413218644349,173.16572376562723</t>
+          <t>-34.80413216655899,173.165723738298</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-34.80475863224272,173.16522656165014</t>
+          <t>-34.80475861809361,173.16522653726213</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -12748,17 +12748,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-34.80409394191422,173.165671202425</t>
+          <t>-34.804093928657885,173.16567118420548</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-34.804765376652526,173.16523818660642</t>
+          <t>-34.80476536250342,173.16523816221837</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>-34.80543001304657,173.164851401437</t>
+          <t>-34.805430027529574,173.1648514333708</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -12775,7 +12775,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-34.80412659227116,173.16571607700328</t>
+          <t>-34.80412661878382,173.16571611344227</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -12785,7 +12785,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>-34.80540689816555,173.16480043507832</t>
+          <t>-34.805406912648586,173.1648004670121</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -12802,17 +12802,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-34.804873423166434,173.16674253570577</t>
+          <t>-34.804873416538356,173.16674252659584</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-34.80474663850978,173.1652058887431</t>
+          <t>-34.804746633793414,173.16520588061374</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>-34.80543156272768,173.16485481835554</t>
+          <t>-34.80543154824469,173.16485478642173</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -12829,7 +12829,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-34.80486367987567,173.16672914414306</t>
+          <t>-34.80486369313185,173.16672916236288</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -12839,7 +12839,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>-34.80542813025632,173.1648472500408</t>
+          <t>-34.805428115773324,173.16484721810698</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -12856,12 +12856,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-34.804832156674294,173.16668581744884</t>
+          <t>-34.80483213679003,173.16668579011915</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-34.80476106117364,173.16523074826006</t>
+          <t>-34.804761056457274,173.1652307401307</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -12883,17 +12883,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-34.80479715370674,173.16663770809467</t>
+          <t>-34.804797180219126,173.16663774453423</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-34.80483305179049,173.16535483461135</t>
+          <t>-34.80483306593959,173.16535485899942</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>-34.805447436091164,173.16488981782763</t>
+          <t>-34.80544745057416,173.16488984976147</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -12911,12 +12911,12 @@
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-34.80484548883575,173.16537627172102</t>
+          <t>-34.80484546525395,173.16537623107422</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>-34.805454373443006,173.16490511413397</t>
+          <t>-34.80545435896001,173.16490508220014</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -12934,7 +12934,7 @@
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-34.804805173363846,173.16530678201616</t>
+          <t>-34.80480515449838,173.1653067494988</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -12957,7 +12957,7 @@
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-34.80475979246995,173.16522856146767</t>
+          <t>-34.80475981133543,173.16522859398503</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -12979,17 +12979,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-34.804940598807285,173.16683486469492</t>
+          <t>-34.804940585551115,173.16683484647507</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-34.80477739396175,173.1652589001695</t>
+          <t>-34.80477739867812,173.16525890829885</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>-34.80542653712598,173.1648437373211</t>
+          <t>-34.805426551608996,173.16484376925493</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -13006,17 +13006,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-34.80450588796787,173.1662373844567</t>
+          <t>-34.804505894596,173.16623739356655</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-34.80475207648666,173.16521526186932</t>
+          <t>-34.804752081203034,173.16521526999864</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>-34.805438963539835,173.1648711365384</t>
+          <t>-34.80543897802283,173.16487116847225</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -13033,17 +13033,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-34.804735432842726,173.16655287685387</t>
+          <t>-34.80473543947086,173.16655288596374</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-34.80473167345778,173.16518009436138</t>
+          <t>-34.80473169232327,173.1651801268787</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>-34.80537878661775,173.16473845159388</t>
+          <t>-34.80537880110078,173.16473848352766</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -13060,17 +13060,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-34.80474245200331,173.16656252421475</t>
+          <t>-34.80474247851572,173.16656256065428</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-34.80480108427478,173.16529973387136</t>
+          <t>-34.804801107856626,173.16529977451813</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>-34.80546451153197,173.16492746782214</t>
+          <t>-34.80546452601496,173.16492749975598</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -13087,12 +13087,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-34.804361275330265,173.1660386266019</t>
+          <t>-34.80436129521469,173.16603865393128</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-34.80486121789586,173.1654033831298</t>
+          <t>-34.80486123676129,173.16540341564723</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -13119,7 +13119,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-34.804792769320784,173.16528540183282</t>
+          <t>-34.80479275517169,173.16528537744477</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -13141,17 +13141,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-34.804359817138995,173.16603662244702</t>
+          <t>-34.804359803882726,173.16603660422743</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-34.80484421541832,173.16537407679482</t>
+          <t>-34.80484422013468,173.16537408492417</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>-34.80549622924075,173.16499740296757</t>
+          <t>-34.805496243723724,173.16499743490144</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -13168,17 +13168,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-34.80415415218175,173.16575395532897</t>
+          <t>-34.8041541786944,173.16575399176799</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-34.804749760748116,173.1652112703644</t>
+          <t>-34.80474974659899,173.1652112459764</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>-34.80544083184627,173.16487525600186</t>
+          <t>-34.80544084632927,173.16487528793567</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -13195,17 +13195,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-34.80420304149823,173.1658211488807</t>
+          <t>-34.80420303487008,173.16582113977097</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-34.80478495901643,173.16527193963697</t>
+          <t>-34.80478497316553,173.165271964025</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>-34.80544863817941,173.16489246833567</t>
+          <t>-34.80544862369642,173.16489243640183</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -13222,17 +13222,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-34.80413432071289,173.1657266989651</t>
+          <t>-34.80413431408473,173.16572668985535</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-34.804803593381386,173.16530405868448</t>
+          <t>-34.804803598097756,173.16530406681383</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>-34.80545715417639,173.16491124543074</t>
+          <t>-34.80545713969341,173.1649112134969</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -13250,7 +13250,7 @@
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-34.80478285079996,173.16526830582006</t>
+          <t>-34.8047828460836,173.16526829769072</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -13272,7 +13272,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-34.80434397587723,173.16601485004185</t>
+          <t>-34.804343995761656,173.1660148773712</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -13300,12 +13300,12 @@
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-34.804663639705346,173.16506282881332</t>
+          <t>-34.8046636255562,173.16506280442536</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>-34.805345403208214,173.16466484426482</t>
+          <t>-34.805345388725165,173.16466481233107</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -13323,12 +13323,12 @@
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-34.80465635761096,173.1650502771432</t>
+          <t>-34.80465636232734,173.1650502852725</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>-34.80533590232508,173.1646438957256</t>
+          <t>-34.80533591680815,173.16464392765934</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -13346,12 +13346,12 @@
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-34.804723570726395,173.16516612816676</t>
+          <t>-34.804723547144505,173.1651660875201</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>-34.80539311033156,173.16477003410594</t>
+          <t>-34.80539309584854,173.16477000217216</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -13369,12 +13369,12 @@
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-34.80475609011873,173.16522217993634</t>
+          <t>-34.80475607596962,173.16522215554835</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>-34.80540568159228,173.16479775263917</t>
+          <t>-34.8054056960753,173.16479778457298</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -13397,7 +13397,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>-34.80542762335123,173.16484613235724</t>
+          <t>-34.80542763783423,173.16484616429105</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -13414,12 +13414,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-34.80413942440034,173.16573371346928</t>
+          <t>-34.80413944428482,173.16573374079852</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-34.80474674698635,173.16520607571786</t>
+          <t>-34.80474673755359,173.16520605945917</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -13441,17 +13441,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-34.8041180419357,173.16570432543554</t>
+          <t>-34.804118028679376,173.16570430721603</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-34.80469514512449,173.1651171326966</t>
+          <t>-34.80469516870638,173.1651171733432</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>-34.80533724924929,173.16464686556392</t>
+          <t>-34.805337263732355,173.1646468974977</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -13473,7 +13473,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-34.80492620926983,173.16551540579152</t>
+          <t>-34.80492619040442,173.16551537327402</t>
         </is>
       </c>
       <c r="D196" t="inlineStr"/>
@@ -13491,12 +13491,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-34.80417400352887,173.16578123903517</t>
+          <t>-34.8041739836444,173.1657812117059</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-34.80472118895696,173.16516202285396</t>
+          <t>-34.804721212538844,173.16516206350065</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -13518,17 +13518,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-34.80418447602335,173.16579563244807</t>
+          <t>-34.804184482651515,173.16579564155782</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-34.80474656304783,173.1652057586737</t>
+          <t>-34.80474658191332,173.16520579119106</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>-34.805392646874836,173.1647690122247</t>
+          <t>-34.80539266135784,173.16476904415848</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -13545,17 +13545,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-34.80415892445942,173.16576051434896</t>
+          <t>-34.804158950972074,173.16576055078798</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-34.80475667494875,173.1652231879744</t>
+          <t>-34.80475669853062,173.16522322862107</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>-34.80538782402764,173.16475837827363</t>
+          <t>-34.80538783851065,173.1647584102074</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -13572,12 +13572,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-34.80409323270003,173.1656702276832</t>
+          <t>-34.804093212815516,173.165670200354</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-34.804704658058355,173.16513352955087</t>
+          <t>-34.80470466277474,173.1651335376802</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -13599,17 +13599,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-34.80405027551534,173.16561118751437</t>
+          <t>-34.80405026225898,173.16561116929492</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-34.80471451528545,173.16515051985007</t>
+          <t>-34.80471452000182,173.1651505279794</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>-34.805325648319126,173.1646212866368</t>
+          <t>-34.80532566280219,173.16462131857057</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -13626,7 +13626,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-34.804123079342766,173.1657112488395</t>
+          <t>-34.80412309922727,173.16571127616874</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -13653,17 +13653,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-34.80416429327138,173.1657678932474</t>
+          <t>-34.80416431978403,173.16576792968638</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-34.804721797369375,173.1651630715378</t>
+          <t>-34.804721783220245,173.1651630471498</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>-34.8053983387023,173.16478156220458</t>
+          <t>-34.80539835318532,173.16478159413836</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -13680,17 +13680,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-34.804906172543014,173.16678754777737</t>
+          <t>-34.80490616591493,173.16678753866748</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-34.80469413581953,173.1651153930206</t>
+          <t>-34.804694131103155,173.1651153848913</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>-34.80535630894302,173.1646888903836</t>
+          <t>-34.80535629445998,173.16468885844984</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -13707,7 +13707,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-34.80486824662916,173.16673542086832</t>
+          <t>-34.80486822674489,173.16673539353857</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -13726,12 +13726,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-34.804809747088704,173.16665501689002</t>
+          <t>-34.80480976697299,173.1666550442197</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-34.80464026059329,173.16502253178174</t>
+          <t>-34.80464027945882,173.165022564299</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -13753,17 +13753,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-34.80479534423639,173.1666352210945</t>
+          <t>-34.80479533098019,173.16663520287474</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-34.80471616130065,173.16515335698654</t>
+          <t>-34.80471618016614,173.16515338950387</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>-34.80537874316865,173.16473835579254</t>
+          <t>-34.805378757651695,173.16473838772635</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -13780,17 +13780,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-34.80482150532834,173.16667117784368</t>
+          <t>-34.80482151858452,173.16667119606348</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-34.80469144276738,173.16511075117523</t>
+          <t>-34.804691433334625,173.16511073491657</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>-34.80526228484086,173.16448157664297</t>
+          <t>-34.80526227035776,173.16448154470925</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -13807,17 +13807,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-34.80487959391649,173.16675101703044</t>
+          <t>-34.80487962042884,173.16675105347008</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-34.804706572907435,173.16513683005843</t>
+          <t>-34.804706582340195,173.1651368463171</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>-34.8053428976403,173.1646593197258</t>
+          <t>-34.80534291212334,173.16465935165954</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -13835,12 +13835,12 @@
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-34.80463539328401,173.16501414232795</t>
+          <t>-34.804635402716784,173.1650141585866</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>-34.80529814496864,173.16456064448985</t>
+          <t>-34.80529815945172,173.16456067642355</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -13858,12 +13858,12 @@
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="inlineStr">
         <is>
-          <t>-34.80465520681355,173.1650482935893</t>
+          <t>-34.80465522096269,173.1650483179773</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>-34.80530388026699,173.1645732902423</t>
+          <t>-34.80530389475006,173.164573322176</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -13882,7 +13882,7 @@
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr">
         <is>
-          <t>-34.805309572114794,173.16458584019531</t>
+          <t>-34.805309586597865,173.16458587212904</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -13899,17 +13899,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-34.80424034476369,173.16587241863434</t>
+          <t>-34.80424031825108,173.16587238219526</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-34.804751024735765,173.16521344902694</t>
+          <t>-34.80475104360125,173.1652134815443</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>-34.80538615847958,173.1647547058884</t>
+          <t>-34.80538614399655,173.16475467395463</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -13926,17 +13926,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-34.80407735823075,173.1656484098695</t>
+          <t>-34.80407734497442,173.16564839165002</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-34.80465437201376,173.16504685469985</t>
+          <t>-34.80465439087929,173.16504688721713</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>-34.80533894376673,173.16465060181233</t>
+          <t>-34.80533895824978,173.16465063374605</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -13953,17 +13953,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-34.80402165505117,173.1655718517284</t>
+          <t>-34.80402162853845,173.16557181528952</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>-34.80463611960732,173.1650153942425</t>
+          <t>-34.8046361290401,173.16501541050113</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>-34.80530160642412,173.1645682766483</t>
+          <t>-34.805301591941046,173.1645682447146</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -13980,17 +13980,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-34.80402154237214,173.16557169686317</t>
+          <t>-34.804021568884856,173.16557173330204</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-34.804633945353714,173.16501164662822</t>
+          <t>-34.8046339500701,173.16501165475754</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>-34.80532938494891,173.1646295255414</t>
+          <t>-34.80532939943197,173.16462955747514</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -14007,17 +14007,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-34.80409549290598,173.16567333410327</t>
+          <t>-34.80409547964965,173.16567331588382</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-34.804728956826246,173.16517541186508</t>
+          <t>-34.80472894267712,173.16517538747706</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>-34.80536575188617,173.16470971119804</t>
+          <t>-34.805365766369206,173.1647097431318</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -14034,12 +14034,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-34.80405439823978,173.1656168537646</t>
+          <t>-34.80405437835525,173.1656168264354</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-34.804728886080625,173.1651752899251</t>
+          <t>-34.804728890797,173.1651752980544</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -14061,17 +14061,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-34.80405468987943,173.16561725459263</t>
+          <t>-34.804054676623075,173.16561723637315</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>-34.80477919561455,173.16526200557863</t>
+          <t>-34.80477921448002,173.16526203809602</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>-34.805417412832156,173.1648236190199</t>
+          <t>-34.80541742731516,173.16482365095374</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -14088,17 +14088,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-34.80402865440626,173.1655814715939</t>
+          <t>-34.80402866766263,173.16558148981332</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-34.80470063027206,173.16512658710442</t>
+          <t>-34.80470061612293,173.16512656271644</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>-34.80537490516505,173.16472989334176</t>
+          <t>-34.805374890682025,173.16472986140795</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -14115,12 +14115,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-34.804177841234335,173.16578651358287</t>
+          <t>-34.804177861118816,173.16578654091214</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-34.80478146418772,173.16526591579293</t>
+          <t>-34.80478144532226,173.16526588327554</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -14143,12 +14143,12 @@
       <c r="B222" t="inlineStr"/>
       <c r="C222" t="inlineStr">
         <is>
-          <t>-34.80476357499911,173.16523508119832</t>
+          <t>-34.804763598580955,173.16523512184503</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>-34.80541571832007,173.16481988276448</t>
+          <t>-34.80541573280307,173.16481991469826</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -14166,12 +14166,12 @@
       <c r="B223" t="inlineStr"/>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-34.8047295888204,173.16517650119582</t>
+          <t>-34.804729565238546,173.16517646054913</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>-34.8053863322759,173.1647550890938</t>
+          <t>-34.80538631779287,173.16475505716002</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -14188,12 +14188,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-34.80401747267099,173.16556610349517</t>
+          <t>-34.80401745278647,173.16556607616602</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-34.8046477926589,173.16503551430083</t>
+          <t>-34.80464780209167,173.16503553055946</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -14216,12 +14216,12 @@
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-34.8046676486298,173.1650697387363</t>
+          <t>-34.80466767221171,173.16506977938292</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>-34.80533810374955,173.164648749655</t>
+          <t>-34.8053380892665,173.16464871772124</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -14239,12 +14239,12 @@
       <c r="B226" t="inlineStr"/>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-34.804698196621125,173.16512239237127</t>
+          <t>-34.80469817775561,173.16512235985397</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>-34.80534194175883,173.1646572120983</t>
+          <t>-34.80534195624189,173.16465724403204</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -14262,7 +14262,7 @@
       <c r="B227" t="inlineStr"/>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-34.804701776351806,173.16512856253115</t>
+          <t>-34.8047017574863,173.16512853001382</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -14284,17 +14284,17 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-34.8042436654691,173.1658769826285</t>
+          <t>-34.804243658840946,173.16587697351872</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>-34.804796424504964,173.1652917020763</t>
+          <t>-34.80479643865407,173.16529172646435</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>-34.805442381526696,173.1648786729213</t>
+          <t>-34.8054423670437,173.16487864098747</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -14311,17 +14311,17 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-34.80419892541162,173.16581549171988</t>
+          <t>-34.80419891878347,173.16581548261013</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-34.8047626222923,173.1652334390716</t>
+          <t>-34.80476261285955,173.16523342281292</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>-34.805415095550636,173.1648185096108</t>
+          <t>-34.80541508106763,173.164818477677</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -14338,17 +14338,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-34.80422181244053,173.1658469477275</t>
+          <t>-34.804221825696835,173.16584696594703</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-34.80477106459446,173.16524799059198</t>
+          <t>-34.804771069310824,173.1652479987213</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>-34.80540488502641,173.16479599628025</t>
+          <t>-34.80540487054339,173.16479596434644</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -14365,12 +14365,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-34.80410080869796,173.1656806401125</t>
+          <t>-34.80410078881344,173.16568061278326</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-34.804699352133696,173.16512438405655</t>
+          <t>-34.80469937099922,173.16512441657386</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -14392,17 +14392,17 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-34.80413760828303,173.16573121739887</t>
+          <t>-34.80413759502671,173.16573119917936</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-34.8047107751991,173.1651440732911</t>
+          <t>-34.80471078463184,173.16514408954973</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>-34.805385086735555,173.16475234278843</t>
+          <t>-34.8053851012186,173.1647523747222</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -14419,17 +14419,17 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-34.80420677977956,173.16582628678572</t>
+          <t>-34.804206793035874,173.16582630500523</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-34.80478177075165,173.16526644420026</t>
+          <t>-34.80478175660255,173.16526641981224</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>-34.805436255219405,173.16486516491344</t>
+          <t>-34.80543624073639,173.1648651329796</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -14446,7 +14446,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-34.804162079465016,173.1657648505904</t>
+          <t>-34.80416205295236,173.16576481415137</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -14456,7 +14456,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>-34.80542513227462,173.1648406397411</t>
+          <t>-34.80542511779163,173.16484060780726</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -14473,17 +14473,17 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-34.80420982210409,173.16583046816618</t>
+          <t>-34.8042098353604,173.16583048638572</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>-34.80475930668375,173.1652277241457</t>
+          <t>-34.80475929253463,173.16522769975768</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>-34.805412141016404,173.16481199511458</t>
+          <t>-34.80541212653339,173.16481196318077</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -14500,7 +14500,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-34.804258366713675,173.16589718810008</t>
+          <t>-34.80425839322629,173.16589722453915</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -14510,7 +14510,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>-34.805458645923856,173.1649145346162</t>
+          <t>-34.80545866040685,173.16491456655004</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -14527,17 +14527,17 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-34.804033194707216,173.16558771175372</t>
+          <t>-34.8040332013354,173.16558772086344</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-34.80467800108583,173.1650875825993</t>
+          <t>-34.80467799636944,173.16508757447</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>-34.80535975590735,173.16469649061898</t>
+          <t>-34.805359770390396,173.16469652255276</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -14555,12 +14555,12 @@
       <c r="B238" t="inlineStr"/>
       <c r="C238" t="inlineStr">
         <is>
-          <t>-34.80474016764651,173.16519473529357</t>
+          <t>-34.804740148781,173.16519470277623</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>-34.805402799472006,173.16479139781342</t>
+          <t>-34.805402784989,173.1647913658796</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -14596,17 +14596,17 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-34.80421537650013,173.165838102147</t>
+          <t>-34.804215383128295,173.16583811125676</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>-34.80474942116934,173.1652106850521</t>
+          <t>-34.80474943531845,173.16521070944012</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>-34.805449217499024,173.16489374568894</t>
+          <t>-34.80544923198202,173.16489377762278</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -14624,12 +14624,12 @@
       <c r="B241" t="inlineStr"/>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-34.804741832526155,173.16519760494913</t>
+          <t>-34.80474180894428,173.16519756430247</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>-34.80538460879565,173.1647512889736</t>
+          <t>-34.80538462327867,173.16475132090738</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -14647,12 +14647,12 @@
       <c r="B242" t="inlineStr"/>
       <c r="C242" t="inlineStr">
         <is>
-          <t>-34.80472434421187,173.1651674613773</t>
+          <t>-34.804724325346385,173.16516742885997</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>-34.8054041608756,173.16479439959036</t>
+          <t>-34.80540417535862,173.16479443152414</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -14674,7 +14674,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>-34.80465380604779,173.16504587918158</t>
+          <t>-34.80465382019695,173.16504590356953</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -14696,12 +14696,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-34.804032584914985,173.1655868736592</t>
+          <t>-34.804032604799524,173.16558690098836</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>-34.8046308797031,173.16500636257373</t>
+          <t>-34.80463088913586,173.16500637883235</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -14723,12 +14723,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>-34.804016279598954,173.16556446374568</t>
+          <t>-34.80401625971442,173.16556443641653</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>-34.80468890063918,173.16510636946853</t>
+          <t>-34.80468889120642,173.1651063532099</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -14750,17 +14750,17 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-34.803787554016104,173.16525010642553</t>
+          <t>-34.803787547387905,173.1652500973159</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>-34.80452104907891,173.16481705548188</t>
+          <t>-34.8045210585117,173.16481707174046</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>-34.80529443730032,173.16455246945887</t>
+          <t>-34.805294422817234,173.16455243752517</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -14777,17 +14777,17 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-34.8041905142773,173.1658039314365</t>
+          <t>-34.80419050764913,173.16580392232675</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>-34.80474382755182,173.1652010436584</t>
+          <t>-34.80474383226818,173.16520105178773</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>-34.805420657025884,173.16483077219317</t>
+          <t>-34.805420642542884,173.16483074025936</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -14804,17 +14804,17 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>-34.80405907773053,173.16562328523258</t>
+          <t>-34.80405909098687,173.16562330345207</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>-34.804711473222795,173.16514527643193</t>
+          <t>-34.80471145907367,173.16514525204394</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>-34.80536786640976,173.1647143735283</t>
+          <t>-34.805367851926725,173.16471434159453</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -14831,17 +14831,17 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>-34.80402368990163,173.16557464841264</t>
+          <t>-34.80402371641434,173.16557468485152</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>-34.80463505370428,173.1650135570173</t>
+          <t>-34.80463503955512,173.16501353262933</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>-34.80534359282679,173.16466085254584</t>
+          <t>-34.80534360730985,173.1646608844796</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -14858,17 +14858,17 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-34.80404172516959,173.16559943596823</t>
+          <t>-34.80404173179775,173.16559944507796</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>-34.804648919874616,173.16503745720777</t>
+          <t>-34.804648943456534,173.16503749785437</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>-34.80532399724997,173.16461764619083</t>
+          <t>-34.80532401173303,173.16461767812456</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">

--- a/data/nzd0020/nzd0020.xlsx
+++ b/data/nzd0020/nzd0020.xlsx
@@ -8255,13 +8255,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.045</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04</v>
+        <v>0.0242</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0482</v>
+        <v>0.0352</v>
       </c>
       <c r="I2" t="n">
         <v>1.193158915886141</v>
@@ -8333,13 +8333,13 @@
         <v>0.5010044761321643</v>
       </c>
       <c r="F3" t="n">
-        <v>0.055</v>
+        <v>0.075</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0485</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0589</v>
+        <v>0.09420000000000001</v>
       </c>
       <c r="I3" t="n">
         <v>0.1115813184500287</v>
@@ -8411,13 +8411,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0547</v>
+        <v>0.06270000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.063</v>
+        <v>0.07779999999999999</v>
       </c>
       <c r="I4" t="n">
         <v>-0.005472845997057444</v>

--- a/data/nzd0020/nzd0020.xlsx
+++ b/data/nzd0020/nzd0020.xlsx
@@ -491,13 +491,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>376.71</v>
+        <v>362.87</v>
       </c>
       <c r="C3" t="n">
-        <v>360.22</v>
+        <v>354.89</v>
       </c>
       <c r="D3" t="n">
-        <v>364.47</v>
+        <v>360.96</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -512,13 +512,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.36</v>
+        <v>373.03</v>
       </c>
       <c r="C4" t="n">
-        <v>367.36</v>
+        <v>363.79</v>
       </c>
       <c r="D4" t="n">
-        <v>367.06</v>
+        <v>365.76</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>355.41</v>
+        <v>362.38</v>
       </c>
       <c r="C5" t="n">
-        <v>362.61</v>
+        <v>364.99</v>
       </c>
       <c r="D5" t="n">
-        <v>367.47</v>
+        <v>367.26</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>342.86</v>
+        <v>355.88</v>
       </c>
       <c r="C6" t="n">
-        <v>352.17</v>
+        <v>360.71</v>
       </c>
       <c r="D6" t="n">
-        <v>353.09</v>
+        <v>362.54</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335.44</v>
+        <v>350.77</v>
       </c>
       <c r="C7" t="n">
-        <v>336.96</v>
+        <v>354.77</v>
       </c>
       <c r="D7" t="n">
-        <v>343.94</v>
+        <v>357.89</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -596,13 +596,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>314.92</v>
+        <v>343.6</v>
       </c>
       <c r="C8" t="n">
-        <v>326.54</v>
+        <v>349.13</v>
       </c>
       <c r="D8" t="n">
-        <v>337.43</v>
+        <v>353.8</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>324.61</v>
+        <v>340.43</v>
       </c>
       <c r="C9" t="n">
-        <v>334.64</v>
+        <v>346.71</v>
       </c>
       <c r="D9" t="n">
-        <v>344.71</v>
+        <v>352.28</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>346.51</v>
+        <v>336.63</v>
       </c>
       <c r="C10" t="n">
-        <v>349.23</v>
+        <v>343.69</v>
       </c>
       <c r="D10" t="n">
-        <v>354.49</v>
+        <v>350.19</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -658,11 +658,15 @@
           <t>2000-11-07 22:07:53+00:00</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>332.87</v>
+      </c>
       <c r="C11" t="n">
-        <v>334.81</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>339.06</v>
+      </c>
+      <c r="D11" t="n">
+        <v>346.73</v>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>L7</t>
@@ -676,13 +680,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>358.06</v>
+        <v>335.91</v>
       </c>
       <c r="C12" t="n">
-        <v>344.45</v>
+        <v>337.77</v>
       </c>
       <c r="D12" t="n">
-        <v>342</v>
+        <v>344.51</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -696,10 +700,14 @@
           <t>2001-03-15 22:07:52+00:00</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>343.06</v>
+      </c>
+      <c r="C13" t="n">
+        <v>340.78</v>
+      </c>
       <c r="D13" t="n">
-        <v>353.21</v>
+        <v>348.6</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -714,13 +722,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>348.94</v>
+        <v>353.5</v>
       </c>
       <c r="C14" t="n">
-        <v>355.85</v>
+        <v>345.04</v>
       </c>
       <c r="D14" t="n">
-        <v>361.22</v>
+        <v>352.14</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -735,13 +743,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>321.16</v>
+        <v>342.72</v>
       </c>
       <c r="C15" t="n">
-        <v>343.76</v>
+        <v>348.02</v>
       </c>
       <c r="D15" t="n">
-        <v>353.08</v>
+        <v>352.38</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -756,13 +764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>331.2</v>
+        <v>333.77</v>
       </c>
       <c r="C16" t="n">
-        <v>328.5</v>
+        <v>342.7</v>
       </c>
       <c r="D16" t="n">
-        <v>336.92</v>
+        <v>351.11</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -777,13 +785,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>307.52</v>
+        <v>319.96</v>
       </c>
       <c r="C17" t="n">
-        <v>326.54</v>
+        <v>332.93</v>
       </c>
       <c r="D17" t="n">
-        <v>337.57</v>
+        <v>342.52</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -798,13 +806,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>341.92</v>
+        <v>326.88</v>
       </c>
       <c r="C18" t="n">
-        <v>350.37</v>
+        <v>335.14</v>
       </c>
       <c r="D18" t="n">
-        <v>360.56</v>
+        <v>345.02</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -819,12 +827,14 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>356.5</v>
+        <v>335.31</v>
       </c>
       <c r="C19" t="n">
-        <v>357.78</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>344.9</v>
+      </c>
+      <c r="D19" t="n">
+        <v>349.07</v>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>L7</t>
@@ -838,13 +848,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>360.09</v>
+        <v>352.84</v>
       </c>
       <c r="C20" t="n">
-        <v>363.11</v>
+        <v>357.09</v>
       </c>
       <c r="D20" t="n">
-        <v>368.3</v>
+        <v>364.43</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -858,12 +868,14 @@
           <t>2002-11-13 22:05:30+00:00</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>360.09</v>
+      </c>
       <c r="C21" t="n">
-        <v>340.67</v>
+        <v>351.89</v>
       </c>
       <c r="D21" t="n">
-        <v>353.58</v>
+        <v>360.94</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -877,12 +889,14 @@
           <t>2003-01-16 22:06:02+00:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>360.09</v>
+      </c>
       <c r="C22" t="n">
-        <v>359.74</v>
+        <v>354.51</v>
       </c>
       <c r="D22" t="n">
-        <v>360.92</v>
+        <v>360.93</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -900,10 +914,10 @@
         <v>370.5</v>
       </c>
       <c r="C23" t="n">
-        <v>362.32</v>
+        <v>354.24</v>
       </c>
       <c r="D23" t="n">
-        <v>366.84</v>
+        <v>360.45</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -917,12 +931,14 @@
           <t>2003-05-24 22:06:17+00:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>370.5</v>
+      </c>
       <c r="C24" t="n">
-        <v>340.66</v>
+        <v>354.24</v>
       </c>
       <c r="D24" t="n">
-        <v>348.96</v>
+        <v>358.91</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -938,10 +954,10 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>342.46</v>
+        <v>341.56</v>
       </c>
       <c r="D25" t="n">
-        <v>350.11</v>
+        <v>349.53</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -959,10 +975,10 @@
         <v>344.93</v>
       </c>
       <c r="C26" t="n">
-        <v>359.29</v>
+        <v>350.88</v>
       </c>
       <c r="D26" t="n">
-        <v>362.04</v>
+        <v>356.08</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -977,10 +993,14 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>376.98</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+        <v>360.96</v>
+      </c>
+      <c r="C27" t="n">
+        <v>350.88</v>
+      </c>
+      <c r="D27" t="n">
+        <v>356.08</v>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>L7</t>
@@ -994,13 +1014,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.95</v>
+        <v>360.29</v>
       </c>
       <c r="C28" t="n">
-        <v>361.12</v>
+        <v>354.29</v>
       </c>
       <c r="D28" t="n">
-        <v>369.05</v>
+        <v>360.4</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1015,13 +1035,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>362.94</v>
+        <v>360.95</v>
       </c>
       <c r="C29" t="n">
-        <v>364.67</v>
+        <v>361.69</v>
       </c>
       <c r="D29" t="n">
-        <v>360.16</v>
+        <v>363.75</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1036,13 +1056,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>340.48</v>
+        <v>356.86</v>
       </c>
       <c r="C30" t="n">
-        <v>360.6</v>
+        <v>361.42</v>
       </c>
       <c r="D30" t="n">
-        <v>367.06</v>
+        <v>364.58</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1057,13 +1077,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>341.71</v>
+        <v>354.33</v>
       </c>
       <c r="C31" t="n">
-        <v>355.76</v>
+        <v>360.29</v>
       </c>
       <c r="D31" t="n">
-        <v>356.32</v>
+        <v>362.93</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1078,13 +1098,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>338.75</v>
+        <v>353.3</v>
       </c>
       <c r="C32" t="n">
-        <v>352.95</v>
+        <v>359.02</v>
       </c>
       <c r="D32" t="n">
-        <v>359.84</v>
+        <v>362.49</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1099,13 +1119,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>381.29</v>
+        <v>357.3</v>
       </c>
       <c r="C33" t="n">
-        <v>368.65</v>
+        <v>360.62</v>
       </c>
       <c r="D33" t="n">
-        <v>370.08</v>
+        <v>363.75</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1120,12 +1140,14 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>375.6</v>
+        <v>356.8</v>
       </c>
       <c r="C34" t="n">
-        <v>357.81</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
+        <v>360.07</v>
+      </c>
+      <c r="D34" t="n">
+        <v>362.69</v>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1139,12 +1161,14 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>375.19</v>
+        <v>359.42</v>
       </c>
       <c r="C35" t="n">
-        <v>364.19</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
+        <v>360.66</v>
+      </c>
+      <c r="D35" t="n">
+        <v>362.69</v>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1157,12 +1181,14 @@
           <t>2004-11-10 22:02:36+00:00</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>359.42</v>
+      </c>
       <c r="C36" t="n">
-        <v>358.54</v>
+        <v>360.4</v>
       </c>
       <c r="D36" t="n">
-        <v>347.96</v>
+        <v>360.24</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1176,12 +1202,14 @@
           <t>2004-12-04 22:06:44+00:00</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>358.84</v>
+      </c>
       <c r="C37" t="n">
-        <v>358.74</v>
+        <v>359.66</v>
       </c>
       <c r="D37" t="n">
-        <v>361.79</v>
+        <v>360.51</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1196,13 +1224,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>404.43</v>
+        <v>375.05</v>
       </c>
       <c r="C38" t="n">
-        <v>376.74</v>
+        <v>362.52</v>
       </c>
       <c r="D38" t="n">
-        <v>384.77</v>
+        <v>364.89</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1216,12 +1244,14 @@
           <t>2005-01-21 22:06:59+00:00</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>375.05</v>
+      </c>
       <c r="C39" t="n">
-        <v>363.87</v>
+        <v>362.69</v>
       </c>
       <c r="D39" t="n">
-        <v>362.94</v>
+        <v>364.56</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1236,13 +1266,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>434.31</v>
+        <v>394.16</v>
       </c>
       <c r="C40" t="n">
-        <v>344.7</v>
+        <v>361.66</v>
       </c>
       <c r="D40" t="n">
-        <v>352.45</v>
+        <v>363.33</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1257,13 +1287,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>466.87</v>
+        <v>406.28</v>
       </c>
       <c r="C41" t="n">
-        <v>346.76</v>
+        <v>360</v>
       </c>
       <c r="D41" t="n">
-        <v>355.39</v>
+        <v>362.2</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1277,12 +1307,14 @@
           <t>2005-02-22 22:07:14+00:00</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>406.28</v>
+      </c>
       <c r="C42" t="n">
-        <v>357.6</v>
+        <v>359.76</v>
       </c>
       <c r="D42" t="n">
-        <v>358.94</v>
+        <v>361.79</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1297,13 +1329,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>426.29</v>
+        <v>413.78</v>
       </c>
       <c r="C43" t="n">
-        <v>355.66</v>
+        <v>358.46</v>
       </c>
       <c r="D43" t="n">
-        <v>362.41</v>
+        <v>360.83</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1318,13 +1350,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>455.53</v>
+        <v>419.75</v>
       </c>
       <c r="C44" t="n">
-        <v>373.65</v>
+        <v>359.84</v>
       </c>
       <c r="D44" t="n">
-        <v>374.18</v>
+        <v>362.31</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1339,13 +1371,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>362.57</v>
+        <v>417.88</v>
       </c>
       <c r="C45" t="n">
-        <v>369.61</v>
+        <v>360.91</v>
       </c>
       <c r="D45" t="n">
-        <v>374.22</v>
+        <v>363.5</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1360,13 +1392,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>371.05</v>
+        <v>417.29</v>
       </c>
       <c r="C46" t="n">
-        <v>373.53</v>
+        <v>362.46</v>
       </c>
       <c r="D46" t="n">
-        <v>374.2</v>
+        <v>366.61</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1381,13 +1413,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>331.05</v>
+        <v>406.51</v>
       </c>
       <c r="C47" t="n">
-        <v>339.79</v>
+        <v>360.19</v>
       </c>
       <c r="D47" t="n">
-        <v>343.17</v>
+        <v>364.27</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1402,11 +1434,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>316.94</v>
-      </c>
-      <c r="C48" t="inlineStr"/>
+        <v>396.56</v>
+      </c>
+      <c r="C48" t="n">
+        <v>360.19</v>
+      </c>
       <c r="D48" t="n">
-        <v>367.35</v>
+        <v>364.55</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1421,13 +1455,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>336.99</v>
+        <v>389.07</v>
       </c>
       <c r="C49" t="n">
-        <v>351.01</v>
+        <v>356.92</v>
       </c>
       <c r="D49" t="n">
-        <v>351.91</v>
+        <v>361.42</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1442,13 +1476,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>367.48</v>
+        <v>381.64</v>
       </c>
       <c r="C50" t="n">
-        <v>366.29</v>
+        <v>359.32</v>
       </c>
       <c r="D50" t="n">
-        <v>362.99</v>
+        <v>362.48</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1463,13 +1497,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>353.15</v>
+        <v>369.01</v>
       </c>
       <c r="C51" t="n">
-        <v>356.77</v>
+        <v>360.79</v>
       </c>
       <c r="D51" t="n">
-        <v>360.31</v>
+        <v>363.42</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1483,11 +1517,15 @@
           <t>2005-09-18 22:06:39+00:00</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="n">
+        <v>361.85</v>
+      </c>
       <c r="C52" t="n">
-        <v>387.05</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
+        <v>364.71</v>
+      </c>
+      <c r="D52" t="n">
+        <v>363.54</v>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1500,12 +1538,14 @@
           <t>2005-09-26 22:05:42+00:00</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="n">
+        <v>361.85</v>
+      </c>
       <c r="C53" t="n">
-        <v>362.4</v>
+        <v>364.46</v>
       </c>
       <c r="D53" t="n">
-        <v>370.56</v>
+        <v>364.32</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1519,12 +1559,14 @@
           <t>2005-11-21 22:07:07+00:00</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="n">
+        <v>346.11</v>
+      </c>
       <c r="C54" t="n">
-        <v>355.06</v>
+        <v>361.49</v>
       </c>
       <c r="D54" t="n">
-        <v>359.2</v>
+        <v>361.21</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1538,12 +1580,14 @@
           <t>2005-12-23 22:07:15+00:00</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="n">
+        <v>343.64</v>
+      </c>
       <c r="C55" t="n">
-        <v>364.59</v>
+        <v>363.31</v>
       </c>
       <c r="D55" t="n">
-        <v>358.67</v>
+        <v>361.57</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1557,12 +1601,14 @@
           <t>2006-01-08 22:07:25+00:00</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="B56" t="n">
+        <v>352.54</v>
+      </c>
       <c r="C56" t="n">
-        <v>371.09</v>
+        <v>364.28</v>
       </c>
       <c r="D56" t="n">
-        <v>375.66</v>
+        <v>362.76</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1576,12 +1622,14 @@
           <t>2006-02-09 22:07:38+00:00</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>353.15</v>
+      </c>
       <c r="C57" t="n">
-        <v>360.98</v>
+        <v>365.42</v>
       </c>
       <c r="D57" t="n">
-        <v>361.07</v>
+        <v>364.25</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1595,12 +1643,14 @@
           <t>2006-02-17 22:08:11+00:00</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="n">
+        <v>353.15</v>
+      </c>
       <c r="C58" t="n">
-        <v>367.82</v>
+        <v>365.72</v>
       </c>
       <c r="D58" t="n">
-        <v>371.82</v>
+        <v>365.33</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1618,10 +1668,10 @@
         <v>353.62</v>
       </c>
       <c r="C59" t="n">
-        <v>357.12</v>
+        <v>365.76</v>
       </c>
       <c r="D59" t="n">
-        <v>360.72</v>
+        <v>365.39</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1635,10 +1685,14 @@
           <t>2006-04-06 22:09:08+00:00</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
+      <c r="B60" t="n">
+        <v>353.62</v>
+      </c>
+      <c r="C60" t="n">
+        <v>362.78</v>
+      </c>
       <c r="D60" t="n">
-        <v>352.48</v>
+        <v>362.8</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1653,12 +1707,14 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>344.93</v>
+        <v>349.27</v>
       </c>
       <c r="C61" t="n">
-        <v>349.03</v>
-      </c>
-      <c r="D61" t="inlineStr"/>
+        <v>360.81</v>
+      </c>
+      <c r="D61" t="n">
+        <v>362.8</v>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1672,13 +1728,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>351.94</v>
+        <v>350.16</v>
       </c>
       <c r="C62" t="n">
-        <v>366.94</v>
+        <v>362.51</v>
       </c>
       <c r="D62" t="n">
-        <v>364.35</v>
+        <v>363.54</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1693,13 +1749,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>347.42</v>
+        <v>349.48</v>
       </c>
       <c r="C63" t="n">
-        <v>357.7</v>
+        <v>361.53</v>
       </c>
       <c r="D63" t="n">
-        <v>364.13</v>
+        <v>364.32</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1714,13 +1770,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>329.27</v>
+        <v>345.44</v>
       </c>
       <c r="C64" t="n">
-        <v>343.04</v>
+        <v>359.21</v>
       </c>
       <c r="D64" t="n">
-        <v>348.85</v>
+        <v>362.38</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1735,13 +1791,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>323.58</v>
+        <v>341.79</v>
       </c>
       <c r="C65" t="n">
-        <v>348.53</v>
+        <v>356.4</v>
       </c>
       <c r="D65" t="n">
-        <v>353.23</v>
+        <v>359.58</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1755,11 +1811,15 @@
           <t>2006-11-24 22:07:37+00:00</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
+      <c r="B66" t="n">
+        <v>338.05</v>
+      </c>
       <c r="C66" t="n">
-        <v>365.35</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
+        <v>356.31</v>
+      </c>
+      <c r="D66" t="n">
+        <v>357.64</v>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1772,12 +1832,14 @@
           <t>2006-12-10 22:07:44+00:00</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
+      <c r="B67" t="n">
+        <v>338.05</v>
+      </c>
       <c r="C67" t="n">
-        <v>374.18</v>
+        <v>359.29</v>
       </c>
       <c r="D67" t="n">
-        <v>377.55</v>
+        <v>361.62</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1793,10 +1855,10 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>344.8</v>
+        <v>361.44</v>
       </c>
       <c r="D68" t="n">
-        <v>353.67</v>
+        <v>365.61</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1814,10 +1876,10 @@
         <v>356.32</v>
       </c>
       <c r="C69" t="n">
-        <v>358.08</v>
+        <v>360.6</v>
       </c>
       <c r="D69" t="n">
-        <v>363.48</v>
+        <v>364.9</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1832,13 +1894,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>388.33</v>
+        <v>372.32</v>
       </c>
       <c r="C70" t="n">
-        <v>372.04</v>
+        <v>362.89</v>
       </c>
       <c r="D70" t="n">
-        <v>374.5</v>
+        <v>367.3</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1852,12 +1914,14 @@
           <t>2007-07-22 22:07:45+00:00</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
+      <c r="B71" t="n">
+        <v>372.32</v>
+      </c>
       <c r="C71" t="n">
-        <v>358.75</v>
+        <v>358.42</v>
       </c>
       <c r="D71" t="n">
-        <v>364.61</v>
+        <v>364.07</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1872,13 +1936,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>350.41</v>
+        <v>365.02</v>
       </c>
       <c r="C72" t="n">
-        <v>360.61</v>
+        <v>358.86</v>
       </c>
       <c r="D72" t="n">
-        <v>370.22</v>
+        <v>365.3</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1892,11 +1956,15 @@
           <t>2007-09-24 22:07:22+00:00</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
+      <c r="B73" t="n">
+        <v>369.37</v>
+      </c>
       <c r="C73" t="n">
-        <v>355.42</v>
-      </c>
-      <c r="D73" t="inlineStr"/>
+        <v>361.71</v>
+      </c>
+      <c r="D73" t="n">
+        <v>369.78</v>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1909,12 +1977,14 @@
           <t>2007-10-02 22:10:31+00:00</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
+      <c r="B74" t="n">
+        <v>369.37</v>
+      </c>
       <c r="C74" t="n">
-        <v>352.79</v>
+        <v>359.92</v>
       </c>
       <c r="D74" t="n">
-        <v>358.31</v>
+        <v>366.91</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -1928,12 +1998,14 @@
           <t>2007-10-10 22:07:19+00:00</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
+      <c r="B75" t="n">
+        <v>369.37</v>
+      </c>
       <c r="C75" t="n">
-        <v>335.42</v>
+        <v>355.84</v>
       </c>
       <c r="D75" t="n">
-        <v>363.99</v>
+        <v>366.33</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -1948,13 +2020,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>353.69</v>
+        <v>352.05</v>
       </c>
       <c r="C76" t="n">
-        <v>341.96</v>
+        <v>350.83</v>
       </c>
       <c r="D76" t="n">
-        <v>348.76</v>
+        <v>361.18</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -1968,12 +2040,14 @@
           <t>2007-12-29 22:07:56+00:00</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
+      <c r="B77" t="n">
+        <v>352.05</v>
+      </c>
       <c r="C77" t="n">
-        <v>361.86</v>
+        <v>352.4</v>
       </c>
       <c r="D77" t="n">
-        <v>367.75</v>
+        <v>362.27</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -1988,13 +2062,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>323.55</v>
+        <v>338.62</v>
       </c>
       <c r="C78" t="n">
-        <v>343.05</v>
+        <v>348.42</v>
       </c>
       <c r="D78" t="n">
-        <v>349.93</v>
+        <v>357.75</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2009,13 +2083,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>305.38</v>
+        <v>314.47</v>
       </c>
       <c r="C79" t="n">
-        <v>340.25</v>
+        <v>341.65</v>
       </c>
       <c r="D79" t="n">
-        <v>350.56</v>
+        <v>350.25</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2030,13 +2104,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>324.03</v>
+        <v>317.65</v>
       </c>
       <c r="C80" t="n">
-        <v>369.63</v>
+        <v>350.98</v>
       </c>
       <c r="D80" t="n">
-        <v>371.05</v>
+        <v>357.18</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2051,13 +2125,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>324.8</v>
+        <v>318.07</v>
       </c>
       <c r="C81" t="n">
-        <v>360.71</v>
+        <v>356.86</v>
       </c>
       <c r="D81" t="n">
-        <v>367.41</v>
+        <v>363.01</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2071,12 +2145,14 @@
           <t>2008-10-12 22:06:13+00:00</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
+      <c r="B82" t="n">
+        <v>318.07</v>
+      </c>
       <c r="C82" t="n">
-        <v>354.05</v>
+        <v>356.16</v>
       </c>
       <c r="D82" t="n">
-        <v>355.99</v>
+        <v>361.25</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2090,12 +2166,14 @@
           <t>2008-11-13 22:06:43+00:00</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
+      <c r="B83" t="n">
+        <v>318.07</v>
+      </c>
       <c r="C83" t="n">
-        <v>343.08</v>
+        <v>353.54</v>
       </c>
       <c r="D83" t="n">
-        <v>351.33</v>
+        <v>359.27</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2109,12 +2187,14 @@
           <t>2008-11-21 22:01:05+00:00</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
+      <c r="B84" t="n">
+        <v>318.07</v>
+      </c>
       <c r="C84" t="n">
-        <v>354.44</v>
+        <v>353.69</v>
       </c>
       <c r="D84" t="n">
-        <v>364.11</v>
+        <v>360.07</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2129,12 +2209,14 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>344.8</v>
+        <v>324.75</v>
       </c>
       <c r="C85" t="n">
-        <v>356.45</v>
-      </c>
-      <c r="D85" t="inlineStr"/>
+        <v>354.09</v>
+      </c>
+      <c r="D85" t="n">
+        <v>360.07</v>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2148,13 +2230,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>340.45</v>
+        <v>327.89</v>
       </c>
       <c r="C86" t="n">
-        <v>329.78</v>
+        <v>351.05</v>
       </c>
       <c r="D86" t="n">
-        <v>336.83</v>
+        <v>356.75</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2168,10 +2250,14 @@
           <t>2008-12-31 22:07:13+00:00</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
+      <c r="B87" t="n">
+        <v>327.89</v>
+      </c>
+      <c r="C87" t="n">
+        <v>351.05</v>
+      </c>
       <c r="D87" t="n">
-        <v>379.73</v>
+        <v>359.63</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2185,12 +2271,14 @@
           <t>2009-02-17 22:07:31+00:00</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
+      <c r="B88" t="n">
+        <v>333.52</v>
+      </c>
       <c r="C88" t="n">
-        <v>365.14</v>
+        <v>354.16</v>
       </c>
       <c r="D88" t="n">
-        <v>363.89</v>
+        <v>361.29</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2205,13 +2293,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>356.75</v>
+        <v>341.7</v>
       </c>
       <c r="C89" t="n">
-        <v>360.95</v>
+        <v>353.07</v>
       </c>
       <c r="D89" t="n">
-        <v>366.87</v>
+        <v>360.77</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2226,13 +2314,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>368.74</v>
+        <v>355.31</v>
       </c>
       <c r="C90" t="n">
-        <v>369.02</v>
+        <v>356.22</v>
       </c>
       <c r="D90" t="n">
-        <v>370.36</v>
+        <v>363.54</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2246,12 +2334,14 @@
           <t>2009-09-13 22:07:45+00:00</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
+      <c r="B91" t="n">
+        <v>362.75</v>
+      </c>
       <c r="C91" t="n">
-        <v>330.4</v>
+        <v>353.46</v>
       </c>
       <c r="D91" t="n">
-        <v>340.05</v>
+        <v>359.09</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2265,12 +2355,14 @@
           <t>2009-10-15 22:07:44+00:00</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
+      <c r="B92" t="n">
+        <v>368.74</v>
+      </c>
       <c r="C92" t="n">
-        <v>353.67</v>
+        <v>351.03</v>
       </c>
       <c r="D92" t="n">
-        <v>351.91</v>
+        <v>354.11</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2286,10 +2378,10 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>363.18</v>
+        <v>349.08</v>
       </c>
       <c r="D93" t="n">
-        <v>363.41</v>
+        <v>351.79</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2307,10 +2399,10 @@
         <v>350.4</v>
       </c>
       <c r="C94" t="n">
-        <v>338.61</v>
+        <v>346.46</v>
       </c>
       <c r="D94" t="n">
-        <v>339.95</v>
+        <v>348.83</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2324,12 +2416,14 @@
           <t>2010-02-12 22:08:30+00:00</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
+      <c r="B95" t="n">
+        <v>350.4</v>
+      </c>
       <c r="C95" t="n">
-        <v>359.73</v>
+        <v>349.12</v>
       </c>
       <c r="D95" t="n">
-        <v>359.69</v>
+        <v>351</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2344,13 +2438,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>367.21</v>
+        <v>358.8</v>
       </c>
       <c r="C96" t="n">
-        <v>362.66</v>
+        <v>351.38</v>
       </c>
       <c r="D96" t="n">
-        <v>366.43</v>
+        <v>353.57</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2365,13 +2459,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>351.74</v>
+        <v>356.45</v>
       </c>
       <c r="C97" t="n">
-        <v>353.69</v>
+        <v>351.71</v>
       </c>
       <c r="D97" t="n">
-        <v>358.98</v>
+        <v>354.35</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2386,10 +2480,14 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>350.24</v>
-      </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
+        <v>354.9</v>
+      </c>
+      <c r="C98" t="n">
+        <v>355.26</v>
+      </c>
+      <c r="D98" t="n">
+        <v>356.73</v>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2403,13 +2501,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>358.97</v>
+        <v>355.71</v>
       </c>
       <c r="C99" t="n">
-        <v>355.89</v>
+        <v>355.63</v>
       </c>
       <c r="D99" t="n">
-        <v>361.6</v>
+        <v>358.34</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2424,13 +2522,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>339.33</v>
+        <v>352.98</v>
       </c>
       <c r="C100" t="n">
-        <v>331.67</v>
+        <v>352.2</v>
       </c>
       <c r="D100" t="n">
-        <v>336.7</v>
+        <v>355.25</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2445,10 +2543,14 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>339.01</v>
-      </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
+        <v>347.86</v>
+      </c>
+      <c r="C101" t="n">
+        <v>347.08</v>
+      </c>
+      <c r="D101" t="n">
+        <v>352.43</v>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2462,13 +2564,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>363.84</v>
+        <v>350.28</v>
       </c>
       <c r="C102" t="n">
-        <v>376.45</v>
+        <v>354.67</v>
       </c>
       <c r="D102" t="n">
-        <v>384.2</v>
+        <v>360.83</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2482,12 +2584,14 @@
           <t>2011-01-14 22:07:31+00:00</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
+      <c r="B103" t="n">
+        <v>351.43</v>
+      </c>
       <c r="C103" t="n">
-        <v>373.88</v>
+        <v>375.16</v>
       </c>
       <c r="D103" t="n">
-        <v>368.94</v>
+        <v>376.57</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2502,13 +2606,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>346.19</v>
+        <v>349.68</v>
       </c>
       <c r="C104" t="n">
-        <v>346.13</v>
+        <v>365.49</v>
       </c>
       <c r="D104" t="n">
-        <v>356.94</v>
+        <v>370.03</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2523,13 +2627,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>354.75</v>
+        <v>350.47</v>
       </c>
       <c r="C105" t="n">
-        <v>361.8</v>
+        <v>360.6</v>
       </c>
       <c r="D105" t="n">
-        <v>365.42</v>
+        <v>363.77</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2544,13 +2648,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>337.68</v>
+        <v>346.21</v>
       </c>
       <c r="C106" t="n">
-        <v>353.51</v>
+        <v>358.83</v>
       </c>
       <c r="D106" t="n">
-        <v>357.59</v>
+        <v>362.22</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2565,13 +2669,13 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>353.68</v>
+        <v>348.07</v>
       </c>
       <c r="C107" t="n">
-        <v>348.96</v>
+        <v>352.6</v>
       </c>
       <c r="D107" t="n">
-        <v>362.98</v>
+        <v>360.73</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2586,13 +2690,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>344.51</v>
+        <v>347.36</v>
       </c>
       <c r="C108" t="n">
-        <v>324.87</v>
+        <v>347.05</v>
       </c>
       <c r="D108" t="n">
-        <v>338.88</v>
+        <v>356.36</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2607,13 +2711,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>343.71</v>
+        <v>346.75</v>
       </c>
       <c r="C109" t="n">
-        <v>336.33</v>
+        <v>345.27</v>
       </c>
       <c r="D109" t="n">
-        <v>337.99</v>
+        <v>353.3</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2628,13 +2732,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>330.64</v>
+        <v>344.16</v>
       </c>
       <c r="C110" t="n">
-        <v>345.43</v>
+        <v>345.15</v>
       </c>
       <c r="D110" t="n">
-        <v>345.02</v>
+        <v>351.31</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2648,12 +2752,14 @@
           <t>2011-10-21 22:10:56+00:00</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr"/>
+      <c r="B111" t="n">
+        <v>342.04</v>
+      </c>
       <c r="C111" t="n">
-        <v>351.93</v>
+        <v>343.5</v>
       </c>
       <c r="D111" t="n">
-        <v>356.53</v>
+        <v>349.83</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2668,13 +2774,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>353.35</v>
+        <v>343.05</v>
       </c>
       <c r="C112" t="n">
-        <v>357.53</v>
+        <v>343.22</v>
       </c>
       <c r="D112" t="n">
-        <v>365.74</v>
+        <v>348.83</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2689,13 +2795,13 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>355.31</v>
+        <v>345.75</v>
       </c>
       <c r="C113" t="n">
-        <v>360.83</v>
+        <v>350.41</v>
       </c>
       <c r="D113" t="n">
-        <v>362.33</v>
+        <v>353.52</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2710,13 +2816,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>357.03</v>
+        <v>349.08</v>
       </c>
       <c r="C114" t="n">
-        <v>357.13</v>
+        <v>354.57</v>
       </c>
       <c r="D114" t="n">
-        <v>358.17</v>
+        <v>357.56</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2731,13 +2837,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>308.27</v>
+        <v>343.49</v>
       </c>
       <c r="C115" t="n">
-        <v>341.58</v>
+        <v>354.27</v>
       </c>
       <c r="D115" t="n">
-        <v>345.59</v>
+        <v>357.96</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2752,13 +2858,13 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>312.76</v>
+        <v>337.34</v>
       </c>
       <c r="C116" t="n">
-        <v>361.83</v>
+        <v>355.78</v>
       </c>
       <c r="D116" t="n">
-        <v>360.43</v>
+        <v>358.45</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2773,13 +2879,13 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>303.75</v>
+        <v>331.75</v>
       </c>
       <c r="C117" t="n">
-        <v>341.65</v>
+        <v>353.42</v>
       </c>
       <c r="D117" t="n">
-        <v>341.29</v>
+        <v>355.59</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2793,12 +2899,14 @@
           <t>2012-10-23 22:13:24+00:00</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr"/>
+      <c r="B118" t="n">
+        <v>308.26</v>
+      </c>
       <c r="C118" t="n">
-        <v>347.49</v>
+        <v>348.14</v>
       </c>
       <c r="D118" t="n">
-        <v>356.3</v>
+        <v>350.9</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2814,9 +2922,11 @@
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>355.07</v>
-      </c>
-      <c r="D119" t="inlineStr"/>
+        <v>351.28</v>
+      </c>
+      <c r="D119" t="n">
+        <v>356.3</v>
+      </c>
       <c r="E119" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2833,10 +2943,10 @@
         <v>358.31</v>
       </c>
       <c r="C120" t="n">
-        <v>362.35</v>
+        <v>354.97</v>
       </c>
       <c r="D120" t="n">
-        <v>364.96</v>
+        <v>360.63</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -2851,13 +2961,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>344.67</v>
+        <v>351.49</v>
       </c>
       <c r="C121" t="n">
-        <v>335.31</v>
+        <v>350.06</v>
       </c>
       <c r="D121" t="n">
-        <v>331.54</v>
+        <v>350.93</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2872,13 +2982,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>373.99</v>
+        <v>358.99</v>
       </c>
       <c r="C122" t="n">
-        <v>371.34</v>
+        <v>354.31</v>
       </c>
       <c r="D122" t="n">
-        <v>371.17</v>
+        <v>355.99</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2892,12 +3002,14 @@
           <t>2013-05-03 22:13:30+00:00</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr"/>
+      <c r="B123" t="n">
+        <v>358.99</v>
+      </c>
       <c r="C123" t="n">
-        <v>339.88</v>
+        <v>352.79</v>
       </c>
       <c r="D123" t="n">
-        <v>346.59</v>
+        <v>353.56</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -2912,13 +3024,13 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>357.21</v>
+        <v>358.55</v>
       </c>
       <c r="C124" t="n">
-        <v>359.08</v>
+        <v>353.84</v>
       </c>
       <c r="D124" t="n">
-        <v>361.95</v>
+        <v>355.24</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -2933,13 +3045,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>327.95</v>
+        <v>352.43</v>
       </c>
       <c r="C125" t="n">
-        <v>348.72</v>
+        <v>353.11</v>
       </c>
       <c r="D125" t="n">
-        <v>351.93</v>
+        <v>354.69</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -2954,13 +3066,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>327.17</v>
+        <v>348.22</v>
       </c>
       <c r="C126" t="n">
-        <v>349.95</v>
+        <v>352.71</v>
       </c>
       <c r="D126" t="n">
-        <v>351.86</v>
+        <v>354.29</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -2975,13 +3087,13 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>303.88</v>
+        <v>341.88</v>
       </c>
       <c r="C127" t="n">
-        <v>340.66</v>
+        <v>350.91</v>
       </c>
       <c r="D127" t="n">
-        <v>346.85</v>
+        <v>353.36</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -2996,13 +3108,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>353.72</v>
+        <v>343.36</v>
       </c>
       <c r="C128" t="n">
-        <v>358.19</v>
+        <v>351.72</v>
       </c>
       <c r="D128" t="n">
-        <v>367.19</v>
+        <v>354.89</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3017,13 +3129,13 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>336.34</v>
+        <v>342.58</v>
       </c>
       <c r="C129" t="n">
-        <v>358.8</v>
+        <v>352.43</v>
       </c>
       <c r="D129" t="n">
-        <v>358.92</v>
+        <v>355.3</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3038,13 +3150,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>351.59</v>
+        <v>341.84</v>
       </c>
       <c r="C130" t="n">
-        <v>366.23</v>
+        <v>352.82</v>
       </c>
       <c r="D130" t="n">
-        <v>363.9</v>
+        <v>355.19</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3059,11 +3171,13 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>363.08</v>
-      </c>
-      <c r="C131" t="inlineStr"/>
+        <v>343.88</v>
+      </c>
+      <c r="C131" t="n">
+        <v>354.76</v>
+      </c>
       <c r="D131" t="n">
-        <v>363.69</v>
+        <v>358.41</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3078,13 +3192,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>420.68</v>
+        <v>351.56</v>
       </c>
       <c r="C132" t="n">
-        <v>365.11</v>
+        <v>355.8</v>
       </c>
       <c r="D132" t="n">
-        <v>361.16</v>
+        <v>358.66</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3099,13 +3213,13 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>467.25</v>
+        <v>400.65</v>
       </c>
       <c r="C133" t="n">
-        <v>375.16</v>
+        <v>368.83</v>
       </c>
       <c r="D133" t="n">
-        <v>370.18</v>
+        <v>364.73</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3120,13 +3234,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>479.86</v>
+        <v>432.72</v>
       </c>
       <c r="C134" t="n">
-        <v>360.76</v>
+        <v>367.01</v>
       </c>
       <c r="D134" t="n">
-        <v>362.45</v>
+        <v>364.37</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3141,13 +3255,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>478.71</v>
+        <v>461.62</v>
       </c>
       <c r="C135" t="n">
-        <v>361.14</v>
+        <v>365.54</v>
       </c>
       <c r="D135" t="n">
-        <v>361.52</v>
+        <v>363.83</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3162,13 +3276,13 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>421.09</v>
+        <v>461.73</v>
       </c>
       <c r="C136" t="n">
-        <v>365.9</v>
+        <v>365.74</v>
       </c>
       <c r="D136" t="n">
-        <v>356.2</v>
+        <v>362.59</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3183,13 +3297,13 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>323.52</v>
+        <v>434.09</v>
       </c>
       <c r="C137" t="n">
-        <v>349.96</v>
+        <v>362.58</v>
       </c>
       <c r="D137" t="n">
-        <v>348.96</v>
+        <v>359.86</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3204,13 +3318,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>339.64</v>
+        <v>418.35</v>
       </c>
       <c r="C138" t="n">
-        <v>351.88</v>
+        <v>360.8</v>
       </c>
       <c r="D138" t="n">
-        <v>352.15</v>
+        <v>358.58</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3225,13 +3339,13 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>351.16</v>
+        <v>408.75</v>
       </c>
       <c r="C139" t="n">
-        <v>350.22</v>
+        <v>359.29</v>
       </c>
       <c r="D139" t="n">
-        <v>353.59</v>
+        <v>357.86</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3246,13 +3360,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>350.47</v>
+        <v>401.46</v>
       </c>
       <c r="C140" t="n">
-        <v>355.51</v>
+        <v>358.82</v>
       </c>
       <c r="D140" t="n">
-        <v>356.78</v>
+        <v>357.73</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3267,13 +3381,13 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>330.28</v>
+        <v>384.34</v>
       </c>
       <c r="C141" t="n">
-        <v>331.31</v>
+        <v>353.33</v>
       </c>
       <c r="D141" t="n">
-        <v>350.74</v>
+        <v>355.3</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3287,12 +3401,14 @@
           <t>2014-09-19 22:17:42+00:00</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr"/>
+      <c r="B142" t="n">
+        <v>352.69</v>
+      </c>
       <c r="C142" t="n">
-        <v>337.25</v>
+        <v>348.86</v>
       </c>
       <c r="D142" t="n">
-        <v>340.43</v>
+        <v>351.26</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3310,10 +3426,10 @@
         <v>343.18</v>
       </c>
       <c r="C143" t="n">
-        <v>337.81</v>
+        <v>337.53</v>
       </c>
       <c r="D143" t="n">
-        <v>333.72</v>
+        <v>337.08</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3328,13 +3444,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>336.07</v>
+        <v>339.62</v>
       </c>
       <c r="C144" t="n">
-        <v>342.38</v>
+        <v>340.1</v>
       </c>
       <c r="D144" t="n">
-        <v>346.43</v>
+        <v>340.08</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3349,13 +3465,13 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>351.34</v>
+        <v>343.53</v>
       </c>
       <c r="C145" t="n">
-        <v>346.72</v>
+        <v>342.3</v>
       </c>
       <c r="D145" t="n">
-        <v>354.63</v>
+        <v>344.93</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3370,13 +3486,13 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>352.67</v>
+        <v>345.81</v>
       </c>
       <c r="C146" t="n">
-        <v>356.65</v>
+        <v>345.89</v>
       </c>
       <c r="D146" t="n">
-        <v>359.39</v>
+        <v>348.54</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3391,13 +3507,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>347.98</v>
+        <v>347.01</v>
       </c>
       <c r="C147" t="n">
-        <v>345.79</v>
+        <v>347.88</v>
       </c>
       <c r="D147" t="n">
-        <v>349.25</v>
+        <v>352.43</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3412,13 +3528,13 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>468.88</v>
+        <v>371.39</v>
       </c>
       <c r="C148" t="n">
-        <v>352.39</v>
+        <v>348.79</v>
       </c>
       <c r="D148" t="n">
-        <v>355.23</v>
+        <v>352.99</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3433,13 +3549,13 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>459.21</v>
+        <v>386.03</v>
       </c>
       <c r="C149" t="n">
-        <v>347.7</v>
+        <v>348.61</v>
       </c>
       <c r="D149" t="n">
-        <v>349.46</v>
+        <v>352.4</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3454,13 +3570,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>461.3</v>
+        <v>406.9</v>
       </c>
       <c r="C150" t="n">
-        <v>361.66</v>
+        <v>351.82</v>
       </c>
       <c r="D150" t="n">
-        <v>365.45</v>
+        <v>355.57</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3475,13 +3591,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>479.14</v>
+        <v>417.22</v>
       </c>
       <c r="C151" t="n">
-        <v>359.14</v>
+        <v>352.86</v>
       </c>
       <c r="D151" t="n">
-        <v>366.26</v>
+        <v>357.1</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3496,13 +3612,13 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>481.44</v>
+        <v>435.8</v>
       </c>
       <c r="C152" t="n">
-        <v>347.62</v>
+        <v>352.99</v>
       </c>
       <c r="D152" t="n">
-        <v>346.58</v>
+        <v>355.95</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3516,12 +3632,14 @@
           <t>2016-04-17 22:17:09+00:00</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr"/>
+      <c r="B153" t="n">
+        <v>470.27</v>
+      </c>
       <c r="C153" t="n">
-        <v>358.57</v>
+        <v>354.94</v>
       </c>
       <c r="D153" t="n">
-        <v>360.9</v>
+        <v>357.73</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3539,10 +3657,10 @@
         <v>469.97</v>
       </c>
       <c r="C154" t="n">
-        <v>355.21</v>
+        <v>356.89</v>
       </c>
       <c r="D154" t="n">
-        <v>358.38</v>
+        <v>359.64</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3557,13 +3675,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>473.13</v>
+        <v>471.55</v>
       </c>
       <c r="C155" t="n">
-        <v>363.47</v>
+        <v>359.08</v>
       </c>
       <c r="D155" t="n">
-        <v>358.71</v>
+        <v>359.33</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3578,13 +3696,13 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>465.67</v>
+        <v>469.59</v>
       </c>
       <c r="C156" t="n">
-        <v>356.39</v>
+        <v>358.36</v>
       </c>
       <c r="D156" t="n">
-        <v>361.28</v>
+        <v>359.46</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -3599,13 +3717,13 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>480.35</v>
+        <v>472.28</v>
       </c>
       <c r="C157" t="n">
-        <v>371.37</v>
+        <v>361.61</v>
       </c>
       <c r="D157" t="n">
-        <v>373.74</v>
+        <v>363.03</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -3620,13 +3738,13 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>381.08</v>
+        <v>454.04</v>
       </c>
       <c r="C158" t="n">
-        <v>373.9</v>
+        <v>364.07</v>
       </c>
       <c r="D158" t="n">
-        <v>370.71</v>
+        <v>364.56</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -3641,13 +3759,13 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>350.2</v>
+        <v>403.88</v>
       </c>
       <c r="C159" t="n">
-        <v>367.23</v>
+        <v>370.83</v>
       </c>
       <c r="D159" t="n">
-        <v>372.36</v>
+        <v>372.27</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3662,12 +3780,14 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>356.51</v>
+        <v>392.04</v>
       </c>
       <c r="C160" t="n">
-        <v>363.87</v>
-      </c>
-      <c r="D160" t="inlineStr"/>
+        <v>369.09</v>
+      </c>
+      <c r="D160" t="n">
+        <v>372.27</v>
+      </c>
       <c r="E160" t="inlineStr">
         <is>
           <t>L8</t>
@@ -3681,13 +3801,13 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>357.69</v>
+        <v>361.37</v>
       </c>
       <c r="C161" t="n">
-        <v>364.13</v>
+        <v>367.28</v>
       </c>
       <c r="D161" t="n">
-        <v>371.17</v>
+        <v>371.41</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -3701,12 +3821,14 @@
           <t>2017-10-29 22:17:53+00:00</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr"/>
+      <c r="B162" t="n">
+        <v>354.8</v>
+      </c>
       <c r="C162" t="n">
-        <v>357.43</v>
+        <v>363.17</v>
       </c>
       <c r="D162" t="n">
-        <v>353.51</v>
+        <v>365.68</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -3720,12 +3842,14 @@
           <t>2017-11-30 22:17:44+00:00</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr"/>
+      <c r="B163" t="n">
+        <v>354.8</v>
+      </c>
       <c r="C163" t="n">
-        <v>350.31</v>
+        <v>360.59</v>
       </c>
       <c r="D163" t="n">
-        <v>352.16</v>
+        <v>362.3</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -3739,12 +3863,14 @@
           <t>2018-01-01 22:17:44+00:00</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr"/>
+      <c r="B164" t="n">
+        <v>357.1</v>
+      </c>
       <c r="C164" t="n">
-        <v>359.65</v>
+        <v>359.08</v>
       </c>
       <c r="D164" t="n">
-        <v>363.62</v>
+        <v>360.12</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -3762,10 +3888,10 @@
         <v>344.72</v>
       </c>
       <c r="C165" t="n">
-        <v>363.91</v>
+        <v>357.82</v>
       </c>
       <c r="D165" t="n">
-        <v>366.99</v>
+        <v>359.07</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -3780,13 +3906,13 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>344.44</v>
+        <v>344.58</v>
       </c>
       <c r="C166" t="n">
-        <v>364.35</v>
+        <v>359.56</v>
       </c>
       <c r="D166" t="n">
-        <v>370.58</v>
+        <v>363.34</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -3801,13 +3927,13 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>340.47</v>
+        <v>343.21</v>
       </c>
       <c r="C167" t="n">
-        <v>364.58</v>
+        <v>363.12</v>
       </c>
       <c r="D167" t="n">
-        <v>368.83</v>
+        <v>367.5</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -3822,13 +3948,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>347.61</v>
+        <v>344.31</v>
       </c>
       <c r="C168" t="n">
-        <v>362.2</v>
+        <v>363.76</v>
       </c>
       <c r="D168" t="n">
-        <v>363.15</v>
+        <v>367.39</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -3843,13 +3969,13 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>468.59</v>
+        <v>385.56</v>
       </c>
       <c r="C169" t="n">
-        <v>362.09</v>
+        <v>362.96</v>
       </c>
       <c r="D169" t="n">
-        <v>369.73</v>
+        <v>367.24</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -3864,13 +3990,13 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>466.29</v>
+        <v>405.74</v>
       </c>
       <c r="C170" t="n">
-        <v>362.32</v>
+        <v>362.8</v>
       </c>
       <c r="D170" t="n">
-        <v>369.08</v>
+        <v>367.7</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -3885,13 +4011,13 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>467.78</v>
+        <v>437.57</v>
       </c>
       <c r="C171" t="n">
         <v>362.2</v>
       </c>
       <c r="D171" t="n">
-        <v>370.76</v>
+        <v>368.18</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -3906,13 +4032,13 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>469.02</v>
+        <v>467.92</v>
       </c>
       <c r="C172" t="n">
-        <v>372.97</v>
+        <v>364.89</v>
       </c>
       <c r="D172" t="n">
-        <v>370.55</v>
+        <v>370.03</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -3926,12 +4052,14 @@
           <t>2019-03-25 22:17:09+00:00</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr"/>
+      <c r="B173" t="n">
+        <v>467.92</v>
+      </c>
       <c r="C173" t="n">
-        <v>375.18</v>
+        <v>366.95</v>
       </c>
       <c r="D173" t="n">
-        <v>372.05</v>
+        <v>370.43</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -3945,12 +4073,14 @@
           <t>2019-04-26 22:16:59+00:00</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr"/>
+      <c r="B174" t="n">
+        <v>467.92</v>
+      </c>
       <c r="C174" t="n">
-        <v>371.43</v>
+        <v>367.7</v>
       </c>
       <c r="D174" t="n">
-        <v>374.86</v>
+        <v>371.17</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -3964,12 +4094,14 @@
           <t>2019-05-28 22:17:17+00:00</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr"/>
+      <c r="B175" t="n">
+        <v>467.7</v>
+      </c>
       <c r="C175" t="n">
-        <v>365.01</v>
+        <v>368.19</v>
       </c>
       <c r="D175" t="n">
-        <v>371.52</v>
+        <v>371.47</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -3987,10 +4119,10 @@
         <v>483.4</v>
       </c>
       <c r="C176" t="n">
-        <v>366.46</v>
+        <v>365.74</v>
       </c>
       <c r="D176" t="n">
-        <v>367.81</v>
+        <v>369.66</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -4005,13 +4137,13 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>406.86</v>
+        <v>445.13</v>
       </c>
       <c r="C177" t="n">
-        <v>363.18</v>
+        <v>364.82</v>
       </c>
       <c r="D177" t="n">
-        <v>371.46</v>
+        <v>369.63</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -4026,13 +4158,13 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>443.34</v>
+        <v>444.53</v>
       </c>
       <c r="C178" t="n">
-        <v>360.12</v>
+        <v>363.25</v>
       </c>
       <c r="D178" t="n">
-        <v>358.04</v>
+        <v>365.77</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -4047,13 +4179,13 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>454.85</v>
+        <v>447.11</v>
       </c>
       <c r="C179" t="n">
-        <v>368.99</v>
+        <v>364.69</v>
       </c>
       <c r="D179" t="n">
-        <v>375.55</v>
+        <v>368.22</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -4068,13 +4200,13 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>396.51</v>
+        <v>436.99</v>
       </c>
       <c r="C180" t="n">
-        <v>378.16</v>
+        <v>367.38</v>
       </c>
       <c r="D180" t="n">
-        <v>380.38</v>
+        <v>370.65</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -4089,13 +4221,13 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>387.11</v>
+        <v>428.68</v>
       </c>
       <c r="C181" t="n">
-        <v>362.93</v>
+        <v>366.64</v>
       </c>
       <c r="D181" t="n">
-        <v>372.79</v>
+        <v>371.01</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -4110,13 +4242,13 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>397.04</v>
+        <v>424.16</v>
       </c>
       <c r="C182" t="n">
-        <v>374.54</v>
+        <v>367.77</v>
       </c>
       <c r="D182" t="n">
-        <v>381.49</v>
+        <v>372.5</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -4131,13 +4263,13 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>343.23</v>
+        <v>395.75</v>
       </c>
       <c r="C183" t="n">
-        <v>364.77</v>
+        <v>369.88</v>
       </c>
       <c r="D183" t="n">
-        <v>372.89</v>
+        <v>376.62</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -4152,13 +4284,13 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>368.21</v>
+        <v>373.9</v>
       </c>
       <c r="C184" t="n">
-        <v>364.24</v>
+        <v>366.62</v>
       </c>
       <c r="D184" t="n">
-        <v>371.09</v>
+        <v>374.56</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -4173,13 +4305,13 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>361.69</v>
+        <v>367.54</v>
       </c>
       <c r="C185" t="n">
-        <v>365.65</v>
+        <v>367.3</v>
       </c>
       <c r="D185" t="n">
-        <v>371.98</v>
+        <v>374.36</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -4193,12 +4325,14 @@
           <t>2021-01-25 22:17:44+00:00</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr"/>
+      <c r="B186" t="n">
+        <v>364.95</v>
+      </c>
       <c r="C186" t="n">
-        <v>368</v>
+        <v>365.96</v>
       </c>
       <c r="D186" t="n">
-        <v>370.57</v>
+        <v>371.21</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -4216,10 +4350,10 @@
         <v>392.61</v>
       </c>
       <c r="C187" t="n">
-        <v>378.97</v>
+        <v>373.49</v>
       </c>
       <c r="D187" t="n">
-        <v>382.35</v>
+        <v>376.46</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -4233,12 +4367,14 @@
           <t>2021-07-04 22:17:29+00:00</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr"/>
+      <c r="B188" t="n">
+        <v>392.61</v>
+      </c>
       <c r="C188" t="n">
-        <v>347.11</v>
+        <v>364.69</v>
       </c>
       <c r="D188" t="n">
-        <v>350.4</v>
+        <v>367.77</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -4252,12 +4388,14 @@
           <t>2021-08-21 22:17:46+00:00</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr"/>
+      <c r="B189" t="n">
+        <v>392.61</v>
+      </c>
       <c r="C189" t="n">
-        <v>343.13</v>
+        <v>356.4</v>
       </c>
       <c r="D189" t="n">
-        <v>346.95</v>
+        <v>359.9</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -4273,10 +4411,10 @@
       </c>
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="n">
-        <v>351.68</v>
+        <v>347.31</v>
       </c>
       <c r="D190" t="n">
-        <v>357.95</v>
+        <v>351.77</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -4292,10 +4430,10 @@
       </c>
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="n">
-        <v>359.59</v>
+        <v>350.38</v>
       </c>
       <c r="D191" t="n">
-        <v>361.65</v>
+        <v>354.24</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -4311,10 +4449,10 @@
       </c>
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="n">
-        <v>364.29</v>
+        <v>353.16</v>
       </c>
       <c r="D192" t="n">
-        <v>366.35</v>
+        <v>356.66</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -4332,10 +4470,10 @@
         <v>363.32</v>
       </c>
       <c r="C193" t="n">
-        <v>354.35</v>
+        <v>354.61</v>
       </c>
       <c r="D193" t="n">
-        <v>350.35</v>
+        <v>356.65</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -4350,13 +4488,13 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>357.51</v>
+        <v>360.41</v>
       </c>
       <c r="C194" t="n">
-        <v>345.37</v>
+        <v>353.07</v>
       </c>
       <c r="D194" t="n">
-        <v>344.69</v>
+        <v>354.66</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -4371,12 +4509,14 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>367.06</v>
+        <v>362.63</v>
       </c>
       <c r="C195" t="n">
-        <v>389.96</v>
-      </c>
-      <c r="D195" t="inlineStr"/>
+        <v>360.87</v>
+      </c>
+      <c r="D195" t="n">
+        <v>356.2</v>
+      </c>
       <c r="E195" t="inlineStr">
         <is>
           <t>L8</t>
@@ -4390,13 +4530,13 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>364.45</v>
+        <v>363.08</v>
       </c>
       <c r="C196" t="n">
-        <v>351.46</v>
+        <v>359.53</v>
       </c>
       <c r="D196" t="n">
-        <v>353.09</v>
+        <v>355.68</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -4411,13 +4551,13 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>350.98</v>
+        <v>360.66</v>
       </c>
       <c r="C197" t="n">
-        <v>362.99</v>
+        <v>361.14</v>
       </c>
       <c r="D197" t="n">
-        <v>361.23</v>
+        <v>356.23</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -4432,13 +4572,13 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>357.03</v>
+        <v>360.06</v>
       </c>
       <c r="C198" t="n">
-        <v>360.43</v>
+        <v>361.26</v>
       </c>
       <c r="D198" t="n">
-        <v>357.9</v>
+        <v>355.6</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -4453,13 +4593,13 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>338.91</v>
+        <v>357.04</v>
       </c>
       <c r="C199" t="n">
-        <v>353.51</v>
+        <v>359.72</v>
       </c>
       <c r="D199" t="n">
-        <v>356.83</v>
+        <v>354.02</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4474,13 +4614,13 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>345.15</v>
+        <v>354.44</v>
       </c>
       <c r="C200" t="n">
-        <v>349.54</v>
+        <v>359.04</v>
       </c>
       <c r="D200" t="n">
-        <v>342.23</v>
+        <v>352.66</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -4495,13 +4635,13 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>355.58</v>
+        <v>354.17</v>
       </c>
       <c r="C201" t="n">
-        <v>354.41</v>
+        <v>360.33</v>
       </c>
       <c r="D201" t="n">
-        <v>354.35</v>
+        <v>354.27</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -4516,13 +4656,13 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>344.93</v>
+        <v>353.01</v>
       </c>
       <c r="C202" t="n">
-        <v>359.38</v>
+        <v>360.21</v>
       </c>
       <c r="D202" t="n">
-        <v>363.11</v>
+        <v>355.53</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -4537,13 +4677,13 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>474.08</v>
+        <v>366.39</v>
       </c>
       <c r="C203" t="n">
-        <v>351.97</v>
+        <v>355.46</v>
       </c>
       <c r="D203" t="n">
-        <v>352.41</v>
+        <v>355.14</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -4558,10 +4698,14 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>464.83</v>
-      </c>
-      <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr"/>
+        <v>378.94</v>
+      </c>
+      <c r="C204" t="n">
+        <v>356.03</v>
+      </c>
+      <c r="D204" t="n">
+        <v>355.44</v>
+      </c>
       <c r="E204" t="inlineStr">
         <is>
           <t>L9</t>
@@ -4575,13 +4719,13 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>460.69</v>
+        <v>407.54</v>
       </c>
       <c r="C205" t="n">
-        <v>340.37</v>
+        <v>351.13</v>
       </c>
       <c r="D205" t="n">
-        <v>345.7</v>
+        <v>351.56</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -4596,13 +4740,13 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>468.05</v>
+        <v>416.19</v>
       </c>
       <c r="C206" t="n">
-        <v>350.73</v>
+        <v>351.07</v>
       </c>
       <c r="D206" t="n">
-        <v>354.88</v>
+        <v>352.11</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -4617,13 +4761,13 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>475.22</v>
+        <v>468.57</v>
       </c>
       <c r="C207" t="n">
-        <v>344.76</v>
+        <v>346.96</v>
       </c>
       <c r="D207" t="n">
-        <v>327.48</v>
+        <v>345.12</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -4638,13 +4782,13 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>468.84</v>
+        <v>468.62</v>
       </c>
       <c r="C208" t="n">
-        <v>354.7</v>
+        <v>348.51</v>
       </c>
       <c r="D208" t="n">
-        <v>349.49</v>
+        <v>345.99</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -4658,12 +4802,14 @@
           <t>2023-03-01 20:19:07+00:00</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr"/>
+      <c r="B209" t="n">
+        <v>468.62</v>
+      </c>
       <c r="C209" t="n">
-        <v>339.38</v>
+        <v>346.98</v>
       </c>
       <c r="D209" t="n">
-        <v>338.4</v>
+        <v>344.73</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4677,12 +4823,14 @@
           <t>2023-03-20 22:17:28+00:00</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr"/>
+      <c r="B210" t="n">
+        <v>468.62</v>
+      </c>
       <c r="C210" t="n">
-        <v>341.89</v>
+        <v>346.26</v>
       </c>
       <c r="D210" t="n">
-        <v>339.08</v>
+        <v>343.92</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -4696,10 +4844,14 @@
           <t>2023-04-13 22:17:27+00:00</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr"/>
-      <c r="C211" t="inlineStr"/>
+      <c r="B211" t="n">
+        <v>468.62</v>
+      </c>
+      <c r="C211" t="n">
+        <v>346.26</v>
+      </c>
       <c r="D211" t="n">
-        <v>340.89</v>
+        <v>343.54</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -4714,13 +4866,13 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>359.13</v>
+        <v>446.39</v>
       </c>
       <c r="C212" t="n">
-        <v>364.39</v>
+        <v>348.03</v>
       </c>
       <c r="D212" t="n">
-        <v>359.99</v>
+        <v>344.49</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -4735,13 +4887,13 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>347.69</v>
+        <v>429.94</v>
       </c>
       <c r="C213" t="n">
-        <v>338.82</v>
+        <v>346.88</v>
       </c>
       <c r="D213" t="n">
-        <v>345.72</v>
+        <v>344.63</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -4756,13 +4908,13 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>327.47</v>
+        <v>415.3</v>
       </c>
       <c r="C214" t="n">
-        <v>340.06</v>
+        <v>346.12</v>
       </c>
       <c r="D214" t="n">
-        <v>339.46</v>
+        <v>344.11</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -4777,13 +4929,13 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>333</v>
+        <v>405.01</v>
       </c>
       <c r="C215" t="n">
-        <v>337.21</v>
+        <v>345.23</v>
       </c>
       <c r="D215" t="n">
-        <v>344.67</v>
+        <v>344.16</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -4798,13 +4950,13 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>340.73</v>
+        <v>390.02</v>
       </c>
       <c r="C216" t="n">
-        <v>357.56</v>
+        <v>346.95</v>
       </c>
       <c r="D216" t="n">
-        <v>354.04</v>
+        <v>344.92</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -4819,13 +4971,13 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>332.4</v>
+        <v>373.06</v>
       </c>
       <c r="C217" t="n">
-        <v>358.18</v>
+        <v>347.69</v>
       </c>
       <c r="D217" t="n">
-        <v>367.81</v>
+        <v>346.09</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -4840,13 +4992,13 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>332.89</v>
+        <v>368.6</v>
       </c>
       <c r="C218" t="n">
-        <v>367.68</v>
+        <v>349.51</v>
       </c>
       <c r="D218" t="n">
-        <v>366.14</v>
+        <v>347.76</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -4861,13 +5013,13 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>328.31</v>
+        <v>337.7</v>
       </c>
       <c r="C219" t="n">
-        <v>352.64</v>
+        <v>350.94</v>
       </c>
       <c r="D219" t="n">
-        <v>356.4</v>
+        <v>351.42</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -4882,13 +5034,13 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>363.76</v>
+        <v>340.6</v>
       </c>
       <c r="C220" t="n">
-        <v>363.66</v>
+        <v>353.36</v>
       </c>
       <c r="D220" t="n">
-        <v>369.76</v>
+        <v>354.49</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -4902,12 +5054,14 @@
           <t>2023-10-14 22:17:45+00:00</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr"/>
+      <c r="B221" t="n">
+        <v>340.6</v>
+      </c>
       <c r="C221" t="n">
-        <v>361.76</v>
+        <v>354.2</v>
       </c>
       <c r="D221" t="n">
-        <v>364.32</v>
+        <v>356.83</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -4921,12 +5075,14 @@
           <t>2023-10-22 22:17:50+00:00</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr"/>
+      <c r="B222" t="n">
+        <v>340.6</v>
+      </c>
       <c r="C222" t="n">
-        <v>357.64</v>
+        <v>354.51</v>
       </c>
       <c r="D222" t="n">
-        <v>358.75</v>
+        <v>357.01</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -4941,13 +5097,13 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>340.21</v>
+        <v>338.5</v>
       </c>
       <c r="C223" t="n">
-        <v>336.44</v>
+        <v>351.97</v>
       </c>
       <c r="D223" t="n">
-        <v>343.76</v>
+        <v>355.53</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -4961,12 +5117,14 @@
           <t>2024-01-10 22:17:52+00:00</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr"/>
+      <c r="B224" t="n">
+        <v>341.29</v>
+      </c>
       <c r="C224" t="n">
-        <v>343.81</v>
+        <v>354.8</v>
       </c>
       <c r="D224" t="n">
-        <v>346.72</v>
+        <v>357.98</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -4980,12 +5138,14 @@
           <t>2024-02-11 22:17:53+00:00</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr"/>
+      <c r="B225" t="n">
+        <v>344.09</v>
+      </c>
       <c r="C225" t="n">
-        <v>344.94</v>
+        <v>351.56</v>
       </c>
       <c r="D225" t="n">
-        <v>345.27</v>
+        <v>355</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -4999,12 +5159,14 @@
           <t>2024-02-19 22:17:39+00:00</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr"/>
+      <c r="B226" t="n">
+        <v>344.09</v>
+      </c>
       <c r="C226" t="n">
-        <v>353.1</v>
+        <v>351.75</v>
       </c>
       <c r="D226" t="n">
-        <v>356.54</v>
+        <v>355.19</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -5019,13 +5181,13 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>375.02</v>
+        <v>357.62</v>
       </c>
       <c r="C227" t="n">
-        <v>366.45</v>
+        <v>352.02</v>
       </c>
       <c r="D227" t="n">
-        <v>369.65</v>
+        <v>355</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -5040,13 +5202,13 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>363.52</v>
+        <v>359.58</v>
       </c>
       <c r="C228" t="n">
-        <v>361.68</v>
+        <v>351.07</v>
       </c>
       <c r="D228" t="n">
-        <v>364.23</v>
+        <v>354.36</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -5061,13 +5223,13 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>372.69</v>
+        <v>362.86</v>
       </c>
       <c r="C229" t="n">
-        <v>360.98</v>
+        <v>352.49</v>
       </c>
       <c r="D229" t="n">
-        <v>360.73</v>
+        <v>355.27</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -5082,13 +5244,13 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>338.18</v>
+        <v>362.35</v>
       </c>
       <c r="C230" t="n">
-        <v>353.36</v>
+        <v>354.9</v>
       </c>
       <c r="D230" t="n">
-        <v>355.09</v>
+        <v>356.89</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -5103,13 +5265,13 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>340.79</v>
+        <v>358.04</v>
       </c>
       <c r="C231" t="n">
-        <v>357.11</v>
+        <v>355.18</v>
       </c>
       <c r="D231" t="n">
-        <v>359.99</v>
+        <v>357.28</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -5124,13 +5286,13 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>369.17</v>
+        <v>359.89</v>
       </c>
       <c r="C232" t="n">
-        <v>363.48</v>
+        <v>356.1</v>
       </c>
       <c r="D232" t="n">
-        <v>368.17</v>
+        <v>358.49</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -5145,13 +5307,13 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>356.01</v>
+        <v>359.34</v>
       </c>
       <c r="C233" t="n">
-        <v>363.56</v>
+        <v>358.3</v>
       </c>
       <c r="D233" t="n">
-        <v>366.82</v>
+        <v>360.72</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -5166,13 +5328,13 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>358.68</v>
+        <v>359.26</v>
       </c>
       <c r="C234" t="n">
-        <v>363.95</v>
+        <v>360.41</v>
       </c>
       <c r="D234" t="n">
-        <v>364.97</v>
+        <v>362.91</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -5187,13 +5349,13 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>380.7</v>
+        <v>361.64</v>
       </c>
       <c r="C235" t="n">
-        <v>369.11</v>
+        <v>362.19</v>
       </c>
       <c r="D235" t="n">
-        <v>372.7</v>
+        <v>364.71</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -5208,13 +5370,13 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>343.62</v>
+        <v>358.16</v>
       </c>
       <c r="C236" t="n">
-        <v>341.92</v>
+        <v>359.86</v>
       </c>
       <c r="D236" t="n">
-        <v>349.8</v>
+        <v>363.74</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -5228,12 +5390,14 @@
           <t>2025-01-12 22:17:45+00:00</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr"/>
+      <c r="B237" t="n">
+        <v>361</v>
+      </c>
       <c r="C237" t="n">
-        <v>358.37</v>
+        <v>358.34</v>
       </c>
       <c r="D237" t="n">
-        <v>361.9</v>
+        <v>362.34</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -5247,10 +5411,14 @@
           <t>2025-01-28 22:17:42+00:00</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr"/>
-      <c r="C238" t="inlineStr"/>
+      <c r="B238" t="n">
+        <v>361</v>
+      </c>
+      <c r="C238" t="n">
+        <v>358.34</v>
+      </c>
       <c r="D238" t="n">
-        <v>343.51</v>
+        <v>358.58</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -5265,13 +5433,13 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>375.16</v>
+        <v>359.39</v>
       </c>
       <c r="C239" t="n">
-        <v>355.25</v>
+        <v>351.85</v>
       </c>
       <c r="D239" t="n">
-        <v>370.17</v>
+        <v>356.35</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -5285,12 +5453,14 @@
           <t>2025-03-09 22:17:26+00:00</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr"/>
+      <c r="B240" t="n">
+        <v>359.39</v>
+      </c>
       <c r="C240" t="n">
-        <v>361.06</v>
+        <v>354.15</v>
       </c>
       <c r="D240" t="n">
-        <v>358.88</v>
+        <v>356.85</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -5304,12 +5474,14 @@
           <t>2025-03-25 22:17:16+00:00</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr"/>
+      <c r="B241" t="n">
+        <v>359.39</v>
+      </c>
       <c r="C241" t="n">
-        <v>357.98</v>
+        <v>354.92</v>
       </c>
       <c r="D241" t="n">
-        <v>363.52</v>
+        <v>357.96</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -5324,13 +5496,13 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>327.81</v>
+        <v>348.86</v>
       </c>
       <c r="C242" t="n">
-        <v>342.69</v>
+        <v>352.88</v>
       </c>
       <c r="D242" t="n">
-        <v>352.1</v>
+        <v>357.13</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -5345,13 +5517,13 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>335.41</v>
+        <v>345.5</v>
       </c>
       <c r="C243" t="n">
-        <v>336.38</v>
+        <v>350.52</v>
       </c>
       <c r="D243" t="n">
-        <v>344.3</v>
+        <v>355.52</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -5366,13 +5538,13 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>328.01</v>
+        <v>341.6</v>
       </c>
       <c r="C244" t="n">
-        <v>349.6</v>
+        <v>351.62</v>
       </c>
       <c r="D244" t="n">
-        <v>353.28</v>
+        <v>355.96</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -5386,12 +5558,14 @@
           <t>2025-06-05 22:17:00+00:00</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr"/>
+      <c r="B245" t="n">
+        <v>341.6</v>
+      </c>
       <c r="C245" t="n">
-        <v>319.48</v>
+        <v>347.6</v>
       </c>
       <c r="D245" t="n">
-        <v>338.6</v>
+        <v>354.03</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -5406,13 +5580,13 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>349.11</v>
+        <v>343.1</v>
       </c>
       <c r="C246" t="n">
-        <v>363.73</v>
+        <v>349.39</v>
       </c>
       <c r="D246" t="n">
-        <v>368.29</v>
+        <v>355.45</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -5427,13 +5601,13 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>333.41</v>
+        <v>341.49</v>
       </c>
       <c r="C247" t="n">
-        <v>354.73</v>
+        <v>348.99</v>
       </c>
       <c r="D247" t="n">
-        <v>354.78</v>
+        <v>354.74</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -5448,13 +5622,13 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>332.36</v>
+        <v>340.18</v>
       </c>
       <c r="C248" t="n">
-        <v>337.86</v>
+        <v>347.88</v>
       </c>
       <c r="D248" t="n">
-        <v>348.15</v>
+        <v>355.21</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -5469,13 +5643,13 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>341.05</v>
+        <v>340.29</v>
       </c>
       <c r="C249" t="n">
-        <v>338.06</v>
+        <v>346.98</v>
       </c>
       <c r="D249" t="n">
-        <v>342.43</v>
+        <v>354.05</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -5489,12 +5663,14 @@
           <t>2025-10-19 22:17:50+00:00</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr"/>
+      <c r="B250" t="n">
+        <v>335.31</v>
+      </c>
       <c r="C250" t="n">
-        <v>351.2</v>
+        <v>343.75</v>
       </c>
       <c r="D250" t="n">
-        <v>354.25</v>
+        <v>350.69</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -5509,13 +5685,13 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>440.47</v>
+        <v>351.4</v>
       </c>
       <c r="C251" t="n">
-        <v>343.12</v>
+        <v>343.8</v>
       </c>
       <c r="D251" t="n">
-        <v>347.02</v>
+        <v>350.12</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -8295,28 +8471,28 @@
         <v>0.0354</v>
       </c>
       <c r="I2" t="n">
-        <v>1.219535277425431</v>
+        <v>1.313202272656083</v>
       </c>
       <c r="J2" t="n">
         <v>250</v>
       </c>
       <c r="K2" t="n">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04001034569362116</v>
+        <v>0.06935840523840464</v>
       </c>
       <c r="M2" t="n">
-        <v>35.44435418856349</v>
+        <v>29.02050858911336</v>
       </c>
       <c r="N2" t="n">
-        <v>2119.577353734192</v>
+        <v>1393.740766634653</v>
       </c>
       <c r="O2" t="n">
-        <v>46.03886785895361</v>
+        <v>37.33283764509004</v>
       </c>
       <c r="P2" t="n">
-        <v>351.9517475654331</v>
+        <v>351.8925724716653</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8373,28 +8549,28 @@
         <v>0.09420000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07015584891978262</v>
+        <v>0.02087295660358619</v>
       </c>
       <c r="J3" t="n">
         <v>250</v>
       </c>
       <c r="K3" t="n">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002092133346529135</v>
+        <v>0.0004814377756373611</v>
       </c>
       <c r="M3" t="n">
-        <v>9.522745964044981</v>
+        <v>6.049363662382575</v>
       </c>
       <c r="N3" t="n">
-        <v>140.2080553921592</v>
+        <v>54.24617992572724</v>
       </c>
       <c r="O3" t="n">
-        <v>11.84094824717004</v>
+        <v>7.365200603223733</v>
       </c>
       <c r="P3" t="n">
-        <v>354.3845734960956</v>
+        <v>355.3012775746469</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8451,28 +8627,28 @@
         <v>0.0779</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05763339479268168</v>
+        <v>-0.1130635283827087</v>
       </c>
       <c r="J4" t="n">
         <v>250</v>
       </c>
       <c r="K4" t="n">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001655234886610346</v>
+        <v>0.0149325882341389</v>
       </c>
       <c r="M4" t="n">
-        <v>8.925707304791807</v>
+        <v>5.464088372764476</v>
       </c>
       <c r="N4" t="n">
-        <v>119.906812498465</v>
+        <v>50.57390061760969</v>
       </c>
       <c r="O4" t="n">
-        <v>10.95019691596754</v>
+        <v>7.111532930220438</v>
       </c>
       <c r="P4" t="n">
-        <v>359.4118052619228</v>
+        <v>360.2141339849106</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8580,17 +8756,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-34.804292872867684,173.1659446135949</t>
+          <t>-34.80421031258778,173.16583114228854</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-34.80474927967818,173.16521044117198</t>
+          <t>-34.804721627579866,173.16516277888186</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-34.805413777596684,173.16481560363448</t>
+          <t>-34.80539852698154,173.1647819773439</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -8607,17 +8783,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-34.80424902764572,173.16588435243222</t>
+          <t>-34.80427092043381,173.16591444201157</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-34.8047863220467,173.1652742890176</t>
+          <t>-34.80476780086667,173.16524236508766</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-34.805425030893595,173.1648404162044</t>
+          <t>-34.80541938252126,173.16482796201788</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -8634,17 +8810,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-34.804165811120605,173.16576997938054</t>
+          <t>-34.804207389570095,173.16582712488372</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-34.80476167901819,173.16523181320358</t>
+          <t>-34.804774026474355,173.16525309581883</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-34.80542681230306,173.1648443440636</t>
+          <t>-34.80542589987384,173.16484233223323</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -8661,17 +8837,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-34.80409094598133,173.16566708482435</t>
+          <t>-34.80416861483326,173.1657738328058</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-34.80470751618282,173.1651384559243</t>
+          <t>-34.8047518218026,173.16521482288505</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-34.805364332548315,173.16470658168882</t>
+          <t>-34.80540539193197,173.1647971139632</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -8688,17 +8864,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-34.80404668304463,173.16560625004274</t>
+          <t>-34.8041381319081,173.16573193706876</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-34.80462860640508,173.16500244424432</t>
+          <t>-34.80472100501832,173.16516170581002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-34.805324576572495,173.1646189235403</t>
+          <t>-34.80538518811675,173.16475256632492</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -8715,17 +8891,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-34.80392427379186,173.16543801187473</t>
+          <t>-34.80409536034259,173.16567315190858</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-34.80457454715237,173.16490926610942</t>
+          <t>-34.80469174461562,173.1651112714521</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-34.80529629113456,173.16455655697428</t>
+          <t>-34.80536741743559,173.16471338358147</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -8742,17 +8918,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-34.8039820781907,173.16551745761433</t>
+          <t>-34.80407645017123,173.16564716183615</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-34.804616570186155,173.16498169823834</t>
+          <t>-34.80467918961364,173.16508963118886</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-34.805327922159805,173.1646263002337</t>
+          <t>-34.805360813169415,173.16469882178376</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -8769,17 +8945,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-34.804112719517015,173.16569701031355</t>
+          <t>-34.804053781819576,173.16561600655993</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-34.80469226341726,173.16511216567798</t>
+          <t>-34.80466352179579,173.1650626255803</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-34.80537041542425,173.16471999387196</t>
+          <t>-34.805351732300586,173.1646787993157</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -8794,13 +8970,21 @@
           <t>2000-11-07 22:07:53+00:00</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-34.804031352074176,173.1655851792508</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-34.804617452150595,173.1649832184196</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>-34.80463950125535,173.16502122296185</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-34.80533669889317,173.1646456520816</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8815,17 +8999,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-34.804181619286105,173.16579170614327</t>
+          <t>-34.804049486762565,173.1656101034569</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-34.804667464690915,173.16506942169275</t>
+          <t>-34.80463280870483,173.16500968746337</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-34.805316147428464,173.16460033810756</t>
+          <t>-34.80532705317612,173.1646243842094</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -8840,11 +9024,19 @@
           <t>2001-03-15 22:07:52+00:00</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-34.80409213905197,173.1656687245768</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-34.804648424654324,173.1650366036294</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-34.80536485393774,173.16470773130445</t>
+          <t>-34.805344823886166,173.16466356691473</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -8861,17 +9053,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-34.80412721531881,173.1657169333192</t>
+          <t>-34.8041544173083,173.16575431971896</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-34.80472660807175,173.1651713634571</t>
+          <t>-34.804670525622406,173.1650746976226</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-34.80539965665705,173.1647844681798</t>
+          <t>-34.80536020488166,173.16469748056568</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -8888,17 +9080,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-34.80396149768323,173.16548917196678</t>
+          <t>-34.804090110831865,173.16566593699767</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-34.80466388495721,173.16506325153802</t>
+          <t>-34.80468598591684,173.16510134554542</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-34.80536428909921,173.1647064858875</t>
+          <t>-34.80536124766066,173.16469977979668</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -8915,17 +9107,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-34.80402138992406,173.16557148733958</t>
+          <t>-34.80403672089693,173.16559255812646</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-34.80458471569294,173.16492679288945</t>
+          <t>-34.80465838565552,173.16505377275058</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-34.8052940752233,173.16455167111607</t>
+          <t>-34.80535572962125,173.16468761303315</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -8942,17 +9134,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-34.80388013004622,173.16537734131236</t>
+          <t>-34.80395433924428,173.16547933348397</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-34.80457454715237,173.16490926610942</t>
+          <t>-34.80460769866043,173.164966407005</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-34.80529689942389,173.16455789819028</t>
+          <t>-34.805318406786924,173.16460531976958</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -8969,17 +9161,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-34.804085338548994,173.16565937798856</t>
+          <t>-34.803995619564425,173.16553606875823</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-34.80469817775561,173.16512235985397</t>
+          <t>-34.80461916419916,173.1649861693598</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-34.805396789019106,173.16477814528875</t>
+          <t>-34.805329269084424,173.1646292700715</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -8996,15 +9188,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-34.80417231334765,173.165778916048</t>
+          <t>-34.804045907548165,173.16560518420485</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-34.804736620933824,173.16518862203333</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>-34.80466979929971,173.16507344570704</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-34.80534686599628,173.16466806957388</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>L7</t>
@@ -9019,17 +9215,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-34.804193728934756,173.16580834966905</t>
+          <t>-34.80415048017897,173.16574890852797</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-34.804764273021895,173.1652362843407</t>
+          <t>-34.80473304120623,173.1651824518683</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-34.80543041857061,173.1648522955839</t>
+          <t>-34.805413603800545,173.16481522042884</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -9044,15 +9240,19 @@
           <t>2002-11-13 22:05:30+00:00</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>-34.804193728934756,173.16580834966905</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-34.804647853971886,173.16503561998198</t>
+          <t>-34.80470606353874,173.1651359520909</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-34.80536646155507,173.1647112759527</t>
+          <t>-34.80539844008342,173.16478178574113</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -9067,15 +9267,19 @@
           <t>2003-01-16 22:06:02+00:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>-34.804193728934756,173.16580834966905</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-34.80474678943369,173.16520614888188</t>
+          <t>-34.804719656134985,173.1651593808211</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-34.80539835318532,173.16478159413836</t>
+          <t>-34.80539839663437,173.16478168993976</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -9097,12 +9301,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-34.80476017449597,173.16522921994417</t>
+          <t>-34.80471825537146,173.16515696640963</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-34.80542407501529,173.1648383085727</t>
+          <t>-34.80539631107942,173.1647770914736</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -9117,15 +9321,19 @@
           <t>2003-05-24 22:06:17+00:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>-34.80425582813112,173.16589369905734</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-34.80464780209167,173.16503553055946</t>
+          <t>-34.80471825537146,173.16515696640963</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-34.80534638805564,173.16466701576002</t>
+          <t>-34.805389619922785,173.16476233806307</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -9143,12 +9351,12 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-34.8046571405305,173.16505162661022</t>
+          <t>-34.804652471311364,173.1650435785844</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-34.80535138470744,173.16467803290553</t>
+          <t>-34.805348864657084,173.16467247643197</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -9170,12 +9378,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-34.80474445482938,173.16520212486014</t>
+          <t>-34.80470082364354,173.16512692040686</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-34.80540321947951,173.16479232389352</t>
+          <t>-34.80537732383154,173.16473522628232</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -9192,11 +9400,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-34.80429448350792,173.16594682727145</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+          <t>-34.80419891878347,173.16581548261013</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>-34.80470082364354,173.16512692040686</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>-34.80537732383154,173.16473522628232</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>L7</t>
@@ -9211,17 +9427,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-34.8041869284427,173.16579900305794</t>
+          <t>-34.804194922003454,173.16580998942553</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-34.804753948886166,173.1652184892166</t>
+          <t>-34.80471851477212,173.16515741352285</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-34.80543367724567,173.1648594806932</t>
+          <t>-34.8053960938341,173.16477661246677</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -9238,17 +9454,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-34.80421073016171,173.16583171620357</t>
+          <t>-34.80419885913004,173.1658154006223</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-34.8047723663124,173.16525023429034</t>
+          <t>-34.80475690605094,173.165223586312</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-34.805395051056564,173.16477431323378</t>
+          <t>-34.805410649266136,173.16480870593284</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -9265,17 +9481,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-34.80407674843896,173.16564757177412</t>
+          <t>-34.80417446087203,173.1657818676082</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-34.80475125112161,173.16521383923515</t>
+          <t>-34.80475550528871,173.16522117189834</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-34.805425030893595,173.1648404162044</t>
+          <t>-34.805414255536036,173.16481665745005</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -9292,17 +9508,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-34.8040840858247,173.16565765624884</t>
+          <t>-34.80415936854635,173.16576112470227</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-34.80472614115066,173.1651705586531</t>
+          <t>-34.80474964283882,173.16521106713097</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-34.80537836660984,173.1647375255143</t>
+          <t>-34.80540708644475,173.1648008502177</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -9319,17 +9535,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-34.80406642837466,173.16563338792247</t>
+          <t>-34.804153224238824,173.16575267996407</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-34.80471156283394,173.16514543088923</t>
+          <t>-34.80474305406669,173.16519971044724</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-34.80539366068643,173.16477124758995</t>
+          <t>-34.805405174686726,173.16479663495622</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -9346,17 +9562,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-34.8043201940927,173.16598216412035</t>
+          <t>-34.80417708562395,173.16578547507086</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-34.80479301457186,173.1652858245588</t>
+          <t>-34.804751354881795,173.16521401808058</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-34.80543815249202,173.16486934824425</t>
+          <t>-34.805410649266136,173.16480870593284</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -9373,15 +9589,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-34.80428625134632,173.16593551292542</t>
+          <t>-34.80417410295131,173.16578137568146</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-34.804736776574146,173.1651888903014</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>-34.80474850147679,173.16520909983132</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>-34.805406043667666,173.16479855098413</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>L7</t>
@@ -9396,15 +9616,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-34.80428380555896,173.16593215141722</t>
+          <t>-34.80418973215442,173.16580285648513</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-34.80476987606935,173.16524594199785</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>-34.804751562402146,173.16521437577146</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>-34.805406043667666,173.16479855098413</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>L7</t>
@@ -9417,15 +9641,19 @@
           <t>2004-11-10 22:02:36+00:00</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>-34.80418973215442,173.16580285648513</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-34.80474056382184,173.16519541815777</t>
+          <t>-34.804750213519824,173.16521205078084</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-34.80534204314021,173.16465743563455</t>
+          <t>-34.80539539864906,173.16477507964478</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -9440,15 +9668,19 @@
           <t>2004-12-04 22:06:44+00:00</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>-34.804186272254825,173.16579810119202</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-34.80474160142388,173.16519720661168</t>
+          <t>-34.804746374392934,173.16520543350023</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-34.8054021332532,173.16478992885877</t>
+          <t>-34.80539657177381,173.16477766628188</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -9465,17 +9697,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-34.804458231717575,173.16617188483949</t>
+          <t>-34.80428297041204,173.1659310035852</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-34.80483498549897,173.16535816764656</t>
+          <t>-34.80476121209751,173.1652310083989</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-34.80550197897633,173.1650100807143</t>
+          <t>-34.80541560245598,173.164819627294</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -9490,15 +9722,19 @@
           <t>2005-01-21 22:06:59+00:00</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>-34.80428297041204,173.1659310035852</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-34.80476821590721,173.16524308046968</t>
+          <t>-34.804762094058795,173.1652325285855</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-34.8054071298938,173.1648009460191</t>
+          <t>-34.80541416863798,173.16481646584722</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -9515,17 +9751,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-34.804636475189405,173.1664168665479</t>
+          <t>-34.804396967864996,173.16608768286923</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-34.804668761695815,173.16507165725622</t>
+          <t>-34.80475675041069,173.1652233180438</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-34.805361551804545,173.16470045040575</t>
+          <t>-34.80540882440648,173.1648046822738</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -9542,17 +9778,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-34.80483070512198,173.1666838223811</t>
+          <t>-34.804469267556186,173.1661870526857</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-34.80467944901455,173.1650900783017</t>
+          <t>-34.80474813831615,173.16520847387233</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-34.805374325843715,173.16472861599073</t>
+          <t>-34.805403914664325,173.16479385671576</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -9567,15 +9803,19 @@
           <t>2005-02-22 22:07:14+00:00</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>-34.804469267556186,173.1661870526857</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-34.80473568709187,173.165187012425</t>
+          <t>-34.8047468931939,173.1652063277273</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-34.80538975027001,173.16476262546715</t>
+          <t>-34.8054021332532,173.16478992885877</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -9592,17 +9832,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-34.80458863345,173.1663511116485</t>
+          <t>-34.8045140074228,173.16624854399566</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-34.80472562234946,173.1651696644265</t>
+          <t>-34.804740148781,173.16519470277623</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-34.80540482709436,173.16479586854504</t>
+          <t>-34.80539796214377,173.16478073192596</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -9619,17 +9859,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-34.80476305876954,173.1665908468352</t>
+          <t>-34.804549620334036,173.1662974911259</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-34.80481895458138,173.16533053597647</t>
+          <t>-34.804747308234646,173.16520704310895</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-34.80545596657154,173.16490862685603</t>
+          <t>-34.80540439260386,173.16479491053113</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -9646,17 +9886,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-34.804208522985135,173.16582868265291</t>
+          <t>-34.804538465203194,173.1662821592732</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-34.80479799505498,173.16529440914883</t>
+          <t>-34.80475285940434,173.16521661133945</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-34.805456140367376,173.1649090100621</t>
+          <t>-34.80540956304016,173.16480631089766</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -9673,17 +9913,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-34.80425910906678,173.16589820839457</t>
+          <t>-34.804534945669516,173.16627732195158</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-34.804818332021355,173.16532946290212</t>
+          <t>-34.80476090081705,173.1652304718625</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-34.805456053469456,173.16490881845905</t>
+          <t>-34.805423075687926,173.16483610513964</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -9700,17 +9940,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-34.80402049512008,173.16557025752738</t>
+          <t>-34.80447063957923,173.16618893841823</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-34.80464328851214,173.1650277508029</t>
+          <t>-34.80474912403789,173.16521017290384</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-34.80532123098474,173.16461154684745</t>
+          <t>-34.80541290861601,173.1648136876062</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -9727,13 +9967,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-34.80393632383602,173.16545457330977</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
+          <t>-34.804411284642086,173.16610736004685</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>-34.80474912403789,173.16521017290384</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-34.80542629091493,173.16484319444623</t>
+          <t>-34.80541412518893,173.1648163700458</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -9750,17 +9994,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-34.80405592934798,173.1656189581117</t>
+          <t>-34.804366604356225,173.16604595087756</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-34.80470149808553,173.1651280829008</t>
+          <t>-34.804732159244296,173.16518093168278</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-34.80535920555174,173.164695277136</t>
+          <t>-34.80540052563819,173.16478638420747</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -9777,17 +10021,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-34.804237812808566,173.16586893870289</t>
+          <t>-34.804322281958754,173.16598503370298</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-34.8047807708816,173.1652647207794</t>
+          <t>-34.804744610469655,173.16520239312825</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-34.805407347139024,173.16480142502613</t>
+          <t>-34.805405131237684,173.1647965391548</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -9804,17 +10048,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-34.80415232943671,173.16575145014792</t>
+          <t>-34.804246939777244,173.16588148285462</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-34.80473138104258,173.16517959034266</t>
+          <t>-34.80475223684329,173.1652155382668</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-34.80539570279253,173.1647757502544</t>
+          <t>-34.805409215447845,173.16480554448643</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -9829,13 +10073,21 @@
           <t>2005-09-18 22:06:39+00:00</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>-34.80420422793862,173.16582277952782</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-34.80488847372497,173.16545036271378</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>-34.80477257383265,173.1652505919814</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>-34.805409736836324,173.16480669410328</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>L7</t>
@@ -9848,15 +10100,19 @@
           <t>2005-09-26 22:05:42+00:00</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>-34.80420422793862,173.16582277952782</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-34.804760589536585,173.16522993532607</t>
+          <t>-34.80477127683108,173.16524835641235</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-34.805440238043474,173.164873946715</t>
+          <t>-34.805413125861186,173.16481416661324</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -9871,15 +10127,19 @@
           <t>2005-11-21 22:07:07+00:00</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>-34.80411033337648,173.1656937308071</t>
+        </is>
+      </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-34.80472250954201,173.165164299067</t>
+          <t>-34.804755868449284,173.16522179785744</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-34.80539087994593,173.16476511630253</t>
+          <t>-34.805399613208,173.1647843723784</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -9894,15 +10154,19 @@
           <t>2005-12-23 22:07:15+00:00</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>-34.8040955989567,173.16567347985907</t>
+        </is>
+      </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-34.80477195127189,173.16524951890824</t>
+          <t>-34.804765310623345,173.16523807279563</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-34.805388577144974,173.16476003883045</t>
+          <t>-34.80540117737402,173.16478782122826</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -9917,15 +10181,19 @@
           <t>2006-01-08 22:07:25+00:00</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>-34.804148690574635,173.16574644889593</t>
+        </is>
+      </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-34.80480567329859,173.16530764372712</t>
+          <t>-34.80477034298992,173.1652467468027</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-34.80546239701662,173.164922805481</t>
+          <t>-34.80540634781098,173.1647992215939</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -9940,15 +10208,19 @@
           <t>2006-02-09 22:07:38+00:00</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>-34.80415232943671,173.16575145014792</t>
+        </is>
+      </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-34.80475322256495,173.1652172372985</t>
+          <t>-34.80477625731687,173.16525694099786</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-34.805399004921185,173.1647830311591</t>
+          <t>-34.805412821717944,173.16481349600338</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -9963,15 +10235,19 @@
           <t>2006-02-17 22:08:11+00:00</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>-34.80415232943671,173.16575145014792</t>
+        </is>
+      </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-34.804788708528676,173.16527840246616</t>
+          <t>-34.80477781371855,173.16525962368104</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-34.805445712615146,173.16488601770183</t>
+          <t>-34.805417514213204,173.16482384255656</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -9993,12 +10269,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-34.80473319684655,173.16518272013633</t>
+          <t>-34.80477802123878,173.16525998137215</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-34.8053974842041,173.1647796781108</t>
+          <t>-34.80541777490736,173.1648244173651</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -10013,11 +10289,19 @@
           <t>2006-04-06 22:09:08+00:00</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>-34.80415513314997,173.1657553035719</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>-34.804762560979476,173.16523333339018</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-34.805361682151926,173.16470073780962</t>
+          <t>-34.805406521607175,173.1647996047995</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -10034,15 +10318,19 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-34.80410329426139,173.16568405626424</t>
+          <t>-34.804129183884214,173.1657196389131</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-34.804691225813954,173.16511037722623</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>-34.80475234060347,173.16521571711223</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>-34.805406521607175,173.1647996047995</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>L7</t>
@@ -10057,17 +10345,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-34.80414511136584,173.16574152963207</t>
+          <t>-34.804134493045204,173.1657269358185</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-34.80478414308479,173.16527053326038</t>
+          <t>-34.804761160217424,173.1652309189762</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-34.80541325620829,173.16481445401752</t>
+          <t>-34.805409736836324,173.16480669410328</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -10084,17 +10372,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-34.80411814798639,173.1657044711914</t>
+          <t>-34.80413043660765,173.16572136065471</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-34.80473620589296,173.16518790665185</t>
+          <t>-34.80475607596962,173.16522215554835</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-34.80541230032953,173.1648123463864</t>
+          <t>-34.805413125861186,173.16481416661324</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -10111,17 +10399,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-34.80400987677858,173.1655556637577</t>
+          <t>-34.80410633659089,173.16568823763427</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-34.80466014958255,173.16505681311625</t>
+          <t>-34.804744039788574,173.16520140947853</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-34.80534591011498,173.16466596194616</t>
+          <t>-34.80540469674721,173.16479558114088</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -10138,17 +10426,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-34.80397593386597,173.16550901291228</t>
+          <t>-34.804084563053,173.16565831214967</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-34.80468863180557,173.16510590609698</t>
+          <t>-34.804729461478296,173.1651762817038</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-34.80536494083598,173.16470792290704</t>
+          <t>-34.80539253101064,173.16476875675437</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -10163,13 +10451,21 @@
           <t>2006-11-24 22:07:37+00:00</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>-34.80406225262561,173.16562764879276</t>
+        </is>
+      </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-34.80477589415647,173.16525631503848</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>-34.80472899455724,173.16517547689975</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>-34.80538410188966,173.16475017129122</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>L7</t>
@@ -10182,15 +10478,19 @@
           <t>2006-12-10 22:07:44+00:00</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>-34.80406225262561,173.16562764879276</t>
+        </is>
+      </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-34.80482170422142,173.16533527538837</t>
+          <t>-34.80474445482938,173.16520212486014</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-34.80547060886636,173.1649409119715</t>
+          <t>-34.805401394619295,173.1647883002352</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -10208,12 +10508,12 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-34.804669280497755,173.16507255148161</t>
+          <t>-34.80475560904886,173.1652213507438</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-34.80536685259711,173.16471213816448</t>
+          <t>-34.80541873078591,173.16482652499647</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -10235,12 +10535,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-34.804738177337036,173.16519130471397</t>
+          <t>-34.80475125112161,173.16521383923515</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-34.80540947614208,173.16480611929487</t>
+          <t>-34.80541564590501,173.16481972309543</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -10257,17 +10557,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-34.804362190013855,173.1660398837536</t>
+          <t>-34.80426668504487,173.16590862086557</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-34.80481060190013,173.16531613889694</t>
+          <t>-34.80476313166029,173.16523431704033</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-34.80545735693818,173.16491169250452</t>
+          <t>-34.80542607366988,173.16484271543905</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -10282,15 +10582,19 @@
           <t>2007-07-22 22:07:45+00:00</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>-34.80426668504487,173.16590862086557</t>
+        </is>
+      </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-34.804741653303985,173.1651972960344</t>
+          <t>-34.80473994126059,173.16519434508544</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-34.80541438588313,173.1648169448543</t>
+          <t>-34.805412039635314,173.16481177157794</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -10307,17 +10611,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-34.8041359843825,173.16572898551118</t>
+          <t>-34.804223138071826,173.1658487696804</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-34.8047513030017,173.16521392865786</t>
+          <t>-34.80474222398509,173.16519827968403</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-34.80543876077788,173.16487068946486</t>
+          <t>-34.805417383866136,173.16482355515228</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -10332,13 +10636,21 @@
           <t>2007-09-24 22:07:22+00:00</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>-34.804249087299105,173.16588443442012</t>
+        </is>
+      </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-34.804724377226506,173.16516751828266</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+          <t>-34.804757009811105,173.16522376515744</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>-34.80543684902229,173.16486647420015</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>L7</t>
@@ -10351,15 +10663,19 @@
           <t>2007-10-02 22:10:31+00:00</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>-34.804249087299105,173.16588443442012</t>
+        </is>
+      </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-34.8047107327517,173.16514400012713</t>
+          <t>-34.8047477232754,173.16520775849062</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-34.805387012978166,173.1647565899817</t>
+          <t>-34.80542437915838,173.1648389791828</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -10374,15 +10690,19 @@
           <t>2007-10-10 22:07:19+00:00</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>-34.804249087299105,173.16588443442012</t>
+        </is>
+      </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-34.80462061684637,173.16498867318796</t>
+          <t>-34.80472655619164,173.16517127403444</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-34.80541169204302,173.16481100516665</t>
+          <t>-34.80542185911544,173.16483342269945</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -10399,17 +10719,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-34.80415555072428,173.16575587748616</t>
+          <t>-34.804145767554125,173.16574243149708</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-34.80465454651992,173.16504715548464</t>
+          <t>-34.80470056424277,173.1651264732938</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-34.8053455190726,173.16466509973483</t>
+          <t>-34.80539948286083,173.16478408497426</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -10424,15 +10744,19 @@
           <t>2007-12-29 22:07:56+00:00</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>-34.804145767554125,173.16574243149708</t>
+        </is>
+      </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-34.80475778801231,173.1652251064984</t>
+          <t>-34.804708709426144,173.16514051264463</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-34.8054280288753,173.1648470265041</t>
+          <t>-34.805404218807666,173.1647945273255</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -10449,17 +10773,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-34.80397575490505,173.16550876695013</t>
+          <t>-34.80406565287842,173.16563232208404</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-34.80466020146275,173.16505690253877</t>
+          <t>-34.8046880611237,173.16510492244856</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-34.80535060262288,173.16467630848265</t>
+          <t>-34.80538457982958,173.16475122510604</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -10476,17 +10800,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-34.80386736414648,173.16535979605365</t>
+          <t>-34.80392158937578,173.1654343224468</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-34.804645675002526,173.1650318642373</t>
+          <t>-34.80465293823329,173.16504438338694</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-34.805353339918746,173.16468234396285</t>
+          <t>-34.80535199299541,173.16467937412335</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -10503,17 +10827,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-34.80397861827976,173.16551270234507</t>
+          <t>-34.803940559247025,173.16546039440934</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-34.80479809881503,173.16529458799445</t>
+          <t>-34.80470134244507,173.16512781463297</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-34.8054423670437,173.16487864098747</t>
+          <t>-34.80538210323169,173.16474576442937</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -10530,17 +10854,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-34.80398321160974,173.16551901537503</t>
+          <t>-34.80394306470129,173.16546383787698</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-34.8047518218026,173.16521482288505</t>
+          <t>-34.8047318479636,173.16518039514673</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-34.805426551608996,173.16484376925493</t>
+          <t>-34.805407434037114,173.16480161662892</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -10555,15 +10879,19 @@
           <t>2008-10-12 22:06:13+00:00</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>-34.80394306470129,173.16546383787698</t>
+        </is>
+      </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-34.80471726964895,173.1651552673794</t>
+          <t>-34.804728216355464,173.16517413555974</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-34.805376932789684,173.16473436407037</t>
+          <t>-34.805399787004234,173.16478475558395</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -10578,15 +10906,19 @@
           <t>2008-11-13 22:06:43+00:00</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>-34.80394306470129,173.16546383787698</t>
+        </is>
+      </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-34.804660357103366,173.1650571708063</t>
+          <t>-34.804714623762095,173.16515070682468</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-34.805356685502176,173.16468972066139</t>
+          <t>-34.80539118408944,173.16476578691208</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -10601,15 +10933,19 @@
           <t>2008-11-21 22:01:05+00:00</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>-34.80394306470129,173.16546383787698</t>
+        </is>
+      </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-34.80471929297408,173.16515875486257</t>
+          <t>-34.804715401964124,173.16515204816426</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-34.80541221343147,173.1648121547836</t>
+          <t>-34.80539466001496,173.16477345102143</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -10626,15 +10962,19 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-34.8041025187656,173.16568299042487</t>
+          <t>-34.80398291334158,173.16551860543802</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-34.80472972087888,173.16517672881713</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
+          <t>-34.804717477169476,173.16515562506996</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>-34.80539466001496,173.16477345102143</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>L7</t>
@@ -10649,17 +10989,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-34.80407656947832,173.16564732581134</t>
+          <t>-34.80400164458,173.1655443494894</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-34.80459135637111,173.16493823895217</t>
+          <t>-34.804701705606135,173.16512844059122</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-34.80529368418013,173.1645508089058</t>
+          <t>-34.805380234920825,173.16474164497174</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -10674,11 +11014,19 @@
           <t>2008-12-31 22:07:13+00:00</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>-34.80400164458,173.1655443494894</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>-34.804701705606135,173.16512844059122</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-34.805480080731996,173.16496179671105</t>
+          <t>-34.80539274825598,173.1647692357612</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -10693,15 +11041,19 @@
           <t>2009-02-17 22:07:31+00:00</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>-34.80403522955732,173.1655905084387</t>
+        </is>
+      </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-34.80477480467525,173.1652544371603</t>
+          <t>-34.8047178403304,173.16515625102846</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-34.805411257552656,173.16481004715257</t>
+          <t>-34.805399960800464,173.16478513878948</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -10718,17 +11070,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-34.804173804684034,173.16578096574256</t>
+          <t>-34.80408402617116,173.1656575742612</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-34.80475306692469,173.16521696903033</t>
+          <t>-34.80471218539562,173.1651465039608</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-34.80542420536233,173.16483859597702</t>
+          <t>-34.80539770144941,173.1647801571177</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -10745,17 +11097,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-34.80424532913582,173.16587926918058</t>
+          <t>-34.80416521458597,173.16576915950287</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-34.804794934133135,173.16528913320275</t>
+          <t>-34.80472852763618,173.16517467209573</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-34.80543936906372,173.1648720306855</t>
+          <t>-34.805409736836324,173.16480669410328</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -10770,15 +11122,19 @@
           <t>2009-09-13 22:07:45+00:00</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>-34.80420959674672,173.1658301584343</t>
+        </is>
+      </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-34.80459457294922,173.16494378313948</t>
+          <t>-34.80471420872101,173.16514999144357</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-34.80530767483234,173.16458165687746</t>
+          <t>-34.80539040200611,173.16476406248756</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -10793,15 +11149,19 @@
           <t>2009-10-15 22:07:44+00:00</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>-34.80424532913582,173.16587926918058</t>
+        </is>
+      </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-34.80471529820386,173.16515186931898</t>
+          <t>-34.80470160184585,173.165128261746</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>-34.80535920555174,173.164695277136</t>
+          <t>-34.80536876435807,173.16471635342205</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -10819,12 +11179,12 @@
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-34.80476463618241,173.1652369102999</t>
+          <t>-34.804691485214775,173.16511082433917</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>-34.8054091719988,173.164805448685</t>
+          <t>-34.80535868416218,173.16469412752053</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -10846,12 +11206,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-34.804637166644824,173.16501719895055</t>
+          <t>-34.80467789260907,173.16508739562485</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-34.80530724034015,173.16458069886576</t>
+          <t>-34.80534582321666,173.16466577034365</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -10866,15 +11226,19 @@
           <t>2010-02-12 22:08:30+00:00</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>-34.804135924729,173.16572890352344</t>
+        </is>
+      </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-34.80474673755359,173.16520605945917</t>
+          <t>-34.804691692735446,173.1651111820295</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>-34.80539300895039,173.16476981056942</t>
+          <t>-34.80535525168075,173.16468655921906</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -10891,17 +11255,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-34.80423620216689,173.16586672502933</t>
+          <t>-34.80418603364106,173.1657977732408</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-34.80476193841857,173.16523226031728</t>
+          <t>-34.80470341765115,173.16513139153741</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>-34.80542229360563,173.16483438071378</t>
+          <t>-34.80536641810595,173.1647111801514</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -10918,17 +11282,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-34.80414391829619,173.16573988987753</t>
+          <t>-34.80417201508036,173.1657785061091</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-34.804715401964124,173.16515204816426</t>
+          <t>-34.804705129696075,173.16513434248375</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>-34.805389924066304,173.1647630086726</t>
+          <t>-34.80536980713674,173.16471865265356</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -10945,11 +11309,19 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-34.80413497027314,173.16572759172013</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
+          <t>-34.80416276879396,173.16576579800451</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>-34.804723547144505,173.1651660875201</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>-34.80538014802264,173.16474145336906</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>L7</t>
@@ -10964,17 +11336,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-34.80418704774957,173.16579916703355</t>
+          <t>-34.804167600724455,173.16577243901367</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-34.80472681559224,173.16517172114774</t>
+          <t>-34.80472546670909,173.16516939615852</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-34.80540130772118,173.16478810863242</t>
+          <t>-34.8053871433254,173.16475687738574</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -10991,17 +11363,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-34.804069888280786,173.16563814320182</t>
+          <t>-34.80415131532763,173.16575005635636</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-34.804601161745495,173.16495513978253</t>
+          <t>-34.804707671823266,173.16513872419216</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-34.805293119339964,173.16454956349102</t>
+          <t>-34.805373717556286,173.1647272747722</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -11018,11 +11390,19 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-34.80406797936709,173.16563551959936</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
+          <t>-34.80412077274064,173.16570807864915</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>-34.8046811091803,173.16509293982372</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>-34.805361464906284,173.16470025880315</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
           <t>L7</t>
@@ -11037,17 +11417,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-34.80421609896928,173.16583909511118</t>
+          <t>-34.80413520888711,173.16572791967096</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-34.80483348097946,173.16535557438257</t>
+          <t>-34.80472048621705,173.1651608115835</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>-34.805499502390134,173.16500462002216</t>
+          <t>-34.80539796214377,173.16478073192596</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -11062,15 +11442,19 @@
           <t>2011-01-14 22:07:31+00:00</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>-34.8041420690382,173.16573734825812</t>
+        </is>
+      </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-34.804820147821424,173.16533259270236</t>
+          <t>-34.804826788460986,173.16534403883009</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>-34.805433199306684,173.16485842687715</t>
+          <t>-34.805466350870546,173.16493152342045</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -11087,17 +11471,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-34.80411081060459,173.1656943867084</t>
+          <t>-34.80413162967754,173.16572300040872</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-34.80467618056299,173.16508444468047</t>
+          <t>-34.80477662047726,173.16525756695728</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>-34.80538106045357,173.16474346519718</t>
+          <t>-34.80543793524708,173.1648688692369</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -11114,17 +11498,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-34.804161873991966,173.16576456818808</t>
+          <t>-34.804136342303416,173.16572947743742</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-34.80475747673183,173.16522456996202</t>
+          <t>-34.80475125112161,173.16521383923515</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>-34.805417905254444,173.1648247047694</t>
+          <t>-34.80541073616422,173.16480889753566</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -11141,17 +11525,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-34.804060045443876,173.16562461525297</t>
+          <t>-34.804110929911616,173.1656945506837</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-34.80471446812169,173.16515043855676</t>
+          <t>-34.80474206834478,173.16519801141595</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>-34.80538388464426,173.1647496922845</t>
+          <t>-34.80540400156241,173.16479404831858</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -11168,17 +11552,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-34.80415549107081,173.1657557954984</t>
+          <t>-34.80412202546422,173.16570980039046</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-34.80469086265279,173.1651097512681</t>
+          <t>-34.80470974702901,173.16514230109718</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>-34.80540730368998,173.1648013292247</t>
+          <t>-34.805397527653156,173.16477977391216</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -11195,17 +11579,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-34.80410078881344,173.16568061278326</t>
+          <t>-34.804117790065334,173.16570397926534</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-34.80456588313874,173.16489433258087</t>
+          <t>-34.80468095353978,173.16509267155604</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>-34.80530259127328,173.1645704481412</t>
+          <t>-34.8053785404062,173.16473790871964</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -11222,17 +11606,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-34.8040960165314,173.16567405377248</t>
+          <t>-34.80411415120128,173.1656989780175</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-34.804625337949446,173.16499681063004</t>
+          <t>-34.8046717188668,173.16507675434113</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>-34.80529872429177,173.1645619218385</t>
+          <t>-34.805365244979804,173.16470859351617</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -11249,17 +11633,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-34.80401804932249,173.16556689604076</t>
+          <t>-34.80409870094011,173.16567774321595</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-34.80467254894986,173.1650781851019</t>
+          <t>-34.804671096304524,173.1650756812706</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>-34.805329269084424,173.1646292700715</t>
+          <t>-34.8053565986039,173.16468952905882</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -11274,15 +11658,19 @@
           <t>2011-10-21 22:10:56+00:00</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>-34.804086054391455,173.1656603618399</t>
+        </is>
+      </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-34.8047062710593,173.16513630978136</t>
+          <t>-34.80466253607195,173.1650609265523</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>-34.805379279040814,173.16473953734234</t>
+          <t>-34.80535016813144,173.16467535047</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -11299,17 +11687,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-34.80415352250619,173.1657530899028</t>
+          <t>-34.80409207939844,173.16566864258914</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-34.804735323931105,173.16518638646625</t>
+          <t>-34.80466108342626,173.16505842272161</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>-34.80541929562322,173.16482777041503</t>
+          <t>-34.80534582321666,173.16466577034365</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -11326,17 +11714,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-34.80416521458597,173.16576915950287</t>
+          <t>-34.80410818584991,173.1656907792515</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-34.80475244436365,173.1652158959577</t>
+          <t>-34.80469838527624,173.1651227175444</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>-34.80540447950195,173.1647951021339</t>
+          <t>-34.805366200860384,173.16471070114488</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -11353,17 +11741,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-34.804175474980745,173.16578326140055</t>
+          <t>-34.804128050467796,173.16571808114688</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-34.80473324872668,173.16518280955898</t>
+          <t>-34.80471996741576,173.16515991735702</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-34.805386404691035,173.16475524876276</t>
+          <t>-34.80538375429698,173.16474940488047</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -11380,17 +11768,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-34.80388460407589,173.1653834903529</t>
+          <t>-34.80409470415377,173.16567225004465</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-34.804652575071785,173.1650437574294</t>
+          <t>-34.80471841101185,173.16515723467757</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>-34.805331745687596,173.1646347307412</t>
+          <t>-34.805385492260335,173.16475323693436</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -11407,17 +11795,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-34.80391138859362,173.16542030262283</t>
+          <t>-34.80405801722273,173.16562182767606</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-34.80475763237208,173.16522483823022</t>
+          <t>-34.80472624491092,173.16517073749844</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>-34.80539622418129,173.16477689987087</t>
+          <t>-34.80538762126527,173.16475793120063</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -11434,17 +11822,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-34.8038576405856,173.1653464321453</t>
+          <t>-34.80402467087188,173.1655759966513</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-34.80465293823329,173.16504438338694</t>
+          <t>-34.80471400120045,173.16514963375303</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>-34.80531306253482,173.16459353622335</t>
+          <t>-34.80537519482572,173.16473053201722</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -11459,15 +11847,19 @@
           <t>2012-10-23 22:13:24+00:00</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr"/>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>-34.80388454442217,173.1653834083657</t>
+        </is>
+      </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-34.80468323626759,173.16509660614904</t>
+          <t>-34.8046866084789,173.16510241861636</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>-34.80537827971165,173.16473733391166</t>
+          <t>-34.80535481718942,173.1646856012063</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -11485,10 +11877,14 @@
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-34.80472256142214,173.16516438848961</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
+          <t>-34.80470289884964,173.1651304973113</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>-34.80537827971165,173.16473733391166</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr">
         <is>
           <t>L7</t>
@@ -11508,12 +11904,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-34.8047603301362,173.1652294882124</t>
+          <t>-34.804722042620874,173.16516349426308</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-34.80541590659919,173.16482029790396</t>
+          <t>-34.80539709316255,173.1647788158984</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -11530,17 +11926,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-34.804101743269825,173.1656819245855</t>
+          <t>-34.8041424269591,173.16573784018448</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-34.80462004616354,173.16498768954116</t>
+          <t>-34.80469656947071,173.16511958775337</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-34.80527069952008,173.16450013011783</t>
+          <t>-34.80535494753681,173.1646858886101</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -11557,17 +11953,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-34.804276647156435,173.16592231285784</t>
+          <t>-34.804187167056455,173.16579933100917</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-34.80480697029905,173.16530987929804</t>
+          <t>-34.80471861853236,173.16515759236816</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>-34.805442888431486,173.16487979060526</t>
+          <t>-34.805376932789684,173.16473436407037</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -11582,15 +11978,19 @@
           <t>2013-05-03 22:13:30+00:00</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr"/>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>-34.804187167056455,173.16579933100917</t>
+        </is>
+      </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-34.80464375543418,173.16502855560526</t>
+          <t>-34.8047107327517,173.16514400012713</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>-34.80533609060482,173.16464431086428</t>
+          <t>-34.80536637465683,173.16471108435007</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -11607,17 +12007,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-34.80417654874288,173.16578473718076</t>
+          <t>-34.80418454230497,173.1657957235456</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-34.804743365347285,173.16520024698343</t>
+          <t>-34.80471618016614,173.16515338950387</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>-34.80540282843805,173.164791461681</t>
+          <t>-34.80537367410717,173.16472717897088</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -11634,17 +12034,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-34.8040020025017,173.16554484141406</t>
+          <t>-34.80414803438638,173.16574554703084</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-34.80468961752878,173.16510760512605</t>
+          <t>-34.80471239291618,173.16514686165132</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>-34.80535929244999,173.16469546873856</t>
+          <t>-34.805371284406405,173.16472190989828</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -11661,17 +12061,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-34.80399734951944,173.16553844639378</t>
+          <t>-34.80412292026677,173.16571103020567</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-34.80469599878895,173.16511860410475</t>
+          <t>-34.80471031771057,173.16514328474608</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>-34.8053589883061,173.16469479812955</t>
+          <t>-34.80536954644207,173.16471807784566</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -11688,17 +12088,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-34.803858416084374,173.16534749797836</t>
+          <t>-34.80408509993485,173.16565905003813</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-34.80464780209167,173.16503553055946</t>
+          <t>-34.804700979284,173.1651271886747</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>-34.80533722028319,173.16464680169645</t>
+          <t>-34.8053655056745,173.164709168324</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -11715,17 +12115,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-34.80415572968468,173.1657561234494</t>
+          <t>-34.804093928657885,173.16567118420548</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-34.80473874801819,173.16519228836356</t>
+          <t>-34.804705181576225,173.16513443190635</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-34.80542559573074,173.16484166162314</t>
+          <t>-34.80537215338853,173.16472382592465</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -11742,17 +12142,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-34.804052051866094,173.16561362892116</t>
+          <t>-34.80408927568239,173.16566478917102</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-34.80474191270449,173.16519774314784</t>
+          <t>-34.80470886506658,173.1651407809125</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>-34.80538966337186,173.1647624338644</t>
+          <t>-34.80537393480181,173.16472775377883</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -11769,17 +12169,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-34.80414302349394,173.1657386600617</t>
+          <t>-34.8040848613207,173.16565872208773</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-34.80478045960128,173.16526418424272</t>
+          <t>-34.804710888392115,173.165144268395</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-34.805411301001705,173.16481014295397</t>
+          <t>-34.805373456861666,173.16472669996426</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -11796,13 +12196,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-34.804211565309586,173.16583286403355</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr"/>
+          <t>-34.804097030641366,173.1656754475622</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>-34.80472095313821,173.16516161638737</t>
+        </is>
+      </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-34.805410388571914,173.1648081311244</t>
+          <t>-34.805387447468945,173.1647575479952</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -11819,17 +12223,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-34.80455516807217,173.16630511605953</t>
+          <t>-34.8041428445335,173.1657384140985</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-34.804774649035075,173.165254168892</t>
+          <t>-34.804726348671146,173.16517091634375</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-34.80539939596272,173.1647838933715</t>
+          <t>-34.8053885336959,173.16475994302914</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -11846,17 +12250,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-34.80483297192971,173.16668693796638</t>
+          <t>-34.80443568280891,173.1661408932527</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-34.804826788460986,173.16534403883009</t>
+          <t>-34.80479394841249,173.16528743416936</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-34.805438586981936,173.164870306259</t>
+          <t>-34.80541490727151,173.16481809447131</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -11873,17 +12277,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-34.80490819410891,173.1667903263015</t>
+          <t>-34.80462699035865,173.1664038303461</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-34.804752081203034,173.16521526999864</t>
+          <t>-34.80478450624512,173.1652711592199</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-34.80540500089054,173.16479625175063</t>
+          <t>-34.80541334310636,173.16481464562034</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -11900,17 +12304,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-34.80490133404076,173.16678089753992</t>
+          <t>-34.80479938737519,173.166640778128</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-34.804754052646324,173.16521866806204</t>
+          <t>-34.80477687987756,173.16525801407113</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>-34.80540096012874,173.1647873422213</t>
+          <t>-34.805410996858434,173.1648094723441</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -11927,17 +12331,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-34.80455761384904,173.16630847758972</t>
+          <t>-34.80480004355671,173.16664168000727</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-34.80477874755954,173.16526123329103</t>
+          <t>-34.80477791747867,173.1652598025266</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>-34.805377845220704,173.16473637589831</t>
+          <t>-34.805405609177214,173.1647975929702</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -11954,17 +12358,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-34.80397557594412,173.16550852098794</t>
+          <t>-34.80463516282297,173.16641506279655</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-34.80469605066912,173.16511869352735</t>
+          <t>-34.80476152337796,173.16523154493535</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>-34.80534638805564,173.16466701576002</t>
+          <t>-34.80539374758457,173.16477143919266</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -11981,17 +12385,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-34.80407173754089,173.16564068481682</t>
+          <t>-34.804541268899364,173.1662860127331</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-34.80470601165858,173.16513586266828</t>
+          <t>-34.80475228872338,173.16521562768952</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>-34.80536024833079,173.16469757636696</t>
+          <t>-34.80538818610327,173.16475917661828</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -12008,17 +12412,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-34.8041404583941,173.1657351345897</t>
+          <t>-34.80448400188909,173.16620730381646</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-34.80469739955325,173.16512101851495</t>
+          <t>-34.80474445482938,173.16520212486014</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>-34.80536650500418,173.164711371754</t>
+          <t>-34.8053850577695,173.16475227892087</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -12035,17 +12439,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-34.804136342303416,173.16572947743742</t>
+          <t>-34.804440514718586,173.16614753430557</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-34.80472484414762,173.16516832308656</t>
+          <t>-34.80474201646468,173.16519792199324</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>-34.805380365268114,173.16474193237576</t>
+          <t>-34.80538449293142,173.16475103350336</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -12062,17 +12466,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-34.804015901792795,173.1655639444917</t>
+          <t>-34.80433838835174,173.16600717048837</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-34.804599294055315,173.16495192057644</t>
+          <t>-34.80471353427923,173.16514882894927</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>-34.80535412200323,173.16468406838584</t>
+          <t>-34.80537393480181,173.16472775377883</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -12087,15 +12491,19 @@
           <t>2014-09-19 22:17:42+00:00</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr"/>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>-34.804149585376805,173.16574767871194</t>
+        </is>
+      </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-34.8046301109322,173.1650050374955</t>
+          <t>-34.804690343851114,173.16510885704224</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>-34.805309325902584,173.164585297322</t>
+          <t>-34.80535638135825,173.1646890500524</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -12117,12 +12525,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-34.804633016225786,173.16501004515322</t>
+          <t>-34.804631563579015,173.16500754132431</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>-34.80528017146196,173.16452101475673</t>
+          <t>-34.80529477041117,173.1645532039343</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -12139,17 +12547,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-34.804050441219694,173.16561141525753</t>
+          <t>-34.8040716182338,173.16564052084163</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-34.80465672548882,173.1650509112301</t>
+          <t>-34.804644896799154,173.1650305229</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>-34.80533539541812,173.1646427780445</t>
+          <t>-34.80530780517999,173.16458194428094</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -12166,17 +12574,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-34.804141532156834,173.16573661036864</t>
+          <t>-34.80409494276788,173.16567257799517</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-34.804679241493815,173.16508972061143</t>
+          <t>-34.80465631044713,173.16505019585003</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>-34.805371023711764,173.16472133509038</t>
+          <t>-34.805328878041806,173.16462840786048</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -12193,17 +12601,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-34.80414946606985,173.16574751473647</t>
+          <t>-34.804108543771015,173.1656912711774</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-34.80473075848121,173.16517851727056</t>
+          <t>-34.80467493543852,173.16508229853918</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>-34.80539170547831,173.16476693652842</t>
+          <t>-34.805344563191255,173.1646629921072</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -12220,17 +12628,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-34.804121488582695,173.1657090625013</t>
+          <t>-34.80411570219255,173.16570110969687</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-34.80467441663666,173.16508140431367</t>
+          <t>-34.80468525959442,173.16510009362935</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>-34.80534764808096,173.16466979399658</t>
+          <t>-34.805361464906284,173.16470025880315</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -12247,17 +12655,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-34.804842695340945,173.16670030218947</t>
+          <t>-34.80426113728148,173.16590099598503</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-34.80470865754601,173.16514042322203</t>
+          <t>-34.80468998068995,173.16510823108413</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>-34.805373630658075,173.16472708316954</t>
+          <t>-34.80536389805714,173.16470562367581</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -12274,17 +12682,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-34.80478501103292,173.16662101877702</t>
+          <t>-34.80434846975859,173.16602102648062</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-34.80468432575128,173.16509848402305</t>
+          <t>-34.80468904684692,173.1651066214776</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>-34.80534856051306,173.1646718058231</t>
+          <t>-34.805361334558924,173.16469997139927</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -12301,17 +12709,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-34.80479747848346,173.16663815447933</t>
+          <t>-34.804472966053034,173.16619213596482</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-34.80475675041069,173.1652233180438</t>
+          <t>-34.804705700377696,173.16513532613254</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>-34.80541803560152,173.16482499217366</t>
+          <t>-34.805375107927524,173.1647303404146</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -12328,17 +12736,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-34.80490389910981,173.16678442307668</t>
+          <t>-34.80453452809771,173.1662767480321</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-34.80474367662789,173.16520078351965</t>
+          <t>-34.80471109591268,173.16514462608552</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>-34.805421554972305,173.1648327520894</t>
+          <t>-34.80538175563899,173.16474499801865</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -12355,17 +12763,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-34.804917619244804,173.16680328060255</t>
+          <t>-34.80464536348863,173.16642908286553</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-34.804683910709876,173.16509776864245</t>
+          <t>-34.80471177035451,173.16514578857974</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>-34.80533604715565,173.16464421506305</t>
+          <t>-34.80537675899328,173.16473398086507</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -12380,15 +12788,19 @@
           <t>2016-04-17 22:17:09+00:00</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr"/>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>-34.804850987083064,173.16671169867664</t>
+        </is>
+      </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-34.80474071946215,173.16519568642585</t>
+          <t>-34.804721886980495,173.16516322599512</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>-34.8053982662872,173.1647814025356</t>
+          <t>-34.80538449293142,173.16475103350336</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -12410,12 +12822,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-34.8047232877439,173.1651656404068</t>
+          <t>-34.80473200360396,173.16518066341476</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>-34.80538731712172,173.16475726059116</t>
+          <t>-34.805392791705046,173.16476933156258</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -12432,17 +12844,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-34.80486804778647,173.16673514757113</t>
+          <t>-34.804858622643195,173.16672219328558</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-34.80476614070447,173.1652395035596</t>
+          <t>-34.804743365347285,173.16520024698343</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>-34.80538875094127,173.1647604220359</t>
+          <t>-34.805391444783865,173.16476636172027</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -12459,17 +12871,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-34.80482354678122,173.1666739836918</t>
+          <t>-34.804846930691376,173.16670612341642</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-34.80472940959818,173.1651761922811</t>
+          <t>-34.80473962997997,173.1651938085493</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>-34.80539991735141,173.16478504298811</t>
+          <t>-34.80539200962179,173.164767607138</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -12486,17 +12898,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-34.80491111709426,173.16679434377428</t>
+          <t>-34.804862977298185,173.1667281784931</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-34.80480712593909,173.16531014756654</t>
+          <t>-34.80475649101029,173.16522287093017</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>-34.80545405481728,173.16490441158956</t>
+          <t>-34.805407520935205,173.16480180823172</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -12513,17 +12925,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-34.804318941373026,173.1659804423708</t>
+          <t>-34.804754170486824,173.1665786304829</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-34.804820251581425,173.16533277154807</t>
+          <t>-34.80476925350855,173.1652448689248</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>-34.80544088977826,173.16487538373715</t>
+          <t>-34.80541416863798,173.16481646584722</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -12540,17 +12952,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-34.80413473165917,173.1657272637693</t>
+          <t>-34.804454950792206,173.16616737548057</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-34.80478564760613,173.1652731265213</t>
+          <t>-34.80480432441805,173.16530531873346</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>-34.80544805885978,173.1648911909824</t>
+          <t>-34.80544766781902,173.16489032876893</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -12567,15 +12979,19 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-34.804172373001094,173.1657789980358</t>
+          <t>-34.80438432137589,173.16607030136802</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-34.80476821590721,173.16524308046968</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
+          <t>-34.80479529729337,173.16528975916245</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>-34.80544766781902,173.16489032876893</t>
+        </is>
+      </c>
       <c r="E160" t="inlineStr">
         <is>
           <t>L8</t>
@@ -12590,17 +13006,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-34.80417941210852,173.16578867259477</t>
+          <t>-34.8042013645741,173.1658188441114</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-34.80476956478895,173.1652454054613</t>
+          <t>-34.80478590700635,173.16527357363526</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>-34.805442888431486,173.16487979060526</t>
+          <t>-34.80544393120704,173.16488208984086</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -12615,15 +13031,19 @@
           <t>2017-10-29 22:17:53+00:00</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr"/>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>-34.8041621722593,173.1657649781269</t>
+        </is>
+      </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-34.80473480513002,173.16518549223943</t>
+          <t>-34.80476458430233,173.16523682087717</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>-34.80536615741125,173.16471060534357</t>
+          <t>-34.80541903492908,173.16482719560645</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -12638,15 +13058,19 @@
           <t>2017-11-30 22:17:44+00:00</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr"/>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>-34.8041621722593,173.1657649781269</t>
+        </is>
+      </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-34.80469786647467,173.16512182331837</t>
+          <t>-34.80475119924152,173.16521374981244</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>-34.80536029177991,173.16469767216824</t>
+          <t>-34.80540434915481,173.1647948147297</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -12661,15 +13085,19 @@
           <t>2018-01-01 22:17:44+00:00</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr"/>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>-34.80417589255491,173.16578383531507</t>
+        </is>
+      </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-34.80474632251284,173.16520534407752</t>
+          <t>-34.804743365347285,173.16520024698343</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>-34.80541008442863,173.16480746051454</t>
+          <t>-34.8053948772603,173.16477393002833</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -12691,12 +13119,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-34.80476842342748,173.1652434381607</t>
+          <t>-34.80473682845425,173.1651889797241</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>-34.80542472675051,173.16483974559432</t>
+          <t>-34.805390315107985,173.16476387088485</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -12713,17 +13141,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-34.80410037123879,173.1656800388698</t>
+          <t>-34.804101206388104,173.16568118669673</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-34.80477070615037,173.16524737276197</t>
+          <t>-34.80474585559198,173.16520453927316</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>-34.805440324941436,173.16487413831794</t>
+          <t>-34.80540886785551,173.16480477807517</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -12740,17 +13168,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-34.80407668878542,173.16564748978652</t>
+          <t>-34.80409303385493,173.16566995439112</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-34.80477189939184,173.16524942948547</t>
+          <t>-34.804764324901974,173.16523637376346</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>-34.80543272136769,173.1648573730611</t>
+          <t>-34.80542694265009,173.16484463146793</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -12767,17 +13195,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-34.804119281403004,173.1657060289572</t>
+          <t>-34.80409959574298,173.1656789730305</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-34.80475955193503,173.16522814687136</t>
+          <t>-34.80476764522647,173.1652420968194</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>-34.80540804232372,173.1648029578485</t>
+          <t>-34.805426464710976,173.16484357765202</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -12794,17 +13222,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-34.804840965408985,173.16669792450537</t>
+          <t>-34.804345666053884,173.16601717303865</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-34.80475898125415,173.16522716322126</t>
+          <t>-34.80476349482081,173.16523494299952</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>-34.80543663177734,173.1648659951928</t>
+          <t>-34.80542581297581,173.16484214063036</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -12821,17 +13249,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-34.80482724525738,173.16667906701437</t>
+          <t>-34.80446604628458,173.16618262531398</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-34.80476017449597,173.16522921994417</t>
+          <t>-34.80476266473961,173.16523351223566</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>-34.80543380759266,173.16485976809759</t>
+          <t>-34.80542781163026,173.16484654749686</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -12848,7 +13276,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-34.804836133529854,173.16669128338827</t>
+          <t>-34.80465592207065,173.16644359487037</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -12858,7 +13286,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>-34.80544110702319,173.16487586274454</t>
+          <t>-34.805429897182556,173.16485114596645</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -12875,17 +13303,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-34.80484353048048,173.16670145003698</t>
+          <t>-34.804836968669484,173.16669243123562</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-34.80481542674106,173.16532445522202</t>
+          <t>-34.804773507673744,173.16525220159116</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>-34.80544019459448,173.16487385091355</t>
+          <t>-34.80543793524708,173.1648688692369</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -12900,15 +13328,19 @@
           <t>2019-03-25 22:17:09+00:00</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr"/>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>-34.804836968669484,173.16669243123562</t>
+        </is>
+      </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-34.80482689222098,173.16534421767588</t>
+          <t>-34.80478419496485,173.16527062268315</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>-34.80544671194159,173.16488822113612</t>
+          <t>-34.80543967320664,173.16487270129582</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -12923,15 +13355,19 @@
           <t>2019-04-26 22:16:59+00:00</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr"/>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>-34.804836968669484,173.16669243123562</t>
+        </is>
+      </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-34.8048074372192,173.16531068410356</t>
+          <t>-34.80478808596816,173.1652773293926</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>-34.805458921100566,173.16491514135913</t>
+          <t>-34.805442888431486,173.16487979060526</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -12946,15 +13382,19 @@
           <t>2019-05-28 22:17:17+00:00</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr"/>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>-34.80483565630719,173.1666906274755</t>
+        </is>
+      </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-34.80477413023446,173.16525327466434</t>
+          <t>-34.804790628090146,173.16528171110977</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>-34.805444409145814,173.1648831436572</t>
+          <t>-34.8054441919009,173.16488266464978</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -12976,12 +13416,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-34.80478165284246,173.16526624096667</t>
+          <t>-34.80477791747867,173.1652598025266</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>-34.80542828956934,173.1648476013128</t>
+          <t>-34.80543632763439,173.16486532458254</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -12998,17 +13438,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-34.80447272744034,173.16619180801135</t>
+          <t>-34.80470101972322,173.16650557839046</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-34.80476463618241,173.1652369102999</t>
+          <t>-34.80477314451331,173.1652515756318</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>-34.80544414845193,173.1648825688483</t>
+          <t>-34.805436197287406,173.16486503717815</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -13025,17 +13465,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-34.804690341842765,173.16649090239218</t>
+          <t>-34.80469744054563,173.166500659061</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-34.80474876087726,173.16520954694485</t>
+          <t>-34.80476499934291,173.16523753625913</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>-34.80538583985298,173.16475400334517</t>
+          <t>-34.80541942597029,173.1648280578193</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -13052,17 +13492,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-34.80475900237221,173.16658527158683</t>
+          <t>-34.80471283100787,173.16652181218066</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-34.80479477849303,173.16528886493433</t>
+          <t>-34.80477247007252,173.16525041313588</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>-34.8054619190782,173.16492175166422</t>
+          <t>-34.80543007097858,173.16485152917227</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -13079,17 +13519,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-34.80441098637592,173.16610695010556</t>
+          <t>-34.8046524621965,173.16643883952378</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-34.804842352455715,173.1653708656992</t>
+          <t>-34.8047864258068,173.16527446786316</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>-34.80548290491141,173.1649680238132</t>
+          <t>-34.80544062908434,173.1648748089283</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -13106,17 +13546,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-34.8043549123136,173.16602988119934</t>
+          <t>-34.80460289053074,173.16637070692855</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-34.80476333918058,173.16523467473132</t>
+          <t>-34.80478258668335,173.16526785057678</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>-34.805449927165526,173.16489531044672</t>
+          <t>-34.805442193247785,173.16487825778154</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -13133,17 +13573,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-34.8044141479971,173.16611129548318</t>
+          <t>-34.80457592734607,173.16633364807825</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-34.80482357190134,173.16533849461175</t>
+          <t>-34.804788449128466,173.1652779553522</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>-34.80548772774014,173.16497865778865</t>
+          <t>-34.80544866714539,173.1648925322033</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -13160,17 +13600,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-34.80409315316199,173.16567011836636</t>
+          <t>-34.80440645273018,173.16610071899865</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-34.80477288511301,173.16525112851798</t>
+          <t>-34.80479939581574,173.16529682356497</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>-34.80545036165522,173.16489626846172</t>
+          <t>-34.80546656811524,173.16493200242815</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -13187,17 +13627,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-34.804242167506196,173.1658749238207</t>
+          <t>-34.804276110276206,173.16592157496595</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-34.80477013546966,173.16524638911164</t>
+          <t>-34.80478248292325,173.16526767173121</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>-34.805442540839636,173.1648790241934</t>
+          <t>-34.80545761763192,173.16491226731358</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -13214,17 +13654,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-34.804203273483786,173.16582146772234</t>
+          <t>-34.80423817072892,173.16586943063035</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-34.80477745055816,173.16525899772162</t>
+          <t>-34.80478601076644,173.16527375248083</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>-34.805446407798755,173.16488755052566</t>
+          <t>-34.80545674865279,173.16491035128328</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -13239,15 +13679,19 @@
           <t>2021-01-25 22:17:44+00:00</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr"/>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>-34.804222720497975,173.16584819576525</t>
+        </is>
+      </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-34.80478964236939,173.16528001207658</t>
+          <t>-34.80477905883986,173.16526176982768</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>-34.80544028149245,173.1648740425165</t>
+          <t>-34.805443062227425,173.16488017381118</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -13269,12 +13713,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-34.80484655473327,173.1653781089556</t>
+          <t>-34.80481812450133,173.16532910521065</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>-34.80549146434555,173.16498689672542</t>
+          <t>-34.80546587293218,173.16493046960355</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -13289,15 +13733,19 @@
           <t>2021-07-04 22:17:29+00:00</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr"/>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>-34.80438772161141,173.16607497469565</t>
+        </is>
+      </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-34.80468126482085,173.16509320809143</t>
+          <t>-34.80477247007252,173.16525041313588</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>-34.80535264473254,173.16468081114246</t>
+          <t>-34.805428115773324,173.16484721810698</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -13312,15 +13760,19 @@
           <t>2021-08-21 22:17:46+00:00</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr"/>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>-34.80438772161141,173.16607497469565</t>
+        </is>
+      </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-34.80466061650441,173.1650576179189</t>
+          <t>-34.804729461478296,173.1651762817038</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>-34.805337654774846,173.16464775970883</t>
+          <t>-34.80539392138083,173.16477182239817</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -13338,12 +13790,12 @@
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-34.80470497405564,173.1651340742159</t>
+          <t>-34.8046823024244,173.16509499654276</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>-34.80538544881124,173.16475314113302</t>
+          <t>-34.80535859726393,173.16469393591794</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -13361,12 +13813,12 @@
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-34.80474601123227,173.1652048075413</t>
+          <t>-34.80469822963576,173.16512244927657</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>-34.805401524966456,173.16478858763935</t>
+          <t>-34.80536932919652,173.1647175988391</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -13384,12 +13836,12 @@
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-34.80477039486998,173.16524683622544</t>
+          <t>-34.80471265231688,173.1651473087645</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>-34.805421946013475,173.16483361430232</t>
+          <t>-34.805379843879,173.16474078275974</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -13411,12 +13863,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-34.8047188260529,173.16515795005873</t>
+          <t>-34.80472017493627,173.1651602750476</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>-34.805352427486824,173.1646803321361</t>
+          <t>-34.80537980042992,173.16474068695837</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -13433,17 +13885,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-34.80417833834641,173.1657871968145</t>
+          <t>-34.804195637844686,173.16581097327943</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-34.80467223766872,173.16507764856658</t>
+          <t>-34.80471218539562,173.1651465039608</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>-34.80532783526143,173.16462610863127</t>
+          <t>-34.80537115405909,173.16472162249434</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -13460,15 +13912,19 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-34.80423530736596,173.16586549521074</t>
+          <t>-34.80420888090566,173.16582917458</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-34.80490357077694,173.16547638481538</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr"/>
+          <t>-34.80475265188399,173.16521625364857</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>-34.805377845220704,173.16473637589831</t>
+        </is>
+      </c>
       <c r="E195" t="inlineStr">
         <is>
           <t>L8</t>
@@ -13483,17 +13939,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-34.80421973782747,173.16584409637133</t>
+          <t>-34.804211565309586,173.16583286403355</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-34.80470383269234,173.16513210691835</t>
+          <t>-34.804745699951695,173.16520427100505</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>-34.805364332548315,173.16470658168882</t>
+          <t>-34.80537558586762,173.1647313942292</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -13510,17 +13966,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-34.804139384631334,173.16573365881078</t>
+          <t>-34.804197129180515,173.1658130229752</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-34.804763650461034,173.16523521126777</t>
+          <t>-34.804754052646324,173.16521866806204</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>-34.80539970010612,173.1647845639812</t>
+          <t>-34.80537797556798,173.16473666330234</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -13537,17 +13993,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-34.804175474980745,173.16578326140055</t>
+          <t>-34.80419354997444,173.1658081037056</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-34.804750369160075,173.16521231904898</t>
+          <t>-34.80475467520735,173.16521974113473</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>-34.805385231565836,173.16475266212626</t>
+          <t>-34.80537523827483,173.16473062781856</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -13564,17 +14020,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-34.80406738283154,173.16563469972363</t>
+          <t>-34.80417553463419,173.16578334338834</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-34.80471446812169,173.16515043855676</t>
+          <t>-34.80474668567351,173.16520597003648</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>-34.80538058251357,173.16474241138246</t>
+          <t>-34.80536837331608,173.16471549121027</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -13591,17 +14047,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-34.80410460663883,173.16568585999244</t>
+          <t>-34.8041600247345,173.1657620265676</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-34.804693871702334,173.16511493777833</t>
+          <t>-34.80474315782689,173.1651998892926</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>-34.80531714676012,173.16460254153495</t>
+          <t>-34.80536246423614,173.16470246223298</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -13618,17 +14074,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-34.80416682522945,173.16577137317265</t>
+          <t>-34.80415841409084,173.1657598128982</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-34.80471913733369,173.1651584865946</t>
+          <t>-34.80474985035918,173.16521142482182</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>-34.80536980713674,173.16471865265356</t>
+          <t>-34.80536945954386,173.16471788624307</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -13645,17 +14101,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-34.80410329426139,173.16568405626424</t>
+          <t>-34.80415149428806,173.16575030231957</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>-34.80474492175024,173.16520292966447</t>
+          <t>-34.804749227798084,173.16521035174927</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>-34.805407868527546,173.16480257464292</t>
+          <t>-34.80537493413113,173.1647299572093</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -13672,17 +14128,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-34.80487371480233,173.1667429365417</t>
+          <t>-34.80423131058824,173.1658600020213</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-34.80470647857992,173.16513666747184</t>
+          <t>-34.80472458474699,173.16516787597328</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>-34.80536137800804,173.16470006720056</t>
+          <t>-34.80537323961615,173.16472622095768</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -13699,11 +14155,19 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-34.80481853594222,173.1666670966103</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr"/>
+          <t>-34.804306175561685,173.16596289692623</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>-34.80472754191392,173.16517297306507</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>-34.80537454308922,173.16472909499737</t>
+        </is>
+      </c>
       <c r="E204" t="inlineStr">
         <is>
           <t>L9</t>
@@ -13718,17 +14182,17 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-34.80479383965844,173.1666331531494</t>
+          <t>-34.804476783855996,173.16619738322115</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>-34.804646297565206,173.1650329373072</t>
+          <t>-34.80470212064736,173.1651291559721</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>-34.80533222362852,173.16463578455466</t>
+          <t>-34.8053576848322,173.16469192409093</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -13745,17 +14209,17 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-34.80483774415627,173.16669349709386</t>
+          <t>-34.80452838382656,173.16626830321738</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-34.80470004544123,173.16512557906773</t>
+          <t>-34.804701809366456,173.16512861943644</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>-34.80537210993943,173.16472373012334</t>
+          <t>-34.805360074534285,173.1646971931618</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -13772,17 +14236,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-34.80488051522069,173.1667522833078</t>
+          <t>-34.80484084610333,173.16669776052717</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-34.80466907297698,173.16507219379145</t>
+          <t>-34.804680486618146,173.16509186675296</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>-34.805253059104956,173.16446123488564</t>
+          <t>-34.80532970357623,173.1646302280837</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -13799,17 +14263,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-34.80484245672964,173.166699974233</t>
+          <t>-34.804841144367465,173.16669817047267</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-34.80472064185744,173.16516107985146</t>
+          <t>-34.804688528045226,173.16510572725178</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>-34.805348690860505,173.1646720932269</t>
+          <t>-34.80533348365458,173.16463856279032</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -13824,15 +14288,19 @@
           <t>2023-03-01 20:19:07+00:00</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr"/>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>-34.804841144367465,173.16669817047267</t>
+        </is>
+      </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-34.80464116142276,173.16502408448113</t>
+          <t>-34.804680590378524,173.16509204559807</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>-34.8053005057103,173.16456584968572</t>
+          <t>-34.80532800905816,173.16462649183612</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -13847,15 +14315,19 @@
           <t>2023-03-20 22:17:28+00:00</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr"/>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>-34.804841144367465,173.16669817047267</t>
+        </is>
+      </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-34.80465418335843,173.16504652952707</t>
+          <t>-34.804676855005404,173.16508560717372</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>-34.80530346025782,173.1645723641644</t>
+          <t>-34.80532448967411,173.16461873193788</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -13870,11 +14342,19 @@
           <t>2023-04-13 22:17:27+00:00</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr"/>
-      <c r="C211" t="inlineStr"/>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>-34.804841144367465,173.16669817047267</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>-34.804676855005404,173.16508560717372</t>
+        </is>
+      </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>-34.80531132456641,173.1645897041761</t>
+          <t>-34.805322838604894,173.16461509149198</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -13891,17 +14371,17 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-34.804188002204654,173.16580047883852</t>
+          <t>-34.80470853599552,173.16651590898368</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-34.80477091367064,173.16524773045305</t>
+          <t>-34.80468603779701,173.165101434968</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>-34.805394312422436,173.16477268461048</t>
+          <t>-34.80532696627776,173.16462419260694</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -13918,17 +14398,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-34.804119758631046,173.16570668485863</t>
+          <t>-34.80461040681468,173.1663810374973</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-34.80463825612975,173.16501907682246</t>
+          <t>-34.80468007157671,173.16509115137245</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>-34.80533231052688,173.16463597615714</t>
+          <t>-34.805327574566334,173.16462553382397</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -13945,17 +14425,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-34.803999139128045,173.16554090601687</t>
+          <t>-34.80452307469857,173.1662610062426</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-34.80464468927825,173.16503016521003</t>
+          <t>-34.80467612868281,173.16508435525793</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>-34.80530511132833,173.16457600460856</t>
+          <t>-34.805325315208684,173.16462055216084</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -13972,17 +14452,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-34.804032127570814,173.16558624508835</t>
+          <t>-34.80446169160233,173.16617664016383</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>-34.80462990341123,173.1650046798057</t>
+          <t>-34.80467151134605,173.16507639665096</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>-34.80532774836306,173.16462591702884</t>
+          <t>-34.805325532454624,173.16462103116692</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -13999,17 +14479,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-34.804078239777596,173.16564962146393</t>
+          <t>-34.80437227141693,173.16605373975383</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-34.80473547957144,173.1651866547343</t>
+          <t>-34.804680434737975,173.1650917773304</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>-34.8053684602143,173.1647156828129</t>
+          <t>-34.805328834592615,173.16462831205928</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -14026,17 +14506,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-34.804028548355426,173.16558132583833</t>
+          <t>-34.80427109939389,173.1659146879755</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-34.80473869613809,173.16519219894087</t>
+          <t>-34.8046842738711,173.16509839460045</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>-34.80542828956934,173.1648476013128</t>
+          <t>-34.8053339181463,173.1646395208026</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -14053,17 +14533,17 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-34.80403147138134,173.1655853432258</t>
+          <t>-34.80424449398838,173.16587812134964</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-34.80478798220808,173.165277150547</t>
+          <t>-34.804693716061855,173.16511466951056</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>-34.80542103358408,173.16483160247222</t>
+          <t>-34.80534117415703,173.16465551960957</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -14080,17 +14560,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-34.80400415003186,173.16554779296212</t>
+          <t>-34.804060164750986,173.1656247792281</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>-34.80470995454957,173.1651426587877</t>
+          <t>-34.80470113492446,173.1651274569425</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>-34.80537871420258,173.164738291925</t>
+          <t>-34.80535707654437,173.1646905828729</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -14107,17 +14587,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-34.80421562174196,173.16583843920824</t>
+          <t>-34.804077464281505,173.16564855562524</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-34.80476712642578,173.16524120259186</t>
+          <t>-34.80471368991962,173.1651490972172</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>-34.805436762124316,173.16486628259722</t>
+          <t>-34.80537041542425,173.16471999387196</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -14132,15 +14612,19 @@
           <t>2023-10-14 22:17:45+00:00</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr"/>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>-34.804077464281505,173.16564855562524</t>
+        </is>
+      </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-34.80475726921151,173.16522421227108</t>
+          <t>-34.804718047850926,173.16515660871903</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>-34.805413125861186,173.16481416661324</t>
+          <t>-34.80538058251357,173.16474241138246</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -14155,15 +14639,19 @@
           <t>2023-10-22 22:17:50+00:00</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr"/>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>-34.804077464281505,173.16564855562524</t>
+        </is>
+      </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>-34.80473589461231,173.16518737011575</t>
+          <t>-34.804719656134985,173.1651593808211</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>-34.805388924737585,173.16476080524134</t>
+          <t>-34.80538136459718,173.1647441358066</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -14180,17 +14668,17 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-34.8040751377932,173.16564535810915</t>
+          <t>-34.80406493703575,173.1656313382332</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-34.80462590863219,173.16499779427696</t>
+          <t>-34.80470647857992,173.16513666747184</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>-34.80532379448708,173.16461719911854</t>
+          <t>-34.80537493413113,173.1647299572093</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -14205,15 +14693,19 @@
           <t>2024-01-10 22:17:52+00:00</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr"/>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>-34.804081580376,173.16565421276945</t>
+        </is>
+      </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-34.804664144358206,173.16506369865064</t>
+          <t>-34.80472116065871,173.16516197407796</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>-34.80533665544401,173.16464555628036</t>
+          <t>-34.80538557915848,173.16475342853707</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -14228,15 +14720,19 @@
           <t>2024-02-11 22:17:53+00:00</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr"/>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>-34.80409828336542,173.1656771693025</t>
+        </is>
+      </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-34.80467000682047,173.1650738033972</t>
+          <t>-34.804704351493854,173.1651330011445</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>-34.80533035531391,173.164631665102</t>
+          <t>-34.80537263132869,173.16472487973917</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -14251,15 +14747,19 @@
           <t>2024-02-19 22:17:39+00:00</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr"/>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>-34.80409828336542,173.1656771693025</t>
+        </is>
+      </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-34.804712341036044,173.16514677222872</t>
+          <t>-34.80470533721667,173.1651347001742</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>-34.8053793224899,173.16473963314368</t>
+          <t>-34.805373456861666,173.16472669996426</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -14276,17 +14776,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-34.80428279145199,173.1659307576212</t>
+          <t>-34.80417899453437,173.16578809868022</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-34.80478160096241,173.16526615154388</t>
+          <t>-34.804706737980645,173.16513711458495</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>-34.8054362841854,173.16486522878105</t>
+          <t>-34.80537263132869,173.16472487973917</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -14303,17 +14803,17 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-34.804214190059966,173.16583647149946</t>
+          <t>-34.80419068660946,173.16580416829018</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>-34.80475685417085,173.16522349688927</t>
+          <t>-34.804701809366456,173.16512861943644</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>-34.80541273481988,173.16481330440052</t>
+          <t>-34.80536985058583,173.16471874845487</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -14330,17 +14830,17 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-34.80426889221943,173.16591165442046</t>
+          <t>-34.80421025293435,173.1658310603007</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-34.80475322256495,173.1652172372985</t>
+          <t>-34.80470917634743,173.16514131744827</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>-34.805397527653156,173.16477977391216</t>
+          <t>-34.80537380445449,173.16472746637484</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -14357,17 +14857,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-34.80406302812188,173.16562871463108</t>
+          <t>-34.80420721060984,173.16582687892017</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-34.80471368991962,173.1651490972172</t>
+          <t>-34.80472167945998,173.1651628683045</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>-34.80537302237064,173.16472574195103</t>
+          <t>-34.805380843208106,173.16474298619048</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -14384,17 +14884,17 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-34.80407859769887,173.16565011338952</t>
+          <t>-34.804181499979215,173.1657915421677</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-34.80473314496644,173.16518263071367</t>
+          <t>-34.804723132103526,173.16516537213886</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>-34.805394312422436,173.16477268461048</t>
+          <t>-34.80538253772257,173.1647467224428</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -14411,17 +14911,17 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-34.80424789423141,173.1658827946615</t>
+          <t>-34.80419253586602,173.1658067099126</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-34.80476619258454,173.16523959298235</t>
+          <t>-34.80472790507475,173.16517359902372</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>-34.805429853733564,173.16485105016503</t>
+          <t>-34.805387795061584,173.16475831440604</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -14438,17 +14938,17 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-34.804169390328234,173.16577489864687</t>
+          <t>-34.8041892549269,173.16580220058262</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-34.8047666076251,173.16524030836436</t>
+          <t>-34.80473931869934,173.16519327201314</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>-34.805423988117255,173.16483811696986</t>
+          <t>-34.8053974842041,173.1647796781108</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -14465,17 +14965,17 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-34.80418531779973,173.1657967893871</t>
+          <t>-34.80418877769938,173.1658015446801</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-34.804768630947756,173.16524379585172</t>
+          <t>-34.8047502653999,173.16521214020355</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>-34.80541595004822,173.16482039370536</t>
+          <t>-34.805406999546676,173.1648006586149</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -14492,17 +14992,17 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-34.80431667454691,173.16597732682416</t>
+          <t>-34.804202975216654,173.1658210577831</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>-34.804795401053426,173.16528993800804</t>
+          <t>-34.80475950005495,173.16522805744862</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>-34.805449536124804,173.16489444823327</t>
+          <t>-34.80541482037344,173.16481790286846</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -14519,17 +15019,17 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-34.80409547964965,173.16567331588382</t>
+          <t>-34.80418221582058,173.1657925260213</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>-34.80465433899907,173.16504679779462</t>
+          <t>-34.80474741199483,173.1652072219544</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>-34.805350037784,173.16467506306617</t>
+          <t>-34.805410605817094,173.16480861013142</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -14544,15 +15044,19 @@
           <t>2025-01-12 22:17:45+00:00</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr"/>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>-34.80419915739719,173.16581581056147</t>
+        </is>
+      </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-34.80473968186007,173.165193897972</t>
+          <t>-34.80473952621976,173.1651936297039</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>-34.80540261119279,173.16479098267405</t>
+          <t>-34.80540452295101,173.1647951979353</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -14567,11 +15071,19 @@
           <t>2025-01-28 22:17:42+00:00</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr"/>
-      <c r="C238" t="inlineStr"/>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>-34.80419915739719,173.16581581056147</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>-34.80473952621976,173.1651936297039</t>
+        </is>
+      </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>-34.805322708257314,173.1646148040884</t>
+          <t>-34.80538818610327,173.16475917661828</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -14588,17 +15100,17 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>-34.80428362659892,173.16593190545322</t>
+          <t>-34.80418955319409,173.16580261052167</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>-34.804723495264405,173.16516599809745</t>
+          <t>-34.804705856018145,173.16513559440043</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>-34.805438543532944,173.16487021045748</t>
+          <t>-34.80537849695712,173.16473781291833</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -14613,15 +15125,19 @@
           <t>2025-03-09 22:17:26+00:00</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr"/>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>-34.80418955319409,173.16580261052167</t>
+        </is>
+      </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>-34.80475363760565,173.16521795268025</t>
+          <t>-34.80471778845026,173.1651561616058</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>-34.80538948957555,173.164762050659</t>
+          <t>-34.80538066941175,173.16474260298514</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -14636,15 +15152,19 @@
           <t>2025-03-25 22:17:16+00:00</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr"/>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>-34.80418955319409,173.16580261052167</t>
+        </is>
+      </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-34.80473765853597,173.16519041048707</t>
+          <t>-34.804721783220245,173.1651630471498</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>-34.80540964993824,173.16480650250048</t>
+          <t>-34.805385492260335,173.16475323693436</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -14661,17 +15181,17 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-34.80400116735107,173.16554369358985</t>
+          <t>-34.804126738090815,173.16571627741766</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>-34.80465833377531,173.16505368332807</t>
+          <t>-34.804711199672965,173.16514480493078</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>-34.80536003108515,173.16469709736052</t>
+          <t>-34.80538188598624,173.16474528542267</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -14688,17 +15208,17 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-34.80404650408391,173.16560600408013</t>
+          <t>-34.80410669451199,173.16568872956017</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>-34.80462559735069,173.16499725774227</t>
+          <t>-34.80469895595796,173.165123701193</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>-34.80532614074323,173.1646223723839</t>
+          <t>-34.805374890682025,173.16472986140795</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -14715,17 +15235,17 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-34.804002360423404,173.16554533333874</t>
+          <t>-34.80408342963576,173.16565675438514</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>-34.80469418298332,173.1651154743139</t>
+          <t>-34.80470466277474,173.1651335376802</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>-34.805365158081564,173.16470840191354</t>
+          <t>-34.80537680244239,173.16473407666638</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -14740,15 +15260,19 @@
           <t>2025-06-05 22:17:00+00:00</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr"/>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>-34.80408342963576,173.16565675438514</t>
+        </is>
+      </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>-34.80453791963303,173.1648461339681</t>
+          <t>-34.80468380694953,173.1650975897973</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>-34.80530137469489,173.1645677657088</t>
+          <t>-34.80536841676519,173.16471558701159</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -14765,17 +15289,17 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-34.80412822942827,173.16571832710994</t>
+          <t>-34.804092377666095,173.16566905252725</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>-34.804767489586276,173.16524182855113</t>
+          <t>-34.804693093499885,173.16511359643945</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>-34.80543037512161,173.16485219978244</t>
+          <t>-34.80537458653831,173.16472919079868</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -14792,17 +15316,17 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-34.80403457336788,173.16558960657608</t>
+          <t>-34.804082773446815,173.16565585252152</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>-34.804720797497815,173.16516134811943</t>
+          <t>-34.80469101829329,173.1651100195359</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>-34.80537167544837,173.16472277211014</t>
+          <t>-34.80537150165194,173.1647223889049</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -14819,17 +15343,17 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>-34.80402830974108,173.16558099788833</t>
+          <t>-34.80407495883256,173.1656451121464</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>-34.80463327562698,173.1650104922655</t>
+          <t>-34.80468525959442,173.16510009362935</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>-34.805342868674195,173.1646592558583</t>
+          <t>-34.80537354375988,173.16472689156691</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -14846,17 +15370,17 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>-34.80408014869099,173.16565224506706</t>
+          <t>-34.80407561502158,173.1656460140099</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>-34.80463431323179,173.1650122807148</t>
+          <t>-34.804680590378524,173.16509204559807</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>-34.805318015744135,173.16460445755882</t>
+          <t>-34.80536850366341,173.1647157786142</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -14871,15 +15395,19 @@
           <t>2025-10-19 22:17:50+00:00</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr"/>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>-34.804045907548165,173.16560518420485</t>
+        </is>
+      </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>-34.804702483808434,173.16512978193037</t>
+          <t>-34.804663833077,173.16506316211547</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>-34.80536937264563,173.16471769464044</t>
+          <t>-34.80535390475754,173.16468358937945</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -14896,17 +15424,17 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>-34.80467322143851,173.16646737160954</t>
+          <t>-34.80414189007775,173.16573710229497</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>-34.80466056462419,173.1650575284964</t>
+          <t>-34.804664092478006,173.16506360922813</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>-34.805337958919004,173.16464843031753</t>
+          <t>-34.80535142815659,173.1646781287068</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">

--- a/data/nzd0020/nzd0020.xlsx
+++ b/data/nzd0020/nzd0020.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E251"/>
+  <dimension ref="A1:E252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
         <v>349.03</v>
       </c>
       <c r="C2" t="n">
-        <v>349.56</v>
+        <v>349.39</v>
       </c>
       <c r="D2" t="n">
         <v>357.45</v>
@@ -494,7 +494,7 @@
         <v>362.87</v>
       </c>
       <c r="C3" t="n">
-        <v>354.89</v>
+        <v>355.14</v>
       </c>
       <c r="D3" t="n">
         <v>360.96</v>
@@ -515,7 +515,7 @@
         <v>373.03</v>
       </c>
       <c r="C4" t="n">
-        <v>363.79</v>
+        <v>364.23</v>
       </c>
       <c r="D4" t="n">
         <v>365.76</v>
@@ -536,7 +536,7 @@
         <v>362.38</v>
       </c>
       <c r="C5" t="n">
-        <v>364.99</v>
+        <v>365.32</v>
       </c>
       <c r="D5" t="n">
         <v>367.26</v>
@@ -557,7 +557,7 @@
         <v>355.88</v>
       </c>
       <c r="C6" t="n">
-        <v>360.71</v>
+        <v>361.05</v>
       </c>
       <c r="D6" t="n">
         <v>362.54</v>
@@ -578,7 +578,7 @@
         <v>350.77</v>
       </c>
       <c r="C7" t="n">
-        <v>354.77</v>
+        <v>354.88</v>
       </c>
       <c r="D7" t="n">
         <v>357.89</v>
@@ -599,7 +599,7 @@
         <v>343.6</v>
       </c>
       <c r="C8" t="n">
-        <v>349.13</v>
+        <v>349.19</v>
       </c>
       <c r="D8" t="n">
         <v>353.8</v>
@@ -620,7 +620,7 @@
         <v>340.43</v>
       </c>
       <c r="C9" t="n">
-        <v>346.71</v>
+        <v>346.76</v>
       </c>
       <c r="D9" t="n">
         <v>352.28</v>
@@ -641,7 +641,7 @@
         <v>336.63</v>
       </c>
       <c r="C10" t="n">
-        <v>343.69</v>
+        <v>343.77</v>
       </c>
       <c r="D10" t="n">
         <v>350.19</v>
@@ -662,7 +662,7 @@
         <v>332.87</v>
       </c>
       <c r="C11" t="n">
-        <v>339.06</v>
+        <v>339.14</v>
       </c>
       <c r="D11" t="n">
         <v>346.73</v>
@@ -683,7 +683,7 @@
         <v>335.91</v>
       </c>
       <c r="C12" t="n">
-        <v>337.77</v>
+        <v>337.67</v>
       </c>
       <c r="D12" t="n">
         <v>344.51</v>
@@ -704,7 +704,7 @@
         <v>343.06</v>
       </c>
       <c r="C13" t="n">
-        <v>340.78</v>
+        <v>340.81</v>
       </c>
       <c r="D13" t="n">
         <v>348.6</v>
@@ -725,7 +725,7 @@
         <v>353.5</v>
       </c>
       <c r="C14" t="n">
-        <v>345.04</v>
+        <v>345.05</v>
       </c>
       <c r="D14" t="n">
         <v>352.14</v>
@@ -746,7 +746,7 @@
         <v>342.72</v>
       </c>
       <c r="C15" t="n">
-        <v>348.02</v>
+        <v>348.01</v>
       </c>
       <c r="D15" t="n">
         <v>352.38</v>
@@ -767,7 +767,7 @@
         <v>333.77</v>
       </c>
       <c r="C16" t="n">
-        <v>342.7</v>
+        <v>342.77</v>
       </c>
       <c r="D16" t="n">
         <v>351.11</v>
@@ -788,7 +788,7 @@
         <v>319.96</v>
       </c>
       <c r="C17" t="n">
-        <v>332.93</v>
+        <v>333.04</v>
       </c>
       <c r="D17" t="n">
         <v>342.52</v>
@@ -809,7 +809,7 @@
         <v>326.88</v>
       </c>
       <c r="C18" t="n">
-        <v>335.14</v>
+        <v>334.85</v>
       </c>
       <c r="D18" t="n">
         <v>345.02</v>
@@ -830,7 +830,7 @@
         <v>335.31</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9</v>
+        <v>344.73</v>
       </c>
       <c r="D19" t="n">
         <v>349.07</v>
@@ -851,7 +851,7 @@
         <v>352.84</v>
       </c>
       <c r="C20" t="n">
-        <v>357.09</v>
+        <v>356.7</v>
       </c>
       <c r="D20" t="n">
         <v>364.43</v>
@@ -872,7 +872,7 @@
         <v>360.09</v>
       </c>
       <c r="C21" t="n">
-        <v>351.89</v>
+        <v>352</v>
       </c>
       <c r="D21" t="n">
         <v>360.94</v>
@@ -893,7 +893,7 @@
         <v>360.09</v>
       </c>
       <c r="C22" t="n">
-        <v>354.51</v>
+        <v>354.57</v>
       </c>
       <c r="D22" t="n">
         <v>360.93</v>
@@ -914,7 +914,7 @@
         <v>370.5</v>
       </c>
       <c r="C23" t="n">
-        <v>354.24</v>
+        <v>354.21</v>
       </c>
       <c r="D23" t="n">
         <v>360.45</v>
@@ -935,7 +935,7 @@
         <v>370.5</v>
       </c>
       <c r="C24" t="n">
-        <v>354.24</v>
+        <v>354.22</v>
       </c>
       <c r="D24" t="n">
         <v>358.91</v>
@@ -954,7 +954,7 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>341.56</v>
+        <v>341.76</v>
       </c>
       <c r="D25" t="n">
         <v>349.53</v>
@@ -975,7 +975,7 @@
         <v>344.93</v>
       </c>
       <c r="C26" t="n">
-        <v>350.88</v>
+        <v>350.97</v>
       </c>
       <c r="D26" t="n">
         <v>356.08</v>
@@ -996,7 +996,7 @@
         <v>360.96</v>
       </c>
       <c r="C27" t="n">
-        <v>350.88</v>
+        <v>350.97</v>
       </c>
       <c r="D27" t="n">
         <v>356.08</v>
@@ -1017,7 +1017,7 @@
         <v>360.29</v>
       </c>
       <c r="C28" t="n">
-        <v>354.29</v>
+        <v>354.44</v>
       </c>
       <c r="D28" t="n">
         <v>360.4</v>
@@ -1038,7 +1038,7 @@
         <v>360.95</v>
       </c>
       <c r="C29" t="n">
-        <v>361.69</v>
+        <v>361.81</v>
       </c>
       <c r="D29" t="n">
         <v>363.75</v>
@@ -1059,7 +1059,7 @@
         <v>356.86</v>
       </c>
       <c r="C30" t="n">
-        <v>361.42</v>
+        <v>361.65</v>
       </c>
       <c r="D30" t="n">
         <v>364.58</v>
@@ -1080,7 +1080,7 @@
         <v>354.33</v>
       </c>
       <c r="C31" t="n">
-        <v>360.29</v>
+        <v>360.58</v>
       </c>
       <c r="D31" t="n">
         <v>362.93</v>
@@ -1101,7 +1101,7 @@
         <v>353.3</v>
       </c>
       <c r="C32" t="n">
-        <v>359.02</v>
+        <v>359.37</v>
       </c>
       <c r="D32" t="n">
         <v>362.49</v>
@@ -1122,7 +1122,7 @@
         <v>357.3</v>
       </c>
       <c r="C33" t="n">
-        <v>360.62</v>
+        <v>360.85</v>
       </c>
       <c r="D33" t="n">
         <v>363.75</v>
@@ -1143,7 +1143,7 @@
         <v>356.8</v>
       </c>
       <c r="C34" t="n">
-        <v>360.07</v>
+        <v>360.12</v>
       </c>
       <c r="D34" t="n">
         <v>362.69</v>
@@ -1164,7 +1164,7 @@
         <v>359.42</v>
       </c>
       <c r="C35" t="n">
-        <v>360.66</v>
+        <v>360.64</v>
       </c>
       <c r="D35" t="n">
         <v>362.69</v>
@@ -1185,7 +1185,7 @@
         <v>359.42</v>
       </c>
       <c r="C36" t="n">
-        <v>360.4</v>
+        <v>360.41</v>
       </c>
       <c r="D36" t="n">
         <v>360.24</v>
@@ -1206,7 +1206,7 @@
         <v>358.84</v>
       </c>
       <c r="C37" t="n">
-        <v>359.66</v>
+        <v>359.69</v>
       </c>
       <c r="D37" t="n">
         <v>360.51</v>
@@ -1227,7 +1227,7 @@
         <v>375.05</v>
       </c>
       <c r="C38" t="n">
-        <v>362.52</v>
+        <v>362.27</v>
       </c>
       <c r="D38" t="n">
         <v>364.89</v>
@@ -1248,7 +1248,7 @@
         <v>375.05</v>
       </c>
       <c r="C39" t="n">
-        <v>362.69</v>
+        <v>362.5</v>
       </c>
       <c r="D39" t="n">
         <v>364.56</v>
@@ -1269,7 +1269,7 @@
         <v>394.16</v>
       </c>
       <c r="C40" t="n">
-        <v>361.66</v>
+        <v>361.43</v>
       </c>
       <c r="D40" t="n">
         <v>363.33</v>
@@ -1290,7 +1290,7 @@
         <v>406.28</v>
       </c>
       <c r="C41" t="n">
-        <v>360</v>
+        <v>359.77</v>
       </c>
       <c r="D41" t="n">
         <v>362.2</v>
@@ -1311,7 +1311,7 @@
         <v>406.28</v>
       </c>
       <c r="C42" t="n">
-        <v>359.76</v>
+        <v>359.53</v>
       </c>
       <c r="D42" t="n">
         <v>361.79</v>
@@ -1332,7 +1332,7 @@
         <v>413.78</v>
       </c>
       <c r="C43" t="n">
-        <v>358.46</v>
+        <v>358.29</v>
       </c>
       <c r="D43" t="n">
         <v>360.83</v>
@@ -1353,7 +1353,7 @@
         <v>419.75</v>
       </c>
       <c r="C44" t="n">
-        <v>359.84</v>
+        <v>359.73</v>
       </c>
       <c r="D44" t="n">
         <v>362.31</v>
@@ -1374,7 +1374,7 @@
         <v>417.88</v>
       </c>
       <c r="C45" t="n">
-        <v>360.91</v>
+        <v>360.92</v>
       </c>
       <c r="D45" t="n">
         <v>363.5</v>
@@ -1416,7 +1416,7 @@
         <v>406.51</v>
       </c>
       <c r="C47" t="n">
-        <v>360.19</v>
+        <v>360.21</v>
       </c>
       <c r="D47" t="n">
         <v>364.27</v>
@@ -1437,7 +1437,7 @@
         <v>396.56</v>
       </c>
       <c r="C48" t="n">
-        <v>360.19</v>
+        <v>360.21</v>
       </c>
       <c r="D48" t="n">
         <v>364.55</v>
@@ -1458,7 +1458,7 @@
         <v>389.07</v>
       </c>
       <c r="C49" t="n">
-        <v>356.92</v>
+        <v>357.08</v>
       </c>
       <c r="D49" t="n">
         <v>361.42</v>
@@ -1479,7 +1479,7 @@
         <v>381.64</v>
       </c>
       <c r="C50" t="n">
-        <v>359.32</v>
+        <v>359.39</v>
       </c>
       <c r="D50" t="n">
         <v>362.48</v>
@@ -1500,7 +1500,7 @@
         <v>369.01</v>
       </c>
       <c r="C51" t="n">
-        <v>360.79</v>
+        <v>360.93</v>
       </c>
       <c r="D51" t="n">
         <v>363.42</v>
@@ -1521,7 +1521,7 @@
         <v>361.85</v>
       </c>
       <c r="C52" t="n">
-        <v>364.71</v>
+        <v>364.77</v>
       </c>
       <c r="D52" t="n">
         <v>363.54</v>
@@ -1542,7 +1542,7 @@
         <v>361.85</v>
       </c>
       <c r="C53" t="n">
-        <v>364.46</v>
+        <v>364.55</v>
       </c>
       <c r="D53" t="n">
         <v>364.32</v>
@@ -1563,7 +1563,7 @@
         <v>346.11</v>
       </c>
       <c r="C54" t="n">
-        <v>361.49</v>
+        <v>361.44</v>
       </c>
       <c r="D54" t="n">
         <v>361.21</v>
@@ -1584,7 +1584,7 @@
         <v>343.64</v>
       </c>
       <c r="C55" t="n">
-        <v>363.31</v>
+        <v>363.26</v>
       </c>
       <c r="D55" t="n">
         <v>361.57</v>
@@ -1605,7 +1605,7 @@
         <v>352.54</v>
       </c>
       <c r="C56" t="n">
-        <v>364.28</v>
+        <v>364.29</v>
       </c>
       <c r="D56" t="n">
         <v>362.76</v>
@@ -1626,7 +1626,7 @@
         <v>353.15</v>
       </c>
       <c r="C57" t="n">
-        <v>365.42</v>
+        <v>365.46</v>
       </c>
       <c r="D57" t="n">
         <v>364.25</v>
@@ -1647,7 +1647,7 @@
         <v>353.15</v>
       </c>
       <c r="C58" t="n">
-        <v>365.72</v>
+        <v>365.67</v>
       </c>
       <c r="D58" t="n">
         <v>365.33</v>
@@ -1668,7 +1668,7 @@
         <v>353.62</v>
       </c>
       <c r="C59" t="n">
-        <v>365.76</v>
+        <v>365.69</v>
       </c>
       <c r="D59" t="n">
         <v>365.39</v>
@@ -1689,7 +1689,7 @@
         <v>353.62</v>
       </c>
       <c r="C60" t="n">
-        <v>362.78</v>
+        <v>362.69</v>
       </c>
       <c r="D60" t="n">
         <v>362.8</v>
@@ -1710,7 +1710,7 @@
         <v>349.27</v>
       </c>
       <c r="C61" t="n">
-        <v>360.81</v>
+        <v>360.63</v>
       </c>
       <c r="D61" t="n">
         <v>362.8</v>
@@ -1731,7 +1731,7 @@
         <v>350.16</v>
       </c>
       <c r="C62" t="n">
-        <v>362.51</v>
+        <v>362.37</v>
       </c>
       <c r="D62" t="n">
         <v>363.54</v>
@@ -1752,7 +1752,7 @@
         <v>349.48</v>
       </c>
       <c r="C63" t="n">
-        <v>361.53</v>
+        <v>361.36</v>
       </c>
       <c r="D63" t="n">
         <v>364.32</v>
@@ -1773,7 +1773,7 @@
         <v>345.44</v>
       </c>
       <c r="C64" t="n">
-        <v>359.21</v>
+        <v>359.09</v>
       </c>
       <c r="D64" t="n">
         <v>362.38</v>
@@ -1794,7 +1794,7 @@
         <v>341.79</v>
       </c>
       <c r="C65" t="n">
-        <v>356.4</v>
+        <v>356.3</v>
       </c>
       <c r="D65" t="n">
         <v>359.58</v>
@@ -1815,7 +1815,7 @@
         <v>338.05</v>
       </c>
       <c r="C66" t="n">
-        <v>356.31</v>
+        <v>356.29</v>
       </c>
       <c r="D66" t="n">
         <v>357.64</v>
@@ -1836,7 +1836,7 @@
         <v>338.05</v>
       </c>
       <c r="C67" t="n">
-        <v>359.29</v>
+        <v>359.21</v>
       </c>
       <c r="D67" t="n">
         <v>361.62</v>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>361.44</v>
+        <v>361.17</v>
       </c>
       <c r="D68" t="n">
         <v>365.61</v>
@@ -1876,7 +1876,7 @@
         <v>356.32</v>
       </c>
       <c r="C69" t="n">
-        <v>360.6</v>
+        <v>360.45</v>
       </c>
       <c r="D69" t="n">
         <v>364.9</v>
@@ -1897,7 +1897,7 @@
         <v>372.32</v>
       </c>
       <c r="C70" t="n">
-        <v>362.89</v>
+        <v>362.68</v>
       </c>
       <c r="D70" t="n">
         <v>367.3</v>
@@ -1918,7 +1918,7 @@
         <v>372.32</v>
       </c>
       <c r="C71" t="n">
-        <v>358.42</v>
+        <v>358.5</v>
       </c>
       <c r="D71" t="n">
         <v>364.07</v>
@@ -1939,7 +1939,7 @@
         <v>365.02</v>
       </c>
       <c r="C72" t="n">
-        <v>358.86</v>
+        <v>359.04</v>
       </c>
       <c r="D72" t="n">
         <v>365.3</v>
@@ -1960,7 +1960,7 @@
         <v>369.37</v>
       </c>
       <c r="C73" t="n">
-        <v>361.71</v>
+        <v>361.93</v>
       </c>
       <c r="D73" t="n">
         <v>369.78</v>
@@ -1981,7 +1981,7 @@
         <v>369.37</v>
       </c>
       <c r="C74" t="n">
-        <v>359.92</v>
+        <v>360.06</v>
       </c>
       <c r="D74" t="n">
         <v>366.91</v>
@@ -2002,7 +2002,7 @@
         <v>369.37</v>
       </c>
       <c r="C75" t="n">
-        <v>355.84</v>
+        <v>355.93</v>
       </c>
       <c r="D75" t="n">
         <v>366.33</v>
@@ -2044,7 +2044,7 @@
         <v>352.05</v>
       </c>
       <c r="C77" t="n">
-        <v>352.4</v>
+        <v>352.36</v>
       </c>
       <c r="D77" t="n">
         <v>362.27</v>
@@ -2065,7 +2065,7 @@
         <v>338.62</v>
       </c>
       <c r="C78" t="n">
-        <v>348.42</v>
+        <v>348.27</v>
       </c>
       <c r="D78" t="n">
         <v>357.75</v>
@@ -2086,7 +2086,7 @@
         <v>314.47</v>
       </c>
       <c r="C79" t="n">
-        <v>341.65</v>
+        <v>341.96</v>
       </c>
       <c r="D79" t="n">
         <v>350.25</v>
@@ -2107,7 +2107,7 @@
         <v>317.65</v>
       </c>
       <c r="C80" t="n">
-        <v>350.98</v>
+        <v>351.35</v>
       </c>
       <c r="D80" t="n">
         <v>357.18</v>
@@ -2128,7 +2128,7 @@
         <v>318.07</v>
       </c>
       <c r="C81" t="n">
-        <v>356.86</v>
+        <v>357.3</v>
       </c>
       <c r="D81" t="n">
         <v>363.01</v>
@@ -2149,7 +2149,7 @@
         <v>318.07</v>
       </c>
       <c r="C82" t="n">
-        <v>356.16</v>
+        <v>356.58</v>
       </c>
       <c r="D82" t="n">
         <v>361.25</v>
@@ -2170,7 +2170,7 @@
         <v>318.07</v>
       </c>
       <c r="C83" t="n">
-        <v>353.54</v>
+        <v>353.8</v>
       </c>
       <c r="D83" t="n">
         <v>359.27</v>
@@ -2191,7 +2191,7 @@
         <v>318.07</v>
       </c>
       <c r="C84" t="n">
-        <v>353.69</v>
+        <v>353.99</v>
       </c>
       <c r="D84" t="n">
         <v>360.07</v>
@@ -2212,7 +2212,7 @@
         <v>324.75</v>
       </c>
       <c r="C85" t="n">
-        <v>354.09</v>
+        <v>354.25</v>
       </c>
       <c r="D85" t="n">
         <v>360.07</v>
@@ -2233,7 +2233,7 @@
         <v>327.89</v>
       </c>
       <c r="C86" t="n">
-        <v>351.05</v>
+        <v>351.07</v>
       </c>
       <c r="D86" t="n">
         <v>356.75</v>
@@ -2254,7 +2254,7 @@
         <v>327.89</v>
       </c>
       <c r="C87" t="n">
-        <v>351.05</v>
+        <v>351.07</v>
       </c>
       <c r="D87" t="n">
         <v>359.63</v>
@@ -2275,7 +2275,7 @@
         <v>333.52</v>
       </c>
       <c r="C88" t="n">
-        <v>354.16</v>
+        <v>354.15</v>
       </c>
       <c r="D88" t="n">
         <v>361.29</v>
@@ -2296,7 +2296,7 @@
         <v>341.7</v>
       </c>
       <c r="C89" t="n">
-        <v>353.07</v>
+        <v>353.05</v>
       </c>
       <c r="D89" t="n">
         <v>360.77</v>
@@ -2317,7 +2317,7 @@
         <v>355.31</v>
       </c>
       <c r="C90" t="n">
-        <v>356.22</v>
+        <v>355.98</v>
       </c>
       <c r="D90" t="n">
         <v>363.54</v>
@@ -2338,7 +2338,7 @@
         <v>362.75</v>
       </c>
       <c r="C91" t="n">
-        <v>353.46</v>
+        <v>353.59</v>
       </c>
       <c r="D91" t="n">
         <v>359.09</v>
@@ -2359,7 +2359,7 @@
         <v>368.74</v>
       </c>
       <c r="C92" t="n">
-        <v>351.03</v>
+        <v>351.23</v>
       </c>
       <c r="D92" t="n">
         <v>354.11</v>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>349.08</v>
+        <v>349.56</v>
       </c>
       <c r="D93" t="n">
         <v>351.79</v>
@@ -2399,7 +2399,7 @@
         <v>350.4</v>
       </c>
       <c r="C94" t="n">
-        <v>346.46</v>
+        <v>346.72</v>
       </c>
       <c r="D94" t="n">
         <v>348.83</v>
@@ -2420,7 +2420,7 @@
         <v>350.4</v>
       </c>
       <c r="C95" t="n">
-        <v>349.12</v>
+        <v>349.29</v>
       </c>
       <c r="D95" t="n">
         <v>351</v>
@@ -2441,7 +2441,7 @@
         <v>358.8</v>
       </c>
       <c r="C96" t="n">
-        <v>351.38</v>
+        <v>351.46</v>
       </c>
       <c r="D96" t="n">
         <v>353.57</v>
@@ -2462,7 +2462,7 @@
         <v>356.45</v>
       </c>
       <c r="C97" t="n">
-        <v>351.71</v>
+        <v>351.81</v>
       </c>
       <c r="D97" t="n">
         <v>354.35</v>
@@ -2483,7 +2483,7 @@
         <v>354.9</v>
       </c>
       <c r="C98" t="n">
-        <v>355.26</v>
+        <v>355.29</v>
       </c>
       <c r="D98" t="n">
         <v>356.73</v>
@@ -2504,7 +2504,7 @@
         <v>355.71</v>
       </c>
       <c r="C99" t="n">
-        <v>355.63</v>
+        <v>355.48</v>
       </c>
       <c r="D99" t="n">
         <v>358.34</v>
@@ -2525,7 +2525,7 @@
         <v>352.98</v>
       </c>
       <c r="C100" t="n">
-        <v>352.2</v>
+        <v>351.96</v>
       </c>
       <c r="D100" t="n">
         <v>355.25</v>
@@ -2546,7 +2546,7 @@
         <v>347.86</v>
       </c>
       <c r="C101" t="n">
-        <v>347.08</v>
+        <v>346.71</v>
       </c>
       <c r="D101" t="n">
         <v>352.43</v>
@@ -2567,7 +2567,7 @@
         <v>350.28</v>
       </c>
       <c r="C102" t="n">
-        <v>354.67</v>
+        <v>354.38</v>
       </c>
       <c r="D102" t="n">
         <v>360.83</v>
@@ -2588,7 +2588,7 @@
         <v>351.43</v>
       </c>
       <c r="C103" t="n">
-        <v>375.16</v>
+        <v>375.56</v>
       </c>
       <c r="D103" t="n">
         <v>376.57</v>
@@ -2609,7 +2609,7 @@
         <v>349.68</v>
       </c>
       <c r="C104" t="n">
-        <v>365.49</v>
+        <v>365.6</v>
       </c>
       <c r="D104" t="n">
         <v>370.03</v>
@@ -2630,7 +2630,7 @@
         <v>350.47</v>
       </c>
       <c r="C105" t="n">
-        <v>360.6</v>
+        <v>360.69</v>
       </c>
       <c r="D105" t="n">
         <v>363.77</v>
@@ -2651,7 +2651,7 @@
         <v>346.21</v>
       </c>
       <c r="C106" t="n">
-        <v>358.83</v>
+        <v>358.97</v>
       </c>
       <c r="D106" t="n">
         <v>362.22</v>
@@ -2672,7 +2672,7 @@
         <v>348.07</v>
       </c>
       <c r="C107" t="n">
-        <v>352.6</v>
+        <v>352.5</v>
       </c>
       <c r="D107" t="n">
         <v>360.73</v>
@@ -2693,7 +2693,7 @@
         <v>347.36</v>
       </c>
       <c r="C108" t="n">
-        <v>347.05</v>
+        <v>346.81</v>
       </c>
       <c r="D108" t="n">
         <v>356.36</v>
@@ -2714,7 +2714,7 @@
         <v>346.75</v>
       </c>
       <c r="C109" t="n">
-        <v>345.27</v>
+        <v>344.98</v>
       </c>
       <c r="D109" t="n">
         <v>353.3</v>
@@ -2735,7 +2735,7 @@
         <v>344.16</v>
       </c>
       <c r="C110" t="n">
-        <v>345.15</v>
+        <v>344.92</v>
       </c>
       <c r="D110" t="n">
         <v>351.31</v>
@@ -2756,7 +2756,7 @@
         <v>342.04</v>
       </c>
       <c r="C111" t="n">
-        <v>343.5</v>
+        <v>343.28</v>
       </c>
       <c r="D111" t="n">
         <v>349.83</v>
@@ -2777,7 +2777,7 @@
         <v>343.05</v>
       </c>
       <c r="C112" t="n">
-        <v>343.22</v>
+        <v>342.84</v>
       </c>
       <c r="D112" t="n">
         <v>348.83</v>
@@ -2798,7 +2798,7 @@
         <v>345.75</v>
       </c>
       <c r="C113" t="n">
-        <v>350.41</v>
+        <v>350.01</v>
       </c>
       <c r="D113" t="n">
         <v>353.52</v>
@@ -2819,7 +2819,7 @@
         <v>349.08</v>
       </c>
       <c r="C114" t="n">
-        <v>354.57</v>
+        <v>354.19</v>
       </c>
       <c r="D114" t="n">
         <v>357.56</v>
@@ -2840,7 +2840,7 @@
         <v>343.49</v>
       </c>
       <c r="C115" t="n">
-        <v>354.27</v>
+        <v>353.81</v>
       </c>
       <c r="D115" t="n">
         <v>357.96</v>
@@ -2861,7 +2861,7 @@
         <v>337.34</v>
       </c>
       <c r="C116" t="n">
-        <v>355.78</v>
+        <v>355.52</v>
       </c>
       <c r="D116" t="n">
         <v>358.45</v>
@@ -2882,7 +2882,7 @@
         <v>331.75</v>
       </c>
       <c r="C117" t="n">
-        <v>353.42</v>
+        <v>353.33</v>
       </c>
       <c r="D117" t="n">
         <v>355.59</v>
@@ -2903,7 +2903,7 @@
         <v>308.26</v>
       </c>
       <c r="C118" t="n">
-        <v>348.14</v>
+        <v>348.69</v>
       </c>
       <c r="D118" t="n">
         <v>350.9</v>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>351.28</v>
+        <v>351.79</v>
       </c>
       <c r="D119" t="n">
         <v>356.3</v>
@@ -2943,7 +2943,7 @@
         <v>358.31</v>
       </c>
       <c r="C120" t="n">
-        <v>354.97</v>
+        <v>355.18</v>
       </c>
       <c r="D120" t="n">
         <v>360.63</v>
@@ -2964,7 +2964,7 @@
         <v>351.49</v>
       </c>
       <c r="C121" t="n">
-        <v>350.06</v>
+        <v>350.08</v>
       </c>
       <c r="D121" t="n">
         <v>350.93</v>
@@ -2985,7 +2985,7 @@
         <v>358.99</v>
       </c>
       <c r="C122" t="n">
-        <v>354.31</v>
+        <v>354.21</v>
       </c>
       <c r="D122" t="n">
         <v>355.99</v>
@@ -3006,7 +3006,7 @@
         <v>358.99</v>
       </c>
       <c r="C123" t="n">
-        <v>352.79</v>
+        <v>352.69</v>
       </c>
       <c r="D123" t="n">
         <v>353.56</v>
@@ -3027,7 +3027,7 @@
         <v>358.55</v>
       </c>
       <c r="C124" t="n">
-        <v>353.84</v>
+        <v>353.67</v>
       </c>
       <c r="D124" t="n">
         <v>355.24</v>
@@ -3048,7 +3048,7 @@
         <v>352.43</v>
       </c>
       <c r="C125" t="n">
-        <v>353.11</v>
+        <v>353.03</v>
       </c>
       <c r="D125" t="n">
         <v>354.69</v>
@@ -3069,7 +3069,7 @@
         <v>348.22</v>
       </c>
       <c r="C126" t="n">
-        <v>352.71</v>
+        <v>352.72</v>
       </c>
       <c r="D126" t="n">
         <v>354.29</v>
@@ -3090,7 +3090,7 @@
         <v>341.88</v>
       </c>
       <c r="C127" t="n">
-        <v>350.91</v>
+        <v>350.95</v>
       </c>
       <c r="D127" t="n">
         <v>353.36</v>
@@ -3111,7 +3111,7 @@
         <v>343.36</v>
       </c>
       <c r="C128" t="n">
-        <v>351.72</v>
+        <v>351.71</v>
       </c>
       <c r="D128" t="n">
         <v>354.89</v>
@@ -3132,7 +3132,7 @@
         <v>342.58</v>
       </c>
       <c r="C129" t="n">
-        <v>352.43</v>
+        <v>352.44</v>
       </c>
       <c r="D129" t="n">
         <v>355.3</v>
@@ -3153,7 +3153,7 @@
         <v>341.84</v>
       </c>
       <c r="C130" t="n">
-        <v>352.82</v>
+        <v>352.83</v>
       </c>
       <c r="D130" t="n">
         <v>355.19</v>
@@ -3174,7 +3174,7 @@
         <v>343.88</v>
       </c>
       <c r="C131" t="n">
-        <v>354.76</v>
+        <v>354.84</v>
       </c>
       <c r="D131" t="n">
         <v>358.41</v>
@@ -3195,7 +3195,7 @@
         <v>351.56</v>
       </c>
       <c r="C132" t="n">
-        <v>355.8</v>
+        <v>355.92</v>
       </c>
       <c r="D132" t="n">
         <v>358.66</v>
@@ -3216,7 +3216,7 @@
         <v>400.65</v>
       </c>
       <c r="C133" t="n">
-        <v>368.83</v>
+        <v>368.75</v>
       </c>
       <c r="D133" t="n">
         <v>364.73</v>
@@ -3237,7 +3237,7 @@
         <v>432.72</v>
       </c>
       <c r="C134" t="n">
-        <v>367.01</v>
+        <v>367.08</v>
       </c>
       <c r="D134" t="n">
         <v>364.37</v>
@@ -3258,7 +3258,7 @@
         <v>461.62</v>
       </c>
       <c r="C135" t="n">
-        <v>365.54</v>
+        <v>365.65</v>
       </c>
       <c r="D135" t="n">
         <v>363.83</v>
@@ -3279,7 +3279,7 @@
         <v>461.73</v>
       </c>
       <c r="C136" t="n">
-        <v>365.74</v>
+        <v>365.86</v>
       </c>
       <c r="D136" t="n">
         <v>362.59</v>
@@ -3300,7 +3300,7 @@
         <v>434.09</v>
       </c>
       <c r="C137" t="n">
-        <v>362.58</v>
+        <v>362.74</v>
       </c>
       <c r="D137" t="n">
         <v>359.86</v>
@@ -3321,7 +3321,7 @@
         <v>418.35</v>
       </c>
       <c r="C138" t="n">
-        <v>360.8</v>
+        <v>360.91</v>
       </c>
       <c r="D138" t="n">
         <v>358.58</v>
@@ -3342,7 +3342,7 @@
         <v>408.75</v>
       </c>
       <c r="C139" t="n">
-        <v>359.29</v>
+        <v>359.31</v>
       </c>
       <c r="D139" t="n">
         <v>357.86</v>
@@ -3363,7 +3363,7 @@
         <v>401.46</v>
       </c>
       <c r="C140" t="n">
-        <v>358.82</v>
+        <v>358.76</v>
       </c>
       <c r="D140" t="n">
         <v>357.73</v>
@@ -3384,7 +3384,7 @@
         <v>384.34</v>
       </c>
       <c r="C141" t="n">
-        <v>353.33</v>
+        <v>353.3</v>
       </c>
       <c r="D141" t="n">
         <v>355.3</v>
@@ -3405,7 +3405,7 @@
         <v>352.69</v>
       </c>
       <c r="C142" t="n">
-        <v>348.86</v>
+        <v>348.84</v>
       </c>
       <c r="D142" t="n">
         <v>351.26</v>
@@ -3426,7 +3426,7 @@
         <v>343.18</v>
       </c>
       <c r="C143" t="n">
-        <v>337.53</v>
+        <v>337.52</v>
       </c>
       <c r="D143" t="n">
         <v>337.08</v>
@@ -3447,7 +3447,7 @@
         <v>339.62</v>
       </c>
       <c r="C144" t="n">
-        <v>340.1</v>
+        <v>339.74</v>
       </c>
       <c r="D144" t="n">
         <v>340.08</v>
@@ -3468,7 +3468,7 @@
         <v>343.53</v>
       </c>
       <c r="C145" t="n">
-        <v>342.3</v>
+        <v>341.81</v>
       </c>
       <c r="D145" t="n">
         <v>344.93</v>
@@ -3489,7 +3489,7 @@
         <v>345.81</v>
       </c>
       <c r="C146" t="n">
-        <v>345.89</v>
+        <v>345.39</v>
       </c>
       <c r="D146" t="n">
         <v>348.54</v>
@@ -3510,7 +3510,7 @@
         <v>347.01</v>
       </c>
       <c r="C147" t="n">
-        <v>347.88</v>
+        <v>347.41</v>
       </c>
       <c r="D147" t="n">
         <v>352.43</v>
@@ -3531,7 +3531,7 @@
         <v>371.39</v>
       </c>
       <c r="C148" t="n">
-        <v>348.79</v>
+        <v>348.52</v>
       </c>
       <c r="D148" t="n">
         <v>352.99</v>
@@ -3552,7 +3552,7 @@
         <v>386.03</v>
       </c>
       <c r="C149" t="n">
-        <v>348.61</v>
+        <v>348.5</v>
       </c>
       <c r="D149" t="n">
         <v>352.4</v>
@@ -3573,7 +3573,7 @@
         <v>406.9</v>
       </c>
       <c r="C150" t="n">
-        <v>351.82</v>
+        <v>351.68</v>
       </c>
       <c r="D150" t="n">
         <v>355.57</v>
@@ -3594,7 +3594,7 @@
         <v>417.22</v>
       </c>
       <c r="C151" t="n">
-        <v>352.86</v>
+        <v>352.62</v>
       </c>
       <c r="D151" t="n">
         <v>357.1</v>
@@ -3615,7 +3615,7 @@
         <v>435.8</v>
       </c>
       <c r="C152" t="n">
-        <v>352.99</v>
+        <v>352.72</v>
       </c>
       <c r="D152" t="n">
         <v>355.95</v>
@@ -3636,7 +3636,7 @@
         <v>470.27</v>
       </c>
       <c r="C153" t="n">
-        <v>354.94</v>
+        <v>354.75</v>
       </c>
       <c r="D153" t="n">
         <v>357.73</v>
@@ -3657,7 +3657,7 @@
         <v>469.97</v>
       </c>
       <c r="C154" t="n">
-        <v>356.89</v>
+        <v>357.35</v>
       </c>
       <c r="D154" t="n">
         <v>359.64</v>
@@ -3678,7 +3678,7 @@
         <v>471.55</v>
       </c>
       <c r="C155" t="n">
-        <v>359.08</v>
+        <v>359.51</v>
       </c>
       <c r="D155" t="n">
         <v>359.33</v>
@@ -3699,7 +3699,7 @@
         <v>469.59</v>
       </c>
       <c r="C156" t="n">
-        <v>358.36</v>
+        <v>358.81</v>
       </c>
       <c r="D156" t="n">
         <v>359.46</v>
@@ -3720,7 +3720,7 @@
         <v>472.28</v>
       </c>
       <c r="C157" t="n">
-        <v>361.61</v>
+        <v>361.73</v>
       </c>
       <c r="D157" t="n">
         <v>363.03</v>
@@ -3741,7 +3741,7 @@
         <v>454.04</v>
       </c>
       <c r="C158" t="n">
-        <v>364.07</v>
+        <v>364.05</v>
       </c>
       <c r="D158" t="n">
         <v>364.56</v>
@@ -3762,7 +3762,7 @@
         <v>403.88</v>
       </c>
       <c r="C159" t="n">
-        <v>370.83</v>
+        <v>370.43</v>
       </c>
       <c r="D159" t="n">
         <v>372.27</v>
@@ -3783,7 +3783,7 @@
         <v>392.04</v>
       </c>
       <c r="C160" t="n">
-        <v>369.09</v>
+        <v>368.73</v>
       </c>
       <c r="D160" t="n">
         <v>372.27</v>
@@ -3804,7 +3804,7 @@
         <v>361.37</v>
       </c>
       <c r="C161" t="n">
-        <v>367.28</v>
+        <v>366.96</v>
       </c>
       <c r="D161" t="n">
         <v>371.41</v>
@@ -3825,7 +3825,7 @@
         <v>354.8</v>
       </c>
       <c r="C162" t="n">
-        <v>363.17</v>
+        <v>363.09</v>
       </c>
       <c r="D162" t="n">
         <v>365.68</v>
@@ -3846,7 +3846,7 @@
         <v>354.8</v>
       </c>
       <c r="C163" t="n">
-        <v>360.59</v>
+        <v>360.65</v>
       </c>
       <c r="D163" t="n">
         <v>362.3</v>
@@ -3867,7 +3867,7 @@
         <v>357.1</v>
       </c>
       <c r="C164" t="n">
-        <v>359.08</v>
+        <v>359.05</v>
       </c>
       <c r="D164" t="n">
         <v>360.12</v>
@@ -3888,7 +3888,7 @@
         <v>344.72</v>
       </c>
       <c r="C165" t="n">
-        <v>357.82</v>
+        <v>358.11</v>
       </c>
       <c r="D165" t="n">
         <v>359.07</v>
@@ -3909,7 +3909,7 @@
         <v>344.58</v>
       </c>
       <c r="C166" t="n">
-        <v>359.56</v>
+        <v>359.84</v>
       </c>
       <c r="D166" t="n">
         <v>363.34</v>
@@ -3930,7 +3930,7 @@
         <v>343.21</v>
       </c>
       <c r="C167" t="n">
-        <v>363.12</v>
+        <v>363.32</v>
       </c>
       <c r="D167" t="n">
         <v>367.5</v>
@@ -3951,7 +3951,7 @@
         <v>344.31</v>
       </c>
       <c r="C168" t="n">
-        <v>363.76</v>
+        <v>364.02</v>
       </c>
       <c r="D168" t="n">
         <v>367.39</v>
@@ -3972,7 +3972,7 @@
         <v>385.56</v>
       </c>
       <c r="C169" t="n">
-        <v>362.96</v>
+        <v>363.2</v>
       </c>
       <c r="D169" t="n">
         <v>367.24</v>
@@ -3993,7 +3993,7 @@
         <v>405.74</v>
       </c>
       <c r="C170" t="n">
-        <v>362.8</v>
+        <v>363.09</v>
       </c>
       <c r="D170" t="n">
         <v>367.7</v>
@@ -4014,7 +4014,7 @@
         <v>437.57</v>
       </c>
       <c r="C171" t="n">
-        <v>362.2</v>
+        <v>362.43</v>
       </c>
       <c r="D171" t="n">
         <v>368.18</v>
@@ -4035,7 +4035,7 @@
         <v>467.92</v>
       </c>
       <c r="C172" t="n">
-        <v>364.89</v>
+        <v>364.95</v>
       </c>
       <c r="D172" t="n">
         <v>370.03</v>
@@ -4056,7 +4056,7 @@
         <v>467.92</v>
       </c>
       <c r="C173" t="n">
-        <v>366.95</v>
+        <v>366.87</v>
       </c>
       <c r="D173" t="n">
         <v>370.43</v>
@@ -4077,7 +4077,7 @@
         <v>467.92</v>
       </c>
       <c r="C174" t="n">
-        <v>367.7</v>
+        <v>367.64</v>
       </c>
       <c r="D174" t="n">
         <v>371.17</v>
@@ -4098,7 +4098,7 @@
         <v>467.7</v>
       </c>
       <c r="C175" t="n">
-        <v>368.19</v>
+        <v>368.14</v>
       </c>
       <c r="D175" t="n">
         <v>371.47</v>
@@ -4119,7 +4119,7 @@
         <v>483.4</v>
       </c>
       <c r="C176" t="n">
-        <v>365.74</v>
+        <v>366.05</v>
       </c>
       <c r="D176" t="n">
         <v>369.66</v>
@@ -4140,7 +4140,7 @@
         <v>445.13</v>
       </c>
       <c r="C177" t="n">
-        <v>364.82</v>
+        <v>365.11</v>
       </c>
       <c r="D177" t="n">
         <v>369.63</v>
@@ -4161,7 +4161,7 @@
         <v>444.53</v>
       </c>
       <c r="C178" t="n">
-        <v>363.25</v>
+        <v>363.63</v>
       </c>
       <c r="D178" t="n">
         <v>365.77</v>
@@ -4182,7 +4182,7 @@
         <v>447.11</v>
       </c>
       <c r="C179" t="n">
-        <v>364.69</v>
+        <v>364.92</v>
       </c>
       <c r="D179" t="n">
         <v>368.22</v>
@@ -4203,7 +4203,7 @@
         <v>436.99</v>
       </c>
       <c r="C180" t="n">
-        <v>367.38</v>
+        <v>367.45</v>
       </c>
       <c r="D180" t="n">
         <v>370.65</v>
@@ -4224,7 +4224,7 @@
         <v>428.68</v>
       </c>
       <c r="C181" t="n">
-        <v>366.64</v>
+        <v>366.53</v>
       </c>
       <c r="D181" t="n">
         <v>371.01</v>
@@ -4245,7 +4245,7 @@
         <v>424.16</v>
       </c>
       <c r="C182" t="n">
-        <v>367.77</v>
+        <v>367.58</v>
       </c>
       <c r="D182" t="n">
         <v>372.5</v>
@@ -4266,7 +4266,7 @@
         <v>395.75</v>
       </c>
       <c r="C183" t="n">
-        <v>369.88</v>
+        <v>369.54</v>
       </c>
       <c r="D183" t="n">
         <v>376.62</v>
@@ -4287,7 +4287,7 @@
         <v>373.9</v>
       </c>
       <c r="C184" t="n">
-        <v>366.62</v>
+        <v>366.28</v>
       </c>
       <c r="D184" t="n">
         <v>374.56</v>
@@ -4308,7 +4308,7 @@
         <v>367.54</v>
       </c>
       <c r="C185" t="n">
-        <v>367.3</v>
+        <v>366.98</v>
       </c>
       <c r="D185" t="n">
         <v>374.36</v>
@@ -4329,7 +4329,7 @@
         <v>364.95</v>
       </c>
       <c r="C186" t="n">
-        <v>365.96</v>
+        <v>365.59</v>
       </c>
       <c r="D186" t="n">
         <v>371.21</v>
@@ -4350,7 +4350,7 @@
         <v>392.61</v>
       </c>
       <c r="C187" t="n">
-        <v>373.49</v>
+        <v>373.33</v>
       </c>
       <c r="D187" t="n">
         <v>376.46</v>
@@ -4371,7 +4371,7 @@
         <v>392.61</v>
       </c>
       <c r="C188" t="n">
-        <v>364.69</v>
+        <v>364.78</v>
       </c>
       <c r="D188" t="n">
         <v>367.77</v>
@@ -4392,7 +4392,7 @@
         <v>392.61</v>
       </c>
       <c r="C189" t="n">
-        <v>356.4</v>
+        <v>356.46</v>
       </c>
       <c r="D189" t="n">
         <v>359.9</v>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="n">
-        <v>347.31</v>
+        <v>347.34</v>
       </c>
       <c r="D190" t="n">
         <v>351.77</v>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="n">
-        <v>350.38</v>
+        <v>350.32</v>
       </c>
       <c r="D191" t="n">
         <v>354.24</v>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="n">
-        <v>353.16</v>
+        <v>353.02</v>
       </c>
       <c r="D192" t="n">
         <v>356.66</v>
@@ -4470,7 +4470,7 @@
         <v>363.32</v>
       </c>
       <c r="C193" t="n">
-        <v>354.61</v>
+        <v>354.17</v>
       </c>
       <c r="D193" t="n">
         <v>356.65</v>
@@ -4491,7 +4491,7 @@
         <v>360.41</v>
       </c>
       <c r="C194" t="n">
-        <v>353.07</v>
+        <v>352.58</v>
       </c>
       <c r="D194" t="n">
         <v>354.66</v>
@@ -4512,7 +4512,7 @@
         <v>362.63</v>
       </c>
       <c r="C195" t="n">
-        <v>360.87</v>
+        <v>360.23</v>
       </c>
       <c r="D195" t="n">
         <v>356.2</v>
@@ -4533,7 +4533,7 @@
         <v>363.08</v>
       </c>
       <c r="C196" t="n">
-        <v>359.53</v>
+        <v>358.9</v>
       </c>
       <c r="D196" t="n">
         <v>355.68</v>
@@ -4554,7 +4554,7 @@
         <v>360.66</v>
       </c>
       <c r="C197" t="n">
-        <v>361.14</v>
+        <v>360.68</v>
       </c>
       <c r="D197" t="n">
         <v>356.23</v>
@@ -4575,7 +4575,7 @@
         <v>360.06</v>
       </c>
       <c r="C198" t="n">
-        <v>361.26</v>
+        <v>360.82</v>
       </c>
       <c r="D198" t="n">
         <v>355.6</v>
@@ -4596,7 +4596,7 @@
         <v>357.04</v>
       </c>
       <c r="C199" t="n">
-        <v>359.72</v>
+        <v>359.39</v>
       </c>
       <c r="D199" t="n">
         <v>354.02</v>
@@ -4617,7 +4617,7 @@
         <v>354.44</v>
       </c>
       <c r="C200" t="n">
-        <v>359.04</v>
+        <v>358.74</v>
       </c>
       <c r="D200" t="n">
         <v>352.66</v>
@@ -4638,7 +4638,7 @@
         <v>354.17</v>
       </c>
       <c r="C201" t="n">
-        <v>360.33</v>
+        <v>360.06</v>
       </c>
       <c r="D201" t="n">
         <v>354.27</v>
@@ -4659,7 +4659,7 @@
         <v>353.01</v>
       </c>
       <c r="C202" t="n">
-        <v>360.21</v>
+        <v>360.07</v>
       </c>
       <c r="D202" t="n">
         <v>355.53</v>
@@ -4680,7 +4680,7 @@
         <v>366.39</v>
       </c>
       <c r="C203" t="n">
-        <v>355.46</v>
+        <v>355.47</v>
       </c>
       <c r="D203" t="n">
         <v>355.14</v>
@@ -4701,7 +4701,7 @@
         <v>378.94</v>
       </c>
       <c r="C204" t="n">
-        <v>356.03</v>
+        <v>356.12</v>
       </c>
       <c r="D204" t="n">
         <v>355.44</v>
@@ -4722,7 +4722,7 @@
         <v>407.54</v>
       </c>
       <c r="C205" t="n">
-        <v>351.13</v>
+        <v>351.16</v>
       </c>
       <c r="D205" t="n">
         <v>351.56</v>
@@ -4743,7 +4743,7 @@
         <v>416.19</v>
       </c>
       <c r="C206" t="n">
-        <v>351.07</v>
+        <v>351</v>
       </c>
       <c r="D206" t="n">
         <v>352.11</v>
@@ -4764,7 +4764,7 @@
         <v>468.57</v>
       </c>
       <c r="C207" t="n">
-        <v>346.96</v>
+        <v>346.79</v>
       </c>
       <c r="D207" t="n">
         <v>345.12</v>
@@ -4785,7 +4785,7 @@
         <v>468.62</v>
       </c>
       <c r="C208" t="n">
-        <v>348.51</v>
+        <v>348.47</v>
       </c>
       <c r="D208" t="n">
         <v>345.99</v>
@@ -4827,7 +4827,7 @@
         <v>468.62</v>
       </c>
       <c r="C210" t="n">
-        <v>346.26</v>
+        <v>346.25</v>
       </c>
       <c r="D210" t="n">
         <v>343.92</v>
@@ -4848,7 +4848,7 @@
         <v>468.62</v>
       </c>
       <c r="C211" t="n">
-        <v>346.26</v>
+        <v>346.25</v>
       </c>
       <c r="D211" t="n">
         <v>343.54</v>
@@ -4869,7 +4869,7 @@
         <v>446.39</v>
       </c>
       <c r="C212" t="n">
-        <v>348.03</v>
+        <v>348.06</v>
       </c>
       <c r="D212" t="n">
         <v>344.49</v>
@@ -4890,7 +4890,7 @@
         <v>429.94</v>
       </c>
       <c r="C213" t="n">
-        <v>346.88</v>
+        <v>346.84</v>
       </c>
       <c r="D213" t="n">
         <v>344.63</v>
@@ -4932,7 +4932,7 @@
         <v>405.01</v>
       </c>
       <c r="C215" t="n">
-        <v>345.23</v>
+        <v>345.21</v>
       </c>
       <c r="D215" t="n">
         <v>344.16</v>
@@ -4953,7 +4953,7 @@
         <v>390.02</v>
       </c>
       <c r="C216" t="n">
-        <v>346.95</v>
+        <v>346.94</v>
       </c>
       <c r="D216" t="n">
         <v>344.92</v>
@@ -4974,7 +4974,7 @@
         <v>373.06</v>
       </c>
       <c r="C217" t="n">
-        <v>347.69</v>
+        <v>347.76</v>
       </c>
       <c r="D217" t="n">
         <v>346.09</v>
@@ -4995,7 +4995,7 @@
         <v>368.6</v>
       </c>
       <c r="C218" t="n">
-        <v>349.51</v>
+        <v>349.6</v>
       </c>
       <c r="D218" t="n">
         <v>347.76</v>
@@ -5016,7 +5016,7 @@
         <v>337.7</v>
       </c>
       <c r="C219" t="n">
-        <v>350.94</v>
+        <v>351.09</v>
       </c>
       <c r="D219" t="n">
         <v>351.42</v>
@@ -5037,7 +5037,7 @@
         <v>340.6</v>
       </c>
       <c r="C220" t="n">
-        <v>353.36</v>
+        <v>353.46</v>
       </c>
       <c r="D220" t="n">
         <v>354.49</v>
@@ -5058,7 +5058,7 @@
         <v>340.6</v>
       </c>
       <c r="C221" t="n">
-        <v>354.2</v>
+        <v>354.27</v>
       </c>
       <c r="D221" t="n">
         <v>356.83</v>
@@ -5079,7 +5079,7 @@
         <v>340.6</v>
       </c>
       <c r="C222" t="n">
-        <v>354.51</v>
+        <v>354.6</v>
       </c>
       <c r="D222" t="n">
         <v>357.01</v>
@@ -5100,7 +5100,7 @@
         <v>338.5</v>
       </c>
       <c r="C223" t="n">
-        <v>351.97</v>
+        <v>351.93</v>
       </c>
       <c r="D223" t="n">
         <v>355.53</v>
@@ -5121,7 +5121,7 @@
         <v>341.29</v>
       </c>
       <c r="C224" t="n">
-        <v>354.8</v>
+        <v>354.7</v>
       </c>
       <c r="D224" t="n">
         <v>357.98</v>
@@ -5142,7 +5142,7 @@
         <v>344.09</v>
       </c>
       <c r="C225" t="n">
-        <v>351.56</v>
+        <v>351.28</v>
       </c>
       <c r="D225" t="n">
         <v>355</v>
@@ -5163,7 +5163,7 @@
         <v>344.09</v>
       </c>
       <c r="C226" t="n">
-        <v>351.75</v>
+        <v>351.55</v>
       </c>
       <c r="D226" t="n">
         <v>355.19</v>
@@ -5184,7 +5184,7 @@
         <v>357.62</v>
       </c>
       <c r="C227" t="n">
-        <v>352.02</v>
+        <v>351.75</v>
       </c>
       <c r="D227" t="n">
         <v>355</v>
@@ -5205,7 +5205,7 @@
         <v>359.58</v>
       </c>
       <c r="C228" t="n">
-        <v>351.07</v>
+        <v>350.72</v>
       </c>
       <c r="D228" t="n">
         <v>354.36</v>
@@ -5226,7 +5226,7 @@
         <v>362.86</v>
       </c>
       <c r="C229" t="n">
-        <v>352.49</v>
+        <v>352.1</v>
       </c>
       <c r="D229" t="n">
         <v>355.27</v>
@@ -5247,7 +5247,7 @@
         <v>362.35</v>
       </c>
       <c r="C230" t="n">
-        <v>354.9</v>
+        <v>354.69</v>
       </c>
       <c r="D230" t="n">
         <v>356.89</v>
@@ -5268,7 +5268,7 @@
         <v>358.04</v>
       </c>
       <c r="C231" t="n">
-        <v>355.18</v>
+        <v>355.08</v>
       </c>
       <c r="D231" t="n">
         <v>357.28</v>
@@ -5289,7 +5289,7 @@
         <v>359.89</v>
       </c>
       <c r="C232" t="n">
-        <v>356.1</v>
+        <v>355.96</v>
       </c>
       <c r="D232" t="n">
         <v>358.49</v>
@@ -5310,7 +5310,7 @@
         <v>359.34</v>
       </c>
       <c r="C233" t="n">
-        <v>358.3</v>
+        <v>358.15</v>
       </c>
       <c r="D233" t="n">
         <v>360.72</v>
@@ -5331,7 +5331,7 @@
         <v>359.26</v>
       </c>
       <c r="C234" t="n">
-        <v>360.41</v>
+        <v>360.4</v>
       </c>
       <c r="D234" t="n">
         <v>362.91</v>
@@ -5352,7 +5352,7 @@
         <v>361.64</v>
       </c>
       <c r="C235" t="n">
-        <v>362.19</v>
+        <v>362.06</v>
       </c>
       <c r="D235" t="n">
         <v>364.71</v>
@@ -5373,7 +5373,7 @@
         <v>358.16</v>
       </c>
       <c r="C236" t="n">
-        <v>359.86</v>
+        <v>359.68</v>
       </c>
       <c r="D236" t="n">
         <v>363.74</v>
@@ -5394,7 +5394,7 @@
         <v>361</v>
       </c>
       <c r="C237" t="n">
-        <v>358.34</v>
+        <v>358.03</v>
       </c>
       <c r="D237" t="n">
         <v>362.34</v>
@@ -5415,7 +5415,7 @@
         <v>361</v>
       </c>
       <c r="C238" t="n">
-        <v>358.34</v>
+        <v>358.03</v>
       </c>
       <c r="D238" t="n">
         <v>358.58</v>
@@ -5436,7 +5436,7 @@
         <v>359.39</v>
       </c>
       <c r="C239" t="n">
-        <v>351.85</v>
+        <v>351.29</v>
       </c>
       <c r="D239" t="n">
         <v>356.35</v>
@@ -5457,7 +5457,7 @@
         <v>359.39</v>
       </c>
       <c r="C240" t="n">
-        <v>354.15</v>
+        <v>353.83</v>
       </c>
       <c r="D240" t="n">
         <v>356.85</v>
@@ -5478,7 +5478,7 @@
         <v>359.39</v>
       </c>
       <c r="C241" t="n">
-        <v>354.92</v>
+        <v>354.75</v>
       </c>
       <c r="D241" t="n">
         <v>357.96</v>
@@ -5499,7 +5499,7 @@
         <v>348.86</v>
       </c>
       <c r="C242" t="n">
-        <v>352.88</v>
+        <v>352.77</v>
       </c>
       <c r="D242" t="n">
         <v>357.13</v>
@@ -5520,7 +5520,7 @@
         <v>345.5</v>
       </c>
       <c r="C243" t="n">
-        <v>350.52</v>
+        <v>350.4</v>
       </c>
       <c r="D243" t="n">
         <v>355.52</v>
@@ -5541,7 +5541,7 @@
         <v>341.6</v>
       </c>
       <c r="C244" t="n">
-        <v>351.62</v>
+        <v>351.63</v>
       </c>
       <c r="D244" t="n">
         <v>355.96</v>
@@ -5562,7 +5562,7 @@
         <v>341.6</v>
       </c>
       <c r="C245" t="n">
-        <v>347.6</v>
+        <v>347.68</v>
       </c>
       <c r="D245" t="n">
         <v>354.03</v>
@@ -5583,7 +5583,7 @@
         <v>343.1</v>
       </c>
       <c r="C246" t="n">
-        <v>349.39</v>
+        <v>349.55</v>
       </c>
       <c r="D246" t="n">
         <v>355.45</v>
@@ -5604,7 +5604,7 @@
         <v>341.49</v>
       </c>
       <c r="C247" t="n">
-        <v>348.99</v>
+        <v>349.19</v>
       </c>
       <c r="D247" t="n">
         <v>354.74</v>
@@ -5625,7 +5625,7 @@
         <v>340.18</v>
       </c>
       <c r="C248" t="n">
-        <v>347.88</v>
+        <v>348.05</v>
       </c>
       <c r="D248" t="n">
         <v>355.21</v>
@@ -5646,7 +5646,7 @@
         <v>340.29</v>
       </c>
       <c r="C249" t="n">
-        <v>346.98</v>
+        <v>347.1</v>
       </c>
       <c r="D249" t="n">
         <v>354.05</v>
@@ -5667,7 +5667,7 @@
         <v>335.31</v>
       </c>
       <c r="C250" t="n">
-        <v>343.75</v>
+        <v>343.91</v>
       </c>
       <c r="D250" t="n">
         <v>350.69</v>
@@ -5688,7 +5688,7 @@
         <v>351.4</v>
       </c>
       <c r="C251" t="n">
-        <v>343.8</v>
+        <v>343.96</v>
       </c>
       <c r="D251" t="n">
         <v>350.12</v>
@@ -5696,6 +5696,27 @@
       <c r="E251" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>359.28</v>
+      </c>
+      <c r="C252" t="n">
+        <v>343.76</v>
+      </c>
+      <c r="D252" t="n">
+        <v>349.97</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -5710,7 +5731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B258"/>
+  <dimension ref="A1:B259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8298,6 +8319,16 @@
       </c>
       <c r="B258" t="n">
         <v>-0.18</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>-0.13</v>
       </c>
     </row>
   </sheetData>
@@ -8468,31 +8499,31 @@
         <v>0.0239</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0354</v>
+        <v>0.0351</v>
       </c>
       <c r="I2" t="n">
-        <v>1.313202272656083</v>
+        <v>1.290949594100213</v>
       </c>
       <c r="J2" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K2" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06935840523840464</v>
+        <v>0.06768102947967347</v>
       </c>
       <c r="M2" t="n">
-        <v>29.02050858911336</v>
+        <v>28.9707940528673</v>
       </c>
       <c r="N2" t="n">
-        <v>1393.740766634653</v>
+        <v>1391.0024384096</v>
       </c>
       <c r="O2" t="n">
-        <v>37.33283764509004</v>
+        <v>37.29614508779158</v>
       </c>
       <c r="P2" t="n">
-        <v>351.8925724716653</v>
+        <v>352.0964010456557</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8540,37 +8571,37 @@
         <v>0.5010044761321643</v>
       </c>
       <c r="F3" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06560000000000001</v>
+        <v>0.0658</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09420000000000001</v>
+        <v>0.09470000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02087295660358619</v>
+        <v>0.004976118668668948</v>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K3" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004814377756373611</v>
+        <v>2.726924907281436e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>6.049363662382575</v>
+        <v>6.07479394413178</v>
       </c>
       <c r="N3" t="n">
-        <v>54.24617992572724</v>
+        <v>54.77225379875568</v>
       </c>
       <c r="O3" t="n">
-        <v>7.365200603223733</v>
+        <v>7.400827913061868</v>
       </c>
       <c r="P3" t="n">
-        <v>355.3012775746469</v>
+        <v>355.4527927881471</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8621,34 +8652,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0626</v>
+        <v>0.06279999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0779</v>
+        <v>0.078</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1130635283827087</v>
+        <v>-0.118881569559372</v>
       </c>
       <c r="J4" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K4" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0149325882341389</v>
+        <v>0.01657502526102805</v>
       </c>
       <c r="M4" t="n">
-        <v>5.464088372764476</v>
+        <v>5.459472696395044</v>
       </c>
       <c r="N4" t="n">
-        <v>50.57390061760969</v>
+        <v>50.580168433193</v>
       </c>
       <c r="O4" t="n">
-        <v>7.111532930220438</v>
+        <v>7.111973596210338</v>
       </c>
       <c r="P4" t="n">
-        <v>360.2141339849106</v>
+        <v>360.2675995758731</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8686,7 +8717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E251"/>
+  <dimension ref="A1:E252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8734,7 +8765,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-34.80469397546267,173.16511511662353</t>
+          <t>-34.804693093499885,173.16511359643945</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -8761,7 +8792,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-34.804721627579866,173.16516277888186</t>
+          <t>-34.80472292458302,173.16516501444823</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8788,7 +8819,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-34.80476780086667,173.16524236508766</t>
+          <t>-34.8047700835896,173.16524629968887</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -8815,7 +8846,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-34.804774026474355,173.16525309581883</t>
+          <t>-34.8047757385163,173.16525604677017</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -8842,7 +8873,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-34.8047518218026,173.16521482288505</t>
+          <t>-34.80475358572555,173.16521786325754</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -8869,7 +8900,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-34.80472100501832,173.16516170581002</t>
+          <t>-34.80472157569974,173.16516268945918</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -8896,7 +8927,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-34.80469174461562,173.1651112714521</t>
+          <t>-34.8046920558966,173.1651118079876</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -8923,7 +8954,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-34.80467918961364,173.16508963118886</t>
+          <t>-34.80467944901455,173.1650900783017</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -8950,7 +8981,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-34.80466352179579,173.1650626255803</t>
+          <t>-34.8046639368374,173.16506334096053</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -8977,7 +9008,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-34.80463950125535,173.16502122296185</t>
+          <t>-34.804639916297205,173.16502193834168</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -9004,7 +9035,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-34.80463280870483,173.16500968746337</t>
+          <t>-34.804632289902415,173.16500879323877</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -9031,7 +9062,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-34.804648424654324,173.1650366036294</t>
+          <t>-34.804648580294995,173.16503687189692</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -9058,7 +9089,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-34.804670525622406,173.1650746976226</t>
+          <t>-34.8046705775026,173.16507478704514</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -9085,7 +9116,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-34.80468598591684,173.16510134554542</t>
+          <t>-34.80468593403666,173.16510125612285</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -9112,7 +9143,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-34.80465838565552,173.16505377275058</t>
+          <t>-34.80465874881697,173.1650543987082</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -9139,7 +9170,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-34.80460769866043,173.164966407005</t>
+          <t>-34.804608269343426,173.1649673906515</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -9166,7 +9197,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-34.80461916419916,173.1649861693598</t>
+          <t>-34.804617659671635,173.1649835761093</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -9193,7 +9224,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-34.80466979929971,173.16507344570704</t>
+          <t>-34.80466891733641,173.16507192552382</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -9220,7 +9251,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-34.80473304120623,173.1651824518683</t>
+          <t>-34.80473101788178,173.16517896438393</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -9247,7 +9278,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-34.80470606353874,173.1651359520909</t>
+          <t>-34.804706634220345,173.16513693573972</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -9274,7 +9305,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-34.804719656134985,173.1651593808211</t>
+          <t>-34.80471996741576,173.16515991735702</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -9301,7 +9332,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-34.80471825537146,173.16515696640963</t>
+          <t>-34.80471809973106,173.1651566981417</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -9328,7 +9359,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-34.80471825537146,173.16515696640963</t>
+          <t>-34.80471815161118,173.16515678756434</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -9351,7 +9382,7 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-34.804652471311364,173.1650435785844</t>
+          <t>-34.804653508915656,173.1650453670345</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -9378,7 +9409,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-34.80470082364354,173.16512692040686</t>
+          <t>-34.80470129056493,173.16512772521034</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -9405,7 +9436,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-34.80470082364354,173.16512692040686</t>
+          <t>-34.80470129056493,173.16512772521034</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -9432,7 +9463,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-34.80471851477212,173.16515741352285</t>
+          <t>-34.80471929297408,173.16515875486257</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -9459,7 +9490,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-34.80475690605094,173.165223586312</t>
+          <t>-34.80475752861192,173.16522465938476</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -9486,7 +9517,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-34.80475550528871,173.16522117189834</t>
+          <t>-34.80475669853062,173.16522322862107</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -9513,7 +9544,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-34.80474964283882,173.16521106713097</t>
+          <t>-34.804751147361436,173.1652136603897</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -9540,7 +9571,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-34.80474305406669,173.16519971044724</t>
+          <t>-34.80474486987014,173.1652028402418</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -9567,7 +9598,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-34.804751354881795,173.16521401808058</t>
+          <t>-34.80475254812382,173.1652160748031</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -9594,7 +9625,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-34.80474850147679,173.16520909983132</t>
+          <t>-34.80474876087726,173.16520954694485</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -9621,7 +9652,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-34.804751562402146,173.16521437577146</t>
+          <t>-34.80475145864197,173.16521419692603</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -9648,7 +9679,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-34.804750213519824,173.16521205078084</t>
+          <t>-34.8047502653999,173.16521214020355</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -9675,7 +9706,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-34.804746374392934,173.16520543350023</t>
+          <t>-34.80474653003323,173.16520570176834</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -9702,7 +9733,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-34.80476121209751,173.1652310083989</t>
+          <t>-34.80475991509557,173.1652287728305</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -9729,7 +9760,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-34.804762094058795,173.1652325285855</t>
+          <t>-34.804761108337345,173.16523082955345</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -9756,7 +9787,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-34.80475675041069,173.1652233180438</t>
+          <t>-34.804755557168775,173.16522126132105</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -9783,7 +9814,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-34.80474813831615,173.16520847387233</t>
+          <t>-34.80474694507398,173.16520641715002</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -9810,7 +9841,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-34.8047468931939,173.1652063277273</t>
+          <t>-34.804745699951695,173.16520427100505</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -9837,7 +9868,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-34.804740148781,173.16519470277623</t>
+          <t>-34.80473926681924,173.16519318259046</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -9864,7 +9895,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-34.804747308234646,173.16520704310895</t>
+          <t>-34.80474673755359,173.16520605945917</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -9891,7 +9922,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-34.80475285940434,173.16521661133945</t>
+          <t>-34.80475291128442,173.16521670076216</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -9945,7 +9976,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-34.80474912403789,173.16521017290384</t>
+          <t>-34.804749227798084,173.16521035174927</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -9972,7 +10003,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-34.80474912403789,173.16521017290384</t>
+          <t>-34.804749227798084,173.16521035174927</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -9999,7 +10030,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-34.804732159244296,173.16518093168278</t>
+          <t>-34.80473298932611,173.1651823624456</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -10026,7 +10057,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-34.804744610469655,173.16520239312825</t>
+          <t>-34.804744973630335,173.1652030190872</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -10053,7 +10084,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-34.80475223684329,173.1652155382668</t>
+          <t>-34.804752963164525,173.16521679018487</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -10080,7 +10111,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-34.80477257383265,173.1652505919814</t>
+          <t>-34.80477288511301,173.16525112851798</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -10107,7 +10138,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-34.80477127683108,173.16524835641235</t>
+          <t>-34.80477174375165,173.1652491612172</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -10134,7 +10165,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-34.804755868449284,173.16522179785744</t>
+          <t>-34.80475560904886,173.1652213507438</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -10161,7 +10192,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-34.804765310623345,173.16523807279563</t>
+          <t>-34.80476505122298,173.1652376256819</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -10188,7 +10219,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-34.80477034298992,173.1652467468027</t>
+          <t>-34.80477039486998,173.16524683622544</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -10215,7 +10246,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-34.80477625731687,173.16525694099786</t>
+          <t>-34.804776464837104,173.16525729868897</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -10242,7 +10273,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-34.80477781371855,173.16525962368104</t>
+          <t>-34.804777554318285,173.1652591765672</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -10269,7 +10300,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-34.80477802123878,173.16525998137215</t>
+          <t>-34.804777658078386,173.16525935541273</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -10296,7 +10327,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-34.804762560979476,173.16523333339018</t>
+          <t>-34.804762094058795,173.1652325285855</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -10323,7 +10354,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-34.80475234060347,173.16521571711223</t>
+          <t>-34.80475140676188,173.16521410750332</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -10350,7 +10381,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-34.804761160217424,173.1652309189762</t>
+          <t>-34.80476043389636,173.16522966705787</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -10377,7 +10408,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-34.80475607596962,173.16522215554835</t>
+          <t>-34.8047551940082,173.16522063536198</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -10404,7 +10435,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-34.804744039788574,173.16520140947853</t>
+          <t>-34.804743417227385,173.16520033640612</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -10431,7 +10462,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-34.804729461478296,173.1651762817038</t>
+          <t>-34.80472894267712,173.16517538747706</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -10458,7 +10489,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-34.80472899455724,173.16517547689975</t>
+          <t>-34.804728890797,173.1651752980544</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -10485,7 +10516,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-34.80474445482938,173.16520212486014</t>
+          <t>-34.804744039788574,173.16520140947853</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -10508,7 +10539,7 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-34.80475560904886,173.1652213507438</t>
+          <t>-34.80475420828659,173.16521893633023</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -10535,7 +10566,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-34.80475125112161,173.16521383923515</t>
+          <t>-34.80475047292026,173.1652124978944</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -10562,7 +10593,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-34.80476313166029,173.16523431704033</t>
+          <t>-34.804762042178716,173.16523243916276</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -10589,7 +10620,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-34.80473994126059,173.16519434508544</t>
+          <t>-34.804740356301416,173.165195060467</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -10616,7 +10647,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-34.80474222398509,173.16519827968403</t>
+          <t>-34.80474315782689,173.1651998892926</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -10643,7 +10674,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-34.804757009811105,173.16522376515744</t>
+          <t>-34.804758151172884,173.16522573245754</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -10670,7 +10701,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-34.8047477232754,173.16520775849062</t>
+          <t>-34.804748449596694,173.16520901040857</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -10697,7 +10728,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-34.80472655619164,173.16517127403444</t>
+          <t>-34.804727023112726,173.1651720788384</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -10751,7 +10782,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-34.804708709426144,173.16514051264463</t>
+          <t>-34.80470850190557,173.16514015495414</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -10778,7 +10809,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-34.8046880611237,173.16510492244856</t>
+          <t>-34.804687282921144,173.1651035811099</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -10805,7 +10836,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-34.80465293823329,173.16504438338694</t>
+          <t>-34.80465454651992,173.16504715548464</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -10832,7 +10863,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-34.80470134244507,173.16512781463297</t>
+          <t>-34.80470326201069,173.16513112326956</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -10859,7 +10890,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-34.8047318479636,173.16518039514673</t>
+          <t>-34.804734130688566,173.16518432974453</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -10886,7 +10917,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-34.804728216355464,173.16517413555974</t>
+          <t>-34.8047303953204,173.16517789131186</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -10913,7 +10944,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-34.804714623762095,173.16515070682468</t>
+          <t>-34.80471597264561,173.1651530318133</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -10940,7 +10971,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-34.804715401964124,173.16515204816426</t>
+          <t>-34.804716958368154,173.1651547308435</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -10967,7 +10998,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-34.804717477169476,173.16515562506996</t>
+          <t>-34.80471830725158,173.16515705583228</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -10994,7 +11025,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-34.804701705606135,173.16512844059122</t>
+          <t>-34.804701809366456,173.16512861943644</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -11021,7 +11052,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-34.804701705606135,173.16512844059122</t>
+          <t>-34.804701809366456,173.16512861943644</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -11048,7 +11079,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-34.8047178403304,173.16515625102846</t>
+          <t>-34.80471778845026,173.1651561616058</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -11075,7 +11106,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-34.80471218539562,173.1651465039608</t>
+          <t>-34.804712081635344,173.16514632511553</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -11102,7 +11133,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-34.80472852763618,173.16517467209573</t>
+          <t>-34.80472728251332,173.16517252595173</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -11129,7 +11160,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-34.80471420872101,173.16514999144357</t>
+          <t>-34.80471488316277,173.16515115393787</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -11156,7 +11187,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-34.80470160184585,173.165128261746</t>
+          <t>-34.804702639448884,173.16513005019823</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -11179,7 +11210,7 @@
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-34.804691485214775,173.16511082433917</t>
+          <t>-34.80469397546267,173.16511511662353</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -11206,7 +11237,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-34.80467789260907,173.16508739562485</t>
+          <t>-34.804679241493815,173.16508972061143</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -11233,7 +11264,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-34.804691692735446,173.1651111820295</t>
+          <t>-34.80469257469825,173.16511270221352</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -11260,7 +11291,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-34.80470341765115,173.16513139153741</t>
+          <t>-34.80470383269234,173.16513210691835</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -11287,7 +11318,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-34.804705129696075,173.16513434248375</t>
+          <t>-34.80470564849755,173.16513523670992</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -11314,7 +11345,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-34.804723547144505,173.1651660875201</t>
+          <t>-34.8047237027849,173.16516635578807</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -11341,7 +11372,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-34.80472546670909,173.16516939615852</t>
+          <t>-34.80472468850724,173.1651680548186</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -11368,7 +11399,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-34.804707671823266,173.16513872419216</t>
+          <t>-34.80470642669976,173.16513657804921</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -11395,7 +11426,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-34.8046811091803,173.16509293982372</t>
+          <t>-34.80467918961364,173.16508963118886</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -11422,7 +11453,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-34.80472048621705,173.1651608115835</t>
+          <t>-34.804718981693284,173.1651582183267</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -11449,7 +11480,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-34.804826788460986,173.16534403883009</t>
+          <t>-34.80482886366063,173.1653476157454</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -11476,7 +11507,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-34.80477662047726,173.16525756695728</t>
+          <t>-34.80477719115789,173.16525855060777</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -11503,7 +11534,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-34.80475125112161,173.16521383923515</t>
+          <t>-34.804751718042404,173.16521464403962</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -11530,7 +11561,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-34.80474206834478,173.16519801141595</t>
+          <t>-34.804742794666204,173.16519926333373</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -11557,7 +11588,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-34.80470974702901,173.16514230109718</t>
+          <t>-34.80470922822758,173.1651414068709</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -11584,7 +11615,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-34.80468095353978,173.16509267155604</t>
+          <t>-34.80467970841545,173.16509052541448</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -11611,7 +11642,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-34.8046717188668,173.16507675434113</t>
+          <t>-34.804670214341236,173.16507416108738</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -11638,7 +11669,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-34.804671096304524,173.1650756812706</t>
+          <t>-34.80466990306008,173.16507362455212</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -11665,7 +11696,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-34.80466253607195,173.1650609265523</t>
+          <t>-34.804661394707466,173.16505895925675</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -11692,7 +11723,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-34.80466108342626,173.16505842272161</t>
+          <t>-34.804659111978424,173.16505502466583</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -11719,7 +11750,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-34.80469838527624,173.1651227175444</t>
+          <t>-34.804696310069914,173.16511914064034</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -11746,7 +11777,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-34.80471996741576,173.16515991735702</t>
+          <t>-34.80471799597079,173.16515651929637</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -11773,7 +11804,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-34.80471841101185,173.16515723467757</t>
+          <t>-34.804716024525746,173.16515312123593</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -11800,7 +11831,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-34.80472624491092,173.16517073749844</t>
+          <t>-34.80472489602774,173.16516841250925</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -11827,7 +11858,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-34.80471400120045,173.16514963375303</t>
+          <t>-34.80471353427923,173.16514882894927</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -11854,7 +11885,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-34.8046866084789,173.16510241861636</t>
+          <t>-34.80468946188827,173.1651073368583</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -11877,7 +11908,7 @@
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-34.80470289884964,173.1651304973113</t>
+          <t>-34.80470554473726,173.1651350578647</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -11904,7 +11935,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-34.804722042620874,173.16516349426308</t>
+          <t>-34.804723132103526,173.16516537213886</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -11931,7 +11962,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-34.80469656947071,173.16511958775337</t>
+          <t>-34.804696673231035,173.16511976659854</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -11958,7 +11989,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-34.80471861853236,173.16515759236816</t>
+          <t>-34.80471809973106,173.1651566981417</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -11985,7 +12016,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-34.8047107327517,173.16514400012713</t>
+          <t>-34.804710213950294,173.16514310590082</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -12012,7 +12043,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-34.80471618016614,173.16515338950387</t>
+          <t>-34.80471529820386,173.16515186931898</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -12039,7 +12070,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-34.80471239291618,173.16514686165132</t>
+          <t>-34.804711977875066,173.16514614627025</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -12066,7 +12097,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-34.80471031771057,173.16514328474608</t>
+          <t>-34.8047103695907,173.1651433741687</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -12093,7 +12124,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-34.804700979284,173.1651271886747</t>
+          <t>-34.804701186804614,173.16512754636514</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -12120,7 +12151,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-34.804705181576225,173.16513443190635</t>
+          <t>-34.804705129696075,173.16513434248375</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -12147,7 +12178,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-34.80470886506658,173.1651407809125</t>
+          <t>-34.80470891694672,173.16514087033514</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -12174,7 +12205,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-34.804710888392115,173.165144268395</t>
+          <t>-34.804710940272265,173.16514435781764</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -12201,7 +12232,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-34.80472095313821,173.16516161638737</t>
+          <t>-34.804721368179216,173.16516233176858</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -12228,7 +12259,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-34.804726348671146,173.16517091634375</t>
+          <t>-34.8047269712326,173.16517198941574</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -12255,7 +12286,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-34.80479394841249,173.16528743416936</t>
+          <t>-34.804793533372205,173.1652867187869</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -12282,7 +12313,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-34.80478450624512,173.1652711592199</t>
+          <t>-34.80478486940544,173.16527178517944</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -12309,7 +12340,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-34.80477687987756,173.16525801407113</t>
+          <t>-34.80477745055816,173.16525899772162</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -12336,7 +12367,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-34.80477791747867,173.1652598025266</t>
+          <t>-34.80477854003932,173.1652608755999</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -12363,7 +12394,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-34.80476152337796,173.16523154493535</t>
+          <t>-34.80476235345917,173.1652329756992</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -12390,7 +12421,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-34.80475228872338,173.16521562768952</t>
+          <t>-34.80475285940434,173.16521661133945</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -12417,7 +12448,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-34.80474445482938,173.16520212486014</t>
+          <t>-34.80474455858955,173.16520230370557</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -12444,7 +12475,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-34.80474201646468,173.16519792199324</t>
+          <t>-34.80474170518408,173.16519738545708</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -12471,7 +12502,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-34.80471353427923,173.16514882894927</t>
+          <t>-34.804713378638795,173.1651485606814</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -12498,7 +12529,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-34.804690343851114,173.16510885704224</t>
+          <t>-34.80469024009079,173.16510867819707</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -12525,7 +12556,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-34.804631563579015,173.16500754132431</t>
+          <t>-34.80463151169877,173.16500745190186</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -12552,7 +12583,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-34.804644896799154,173.1650305229</t>
+          <t>-34.80464302911099,173.1650273036905</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -12579,7 +12610,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-34.80465631044713,173.16505019585003</t>
+          <t>-34.804653768316726,173.16504581414702</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -12606,7 +12637,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-34.80467493543852,173.16508229853918</t>
+          <t>-34.8046723414291,173.1650778274117</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -12633,7 +12664,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-34.80468525959442,173.16510009362935</t>
+          <t>-34.80468282122617,173.16509589076847</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -12660,7 +12691,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-34.80468998068995,173.16510823108413</t>
+          <t>-34.804688579925404,173.16510581667438</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -12687,7 +12718,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-34.80468904684692,173.1651066214776</t>
+          <t>-34.80468847616505,173.1651056378292</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -12714,7 +12745,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-34.804705700377696,173.16513532613254</t>
+          <t>-34.80470497405564,173.1651340742159</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -12741,7 +12772,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-34.80471109591268,173.16514462608552</t>
+          <t>-34.804709850789294,173.16514247994243</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -12768,7 +12799,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-34.80471177035451,173.16514578857974</t>
+          <t>-34.8047103695907,173.1651433741687</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -12795,7 +12826,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-34.804721886980495,173.16516322599512</t>
+          <t>-34.80472090125808,173.16516152696474</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -12822,7 +12853,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-34.80473200360396,173.16518066341476</t>
+          <t>-34.804734390089116,173.16518477685796</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -12849,7 +12880,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-34.804743365347285,173.16520024698343</t>
+          <t>-34.80474559619149,173.16520409215963</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -12876,7 +12907,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-34.80473962997997,173.1651938085493</t>
+          <t>-34.80474196458459,173.16519783257056</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -12903,7 +12934,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-34.80475649101029,173.16522287093017</t>
+          <t>-34.804757113571256,173.16522394400292</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -12930,7 +12961,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-34.80476925350855,173.1652448689248</t>
+          <t>-34.804769149748424,173.16524469007928</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -12957,7 +12988,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-34.80480432441805,173.16530531873346</t>
+          <t>-34.80480224921716,173.16530174182026</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -12984,7 +13015,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-34.80479529729337,173.16528975916245</t>
+          <t>-34.80479342961216,173.16528653994126</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -13011,7 +13042,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-34.80478590700635,173.16527357363526</t>
+          <t>-34.80478424684488,173.16527071210595</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -13038,7 +13069,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-34.80476458430233,173.16523682087717</t>
+          <t>-34.80476416926176,173.1652361054952</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -13065,7 +13096,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-34.80475119924152,173.16521374981244</t>
+          <t>-34.80475151052206,173.16521428634874</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -13092,7 +13123,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-34.804743365347285,173.16520024698343</t>
+          <t>-34.80474320970699,173.16519997871532</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -13119,7 +13150,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-34.80473682845425,173.1651889797241</t>
+          <t>-34.80473833297734,173.16519157298202</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -13146,7 +13177,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-34.80474585559198,173.16520453927316</t>
+          <t>-34.804747308234646,173.16520704310895</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -13173,7 +13204,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-34.804764324901974,173.16523637376346</t>
+          <t>-34.80476536250342,173.16523816221837</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -13200,7 +13231,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-34.80476764522647,173.1652420968194</t>
+          <t>-34.80476899410822,173.165244421811</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -13227,7 +13258,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-34.80476349482081,173.16523494299952</t>
+          <t>-34.804764739942556,173.16523708914542</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -13254,7 +13285,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-34.80476266473961,173.16523351223566</t>
+          <t>-34.80476416926176,173.1652361054952</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -13281,7 +13312,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>-34.80475955193503,173.16522814687136</t>
+          <t>-34.804760745176814,173.1652302035943</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -13308,7 +13339,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-34.804773507673744,173.16525220159116</t>
+          <t>-34.80477381895411,173.16525273812775</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -13335,7 +13366,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-34.80478419496485,173.16527062268315</t>
+          <t>-34.80478377992446,173.16526990730085</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -13362,7 +13393,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-34.80478808596816,173.1652773293926</t>
+          <t>-34.804787774687924,173.16527679285585</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -13389,7 +13420,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-34.804790628090146,173.16528171110977</t>
+          <t>-34.804790368689964,173.16528126399578</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -13416,7 +13447,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-34.80477791747867,173.1652598025266</t>
+          <t>-34.804779525760345,173.1652625746327</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -13443,7 +13474,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-34.80477314451331,173.1652515756318</t>
+          <t>-34.804774649035075,173.165254168892</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -13470,7 +13501,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-34.80476499934291,173.16523753625913</t>
+          <t>-34.804766970785565,173.1652409343236</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -13497,7 +13528,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-34.80477247007252,173.16525041313588</t>
+          <t>-34.80477366331393,173.16525246985944</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -13524,7 +13555,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-34.8047864258068,173.16527446786316</t>
+          <t>-34.8047867889671,173.16527509382274</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -13551,7 +13582,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-34.80478258668335,173.16526785057678</t>
+          <t>-34.804782016002804,173.16526686692615</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -13578,7 +13609,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-34.804788449128466,173.1652779553522</t>
+          <t>-34.80478746340766,173.16527625631906</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -13605,7 +13636,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-34.80479939581574,173.16529682356497</t>
+          <t>-34.804797631894765,173.1652937831891</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -13632,7 +13663,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-34.80478248292325,173.16526767173121</t>
+          <t>-34.80478071900154,173.16526463135662</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -13659,7 +13690,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-34.80478601076644,173.16527375248083</t>
+          <t>-34.804784350604976,173.16527089095152</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -13686,7 +13717,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-34.80477905883986,173.16526176982768</t>
+          <t>-34.80477713927783,173.165258461185</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -13713,7 +13744,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-34.80481812450133,173.16532910521065</t>
+          <t>-34.80481729442128,173.1653276744449</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -13740,7 +13771,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-34.80477247007252,173.16525041313588</t>
+          <t>-34.80477293699309,173.16525121794072</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -13767,7 +13798,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-34.804729461478296,173.1651762817038</t>
+          <t>-34.80472977275899,173.16517681823981</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -13790,7 +13821,7 @@
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-34.8046823024244,173.16509499654276</t>
+          <t>-34.80468245806494,173.16509526481047</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -13813,7 +13844,7 @@
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-34.80469822963576,173.16512244927657</t>
+          <t>-34.80469791835482,173.16512191274097</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -13836,7 +13867,7 @@
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-34.80471265231688,173.1651473087645</t>
+          <t>-34.80471192599493,173.16514605684765</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -13863,7 +13894,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-34.80472017493627,173.1651602750476</t>
+          <t>-34.80471789221055,173.1651563404511</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -13890,7 +13921,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-34.80471218539562,173.1651465039608</t>
+          <t>-34.804709643268716,173.16514212225192</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -13917,7 +13948,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-34.80475265188399,173.16521625364857</t>
+          <t>-34.80474933155826,173.1652105305947</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -13944,7 +13975,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-34.804745699951695,173.16520427100505</t>
+          <t>-34.804742431505495,173.16519863737486</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -13971,7 +14002,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-34.804754052646324,173.16521866806204</t>
+          <t>-34.804751666162325,173.1652145546169</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -13998,7 +14029,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-34.80475467520735,173.16521974113473</t>
+          <t>-34.804752392483564,173.16521580653495</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -14025,7 +14056,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-34.80474668567351,173.16520597003648</t>
+          <t>-34.804744973630335,173.1652030190872</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -14052,7 +14083,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-34.80474315782689,173.1651998892926</t>
+          <t>-34.80474160142388,173.16519720661168</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -14079,7 +14110,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-34.80474985035918,173.16521142482182</t>
+          <t>-34.804748449596694,173.16520901040857</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -14106,7 +14137,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>-34.804749227798084,173.16521035174927</t>
+          <t>-34.80474850147679,173.16520909983132</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -14133,7 +14164,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-34.80472458474699,173.16516787597328</t>
+          <t>-34.80472463662712,173.16516796539594</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -14160,7 +14191,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-34.80472754191392,173.16517297306507</t>
+          <t>-34.804728008835,173.16517377786906</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -14187,7 +14218,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>-34.80470212064736,173.1651291559721</t>
+          <t>-34.80470227628781,173.16512942423992</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -14214,7 +14245,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-34.804701809366456,173.16512861943644</t>
+          <t>-34.80470144620538,173.16512799347817</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -14241,7 +14272,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-34.804680486618146,173.16509186675296</t>
+          <t>-34.80467960465509,173.16509034656937</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -14268,7 +14299,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-34.804688528045226,173.16510572725178</t>
+          <t>-34.80468832052455,173.16510536956147</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -14322,7 +14353,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-34.804676855005404,173.16508560717372</t>
+          <t>-34.804676803125226,173.16508551775115</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -14349,7 +14380,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>-34.804676855005404,173.16508560717372</t>
+          <t>-34.804676803125226,173.16508551775115</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -14376,7 +14407,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-34.80468603779701,173.165101434968</t>
+          <t>-34.80468619343753,173.16510170323573</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -14403,7 +14434,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-34.80468007157671,173.16509115137245</t>
+          <t>-34.804679864055984,173.16509079368217</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -14457,7 +14488,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>-34.80467151134605,173.16507639665096</t>
+          <t>-34.804671407585666,173.16507621780588</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -14484,7 +14515,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-34.804680434737975,173.1650917773304</t>
+          <t>-34.80468038285778,173.16509168790782</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -14511,7 +14542,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-34.8046842738711,173.16509839460045</t>
+          <t>-34.80468463703234,173.16509902055847</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -14538,7 +14569,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-34.804693716061855,173.16511466951056</t>
+          <t>-34.80469418298332,173.1651154743139</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -14565,7 +14596,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>-34.80470113492446,173.1651274569425</t>
+          <t>-34.804701913126756,173.16512879828167</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -14592,7 +14623,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-34.80471368991962,173.1651490972172</t>
+          <t>-34.80471420872101,173.16514999144357</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -14619,7 +14650,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-34.804718047850926,173.16515660871903</t>
+          <t>-34.80471841101185,173.16515723467757</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -14646,7 +14677,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>-34.804719656134985,173.1651593808211</t>
+          <t>-34.80472012305614,173.16516018562496</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -14673,7 +14704,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-34.80470647857992,173.16513666747184</t>
+          <t>-34.8047062710593,173.16513630978136</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -14700,7 +14731,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-34.80472116065871,173.16516197407796</t>
+          <t>-34.80472064185744,173.16516107985146</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -14727,7 +14758,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-34.804704351493854,173.1651330011445</t>
+          <t>-34.80470289884964,173.1651304973113</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -14754,7 +14785,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-34.80470533721667,173.1651347001742</t>
+          <t>-34.804704299613704,173.16513291172188</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -14781,7 +14812,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-34.804706737980645,173.16513711458495</t>
+          <t>-34.80470533721667,173.1651347001742</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -14808,7 +14839,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>-34.804701809366456,173.16512861943644</t>
+          <t>-34.80469999356108,173.16512548964516</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -14835,7 +14866,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-34.80470917634743,173.16514131744827</t>
+          <t>-34.80470715302181,173.16513782996591</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -14862,7 +14893,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-34.80472167945998,173.1651628683045</t>
+          <t>-34.80472058997731,173.1651609904288</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -14889,7 +14920,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-34.804723132103526,173.16516537213886</t>
+          <t>-34.80472261330227,173.1651644779123</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -14916,7 +14947,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-34.80472790507475,173.16517359902372</t>
+          <t>-34.80472717875308,173.16517234710642</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -14943,7 +14974,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-34.80473931869934,173.16519327201314</t>
+          <t>-34.80473854049777,173.16519193067276</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -14970,7 +15001,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-34.8047502653999,173.16521214020355</t>
+          <t>-34.804750213519824,173.16521205078084</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -14997,7 +15028,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>-34.80475950005495,173.16522805744862</t>
+          <t>-34.80475882561392,173.16522689495307</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -15024,7 +15055,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>-34.80474741199483,173.1652072219544</t>
+          <t>-34.80474647815313,173.16520561234563</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -15051,7 +15082,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-34.80473952621976,173.1651936297039</t>
+          <t>-34.8047379179365,173.16519085760052</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -15078,7 +15109,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>-34.80473952621976,173.1651936297039</t>
+          <t>-34.8047379179365,173.16519085760052</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -15105,7 +15136,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>-34.804705856018145,173.16513559440043</t>
+          <t>-34.804702950729784,173.1651305867339</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -15132,7 +15163,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>-34.80471778845026,173.1651561616058</t>
+          <t>-34.80471612828601,173.16515330008122</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -15159,7 +15190,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-34.804721783220245,173.1651630471498</t>
+          <t>-34.80472090125808,173.16516152696474</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -15186,7 +15217,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>-34.804711199672965,173.16514480493078</t>
+          <t>-34.804710628991415,173.16514382128187</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -15213,7 +15244,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>-34.80469895595796,173.165123701193</t>
+          <t>-34.804698333396075,173.1651226281218</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -15240,7 +15271,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>-34.80470466277474,173.1651335376802</t>
+          <t>-34.80470471465488,173.1651336271028</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -15267,7 +15298,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>-34.80468380694953,173.1650975897973</t>
+          <t>-34.80468422199094,173.16509830517788</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -15294,7 +15325,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>-34.804693093499885,173.16511359643945</t>
+          <t>-34.8046939235825,173.16511502720093</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -15321,7 +15352,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>-34.80469101829329,173.1651100195359</t>
+          <t>-34.8046920558966,173.1651118079876</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -15348,7 +15379,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>-34.80468525959442,173.16510009362935</t>
+          <t>-34.804686141557355,173.16510161381314</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -15375,7 +15406,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>-34.804680590378524,173.16509204559807</t>
+          <t>-34.80468121294067,173.16509311866886</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -15402,7 +15433,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>-34.804663833077,173.16506316211547</t>
+          <t>-34.80466466316022,173.16506459287598</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -15429,7 +15460,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>-34.804664092478006,173.16506360922813</t>
+          <t>-34.804664922561216,173.16506503998863</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -15440,6 +15471,33 @@
       <c r="E251" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>-34.80418889700626,173.16580170865572</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>-34.80466388495721,173.16506325153802</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>-34.805350776419445,173.16467669168776</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
